--- a/environment/runtimefiles/AllCPU-AllOS/zcadelectrotech/data/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHODпоследнее.xlsx
+++ b/environment/runtimefiles/AllCPU-AllOS/zcadelectrotech/data/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHODпоследнее.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\AllCPU-AllOS\zcadelectrotech\data\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F19C86-A29D-44B5-A7F6-8F33C2C85191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B654F421-2909-4919-A6AB-977B4CA686B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="2085" windowWidth="28440" windowHeight="17910" firstSheet="8" activeTab="15" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="4740" yWindow="2235" windowWidth="43140" windowHeight="18855" firstSheet="3" activeTab="15" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="&lt;zlight&gt;" sheetId="20" r:id="rId16"/>
     <sheet name="&lt;zallcab&gt;EXPORT" sheetId="14" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -776,7 +776,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="632">
   <si>
     <t>&lt;zlight&gt;</t>
   </si>
@@ -2057,9 +2057,6 @@
     <t>Вставка УГО</t>
   </si>
   <si>
-    <t>Калибровка установки УГО</t>
-  </si>
-  <si>
     <t>Калибровка размещения УГО на распределительной схеме</t>
   </si>
   <si>
@@ -2652,6 +2649,42 @@
   </si>
   <si>
     <t>DEVICE_VSCHEMES_AFDD</t>
+  </si>
+  <si>
+    <t>Нужен N полюс или нет</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>VEL_SOCKET_3P54IN</t>
+  </si>
+  <si>
+    <t>UUVEL_SOCKET_3P54IN</t>
+  </si>
+  <si>
+    <t>VEL_SOCKET_2P54OUT</t>
+  </si>
+  <si>
+    <t>UUVEL_SOCKET_2P54OUT</t>
+  </si>
+  <si>
+    <t>VEL_SOCKET_3P31IN</t>
+  </si>
+  <si>
+    <t>UUVEL_SOCKET_3P31IN</t>
+  </si>
+  <si>
+    <t>VEL_SOCKET_2P54IN</t>
+  </si>
+  <si>
+    <t>UUVEL_SOCKET_2P54IN</t>
+  </si>
+  <si>
+    <t>VEL_SOCKET_1P54IN</t>
+  </si>
+  <si>
+    <t>UUVEL_SOCKET_1P54IN</t>
   </si>
 </sst>
 </file>
@@ -2662,7 +2695,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2935,6 +2968,11 @@
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="67">
@@ -4033,7 +4071,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4739,6 +4777,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4746,6 +4790,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4754,15 +4807,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4811,47 +4855,120 @@
     <xf numFmtId="0" fontId="15" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="46" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4861,105 +4978,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5927,10 +5971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A712ECE2-33D4-468C-AC42-3438B4F27DC9}">
-  <dimension ref="A2:CA56"/>
+  <dimension ref="A2:CA61"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AY17" sqref="AY17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5946,87 +5990,87 @@
   <sheetData>
     <row r="2" spans="1:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:79" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="238"/>
-      <c r="F3" s="233" t="s">
+      <c r="B3" s="236"/>
+      <c r="C3" s="237"/>
+      <c r="F3" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="235"/>
-      <c r="K3" s="231" t="s">
+      <c r="G3" s="239"/>
+      <c r="H3" s="240"/>
+      <c r="K3" s="233" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="232"/>
-      <c r="T3" s="232"/>
-      <c r="U3" s="232"/>
-      <c r="V3" s="232"/>
-      <c r="W3" s="232"/>
-      <c r="X3" s="232"/>
-      <c r="Y3" s="232"/>
-      <c r="Z3" s="232"/>
-      <c r="AA3" s="232"/>
-      <c r="AB3" s="232"/>
-      <c r="AC3" s="232"/>
-      <c r="AD3" s="232"/>
-      <c r="AE3" s="232"/>
-      <c r="AF3" s="232"/>
-      <c r="AG3" s="232"/>
-      <c r="AH3" s="232"/>
-      <c r="AI3" s="232"/>
-      <c r="AJ3" s="232"/>
-      <c r="AK3" s="232"/>
-      <c r="AL3" s="232"/>
-      <c r="AM3" s="232"/>
-      <c r="AN3" s="232"/>
-      <c r="AO3" s="232"/>
-      <c r="AP3" s="232"/>
-      <c r="AQ3" s="232"/>
-      <c r="AR3" s="232"/>
-      <c r="AS3" s="232"/>
-      <c r="AT3" s="232"/>
-      <c r="AU3" s="232"/>
-      <c r="AV3" s="232"/>
-      <c r="AW3" s="232"/>
-      <c r="AX3" s="232"/>
-      <c r="AY3" s="232"/>
-      <c r="AZ3" s="232"/>
-      <c r="BA3" s="232"/>
-      <c r="BB3" s="232"/>
-      <c r="BC3" s="232"/>
-      <c r="BD3" s="232"/>
-      <c r="BE3" s="232"/>
-      <c r="BF3" s="232"/>
-      <c r="BG3" s="232"/>
-      <c r="BH3" s="232"/>
-      <c r="BI3" s="232"/>
-      <c r="BJ3" s="232"/>
-      <c r="BK3" s="232"/>
-      <c r="BL3" s="232"/>
-      <c r="BM3" s="232"/>
-      <c r="BN3" s="232"/>
-      <c r="BO3" s="232"/>
-      <c r="BP3" s="232"/>
-      <c r="BQ3" s="232"/>
-      <c r="BR3" s="232"/>
-      <c r="BS3" s="232"/>
-      <c r="BT3" s="232"/>
-      <c r="BU3" s="232"/>
-      <c r="BV3" s="232"/>
-      <c r="BW3" s="232"/>
-      <c r="BX3" s="232"/>
-      <c r="BY3" s="232"/>
-      <c r="BZ3" s="232"/>
-      <c r="CA3" s="232"/>
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
+      <c r="N3" s="234"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="234"/>
+      <c r="R3" s="234"/>
+      <c r="S3" s="234"/>
+      <c r="T3" s="234"/>
+      <c r="U3" s="234"/>
+      <c r="V3" s="234"/>
+      <c r="W3" s="234"/>
+      <c r="X3" s="234"/>
+      <c r="Y3" s="234"/>
+      <c r="Z3" s="234"/>
+      <c r="AA3" s="234"/>
+      <c r="AB3" s="234"/>
+      <c r="AC3" s="234"/>
+      <c r="AD3" s="234"/>
+      <c r="AE3" s="234"/>
+      <c r="AF3" s="234"/>
+      <c r="AG3" s="234"/>
+      <c r="AH3" s="234"/>
+      <c r="AI3" s="234"/>
+      <c r="AJ3" s="234"/>
+      <c r="AK3" s="234"/>
+      <c r="AL3" s="234"/>
+      <c r="AM3" s="234"/>
+      <c r="AN3" s="234"/>
+      <c r="AO3" s="234"/>
+      <c r="AP3" s="234"/>
+      <c r="AQ3" s="234"/>
+      <c r="AR3" s="234"/>
+      <c r="AS3" s="234"/>
+      <c r="AT3" s="234"/>
+      <c r="AU3" s="234"/>
+      <c r="AV3" s="234"/>
+      <c r="AW3" s="234"/>
+      <c r="AX3" s="234"/>
+      <c r="AY3" s="234"/>
+      <c r="AZ3" s="234"/>
+      <c r="BA3" s="234"/>
+      <c r="BB3" s="234"/>
+      <c r="BC3" s="234"/>
+      <c r="BD3" s="234"/>
+      <c r="BE3" s="234"/>
+      <c r="BF3" s="234"/>
+      <c r="BG3" s="234"/>
+      <c r="BH3" s="234"/>
+      <c r="BI3" s="234"/>
+      <c r="BJ3" s="234"/>
+      <c r="BK3" s="234"/>
+      <c r="BL3" s="234"/>
+      <c r="BM3" s="234"/>
+      <c r="BN3" s="234"/>
+      <c r="BO3" s="234"/>
+      <c r="BP3" s="234"/>
+      <c r="BQ3" s="234"/>
+      <c r="BR3" s="234"/>
+      <c r="BS3" s="234"/>
+      <c r="BT3" s="234"/>
+      <c r="BU3" s="234"/>
+      <c r="BV3" s="234"/>
+      <c r="BW3" s="234"/>
+      <c r="BX3" s="234"/>
+      <c r="BY3" s="234"/>
+      <c r="BZ3" s="234"/>
+      <c r="CA3" s="234"/>
     </row>
     <row r="4" spans="1:79" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -6181,13 +6225,13 @@
         <v>138</v>
       </c>
       <c r="BC4" s="230" t="s">
+        <v>615</v>
+      </c>
+      <c r="BD4" s="230" t="s">
         <v>616</v>
       </c>
-      <c r="BD4" s="230" t="s">
+      <c r="BE4" s="230" t="s">
         <v>617</v>
-      </c>
-      <c r="BE4" s="230" t="s">
-        <v>618</v>
       </c>
       <c r="BF4" s="43" t="s">
         <v>89</v>
@@ -6625,7 +6669,7 @@
         <v>127</v>
       </c>
       <c r="AI6" s="161" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AJ6" s="2">
         <v>0</v>
@@ -6674,14 +6718,14 @@
         <v>129</v>
       </c>
       <c r="AZ6" s="227" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BA6" s="2"/>
       <c r="BB6" s="2">
         <v>5</v>
       </c>
       <c r="BC6" s="227" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="BD6" s="227">
         <v>12.5</v>
@@ -6825,7 +6869,7 @@
         <v>127</v>
       </c>
       <c r="AI7" s="161" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AJ7" s="2">
         <v>0</v>
@@ -6874,14 +6918,14 @@
         <v>129</v>
       </c>
       <c r="AZ7" s="227" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BA7" s="2"/>
       <c r="BB7" s="2">
         <v>5</v>
       </c>
       <c r="BC7" s="227" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="BD7" s="227">
         <v>12.5</v>
@@ -7026,7 +7070,7 @@
         <v>127</v>
       </c>
       <c r="AI8" s="161" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AJ8" s="2">
         <v>0</v>
@@ -7075,14 +7119,14 @@
         <v>129</v>
       </c>
       <c r="AZ8" s="227" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2">
         <v>5</v>
       </c>
       <c r="BC8" s="227" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="BD8" s="227">
         <v>12.5</v>
@@ -7145,10 +7189,10 @@
       <c r="CA8" s="2"/>
     </row>
     <row r="9" spans="1:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="239" t="s">
+      <c r="A9" s="241" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="240"/>
+      <c r="B9" s="242"/>
       <c r="F9" s="27">
         <v>2500</v>
       </c>
@@ -7225,7 +7269,7 @@
         <v>127</v>
       </c>
       <c r="AI9" s="161" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AJ9" s="2">
         <v>0</v>
@@ -7274,14 +7318,14 @@
         <v>129</v>
       </c>
       <c r="AZ9" s="227" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BA9" s="2"/>
       <c r="BB9" s="2">
         <v>5</v>
       </c>
       <c r="BC9" s="227" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="BD9" s="227">
         <v>12.5</v>
@@ -7426,7 +7470,7 @@
         <v>127</v>
       </c>
       <c r="AI10" s="161" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AJ10" s="2">
         <v>0</v>
@@ -7475,14 +7519,14 @@
         <v>129</v>
       </c>
       <c r="AZ10" s="227" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BA10" s="2"/>
       <c r="BB10" s="2">
         <v>5</v>
       </c>
       <c r="BC10" s="227" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="BD10" s="227">
         <v>12.5</v>
@@ -7627,7 +7671,7 @@
         <v>127</v>
       </c>
       <c r="AI11" s="161" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AJ11" s="2">
         <v>0</v>
@@ -7676,14 +7720,14 @@
         <v>129</v>
       </c>
       <c r="AZ11" s="227" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BA11" s="2"/>
       <c r="BB11" s="226">
         <v>5</v>
       </c>
       <c r="BC11" s="227" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="BD11" s="227">
         <v>12.5</v>
@@ -7828,7 +7872,7 @@
         <v>127</v>
       </c>
       <c r="AI12" s="161" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AJ12" s="2">
         <v>0</v>
@@ -7877,14 +7921,14 @@
         <v>129</v>
       </c>
       <c r="AZ12" s="227" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BA12" s="2"/>
       <c r="BB12" s="226">
         <v>5</v>
       </c>
       <c r="BC12" s="227" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="BD12" s="227">
         <v>12.5</v>
@@ -8023,7 +8067,7 @@
         <v>127</v>
       </c>
       <c r="AI13" s="161" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AJ13" s="2">
         <v>0</v>
@@ -8200,7 +8244,7 @@
         <v>127</v>
       </c>
       <c r="AI14" s="161" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AJ14" s="2">
         <v>0</v>
@@ -8371,7 +8415,7 @@
         <v>127</v>
       </c>
       <c r="AI15" s="161" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AJ15" s="2">
         <v>0</v>
@@ -9838,7 +9882,7 @@
         <v>101</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2">
@@ -10005,7 +10049,7 @@
         <v>101</v>
       </c>
       <c r="O25" s="161" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2">
@@ -10172,7 +10216,7 @@
         <v>101</v>
       </c>
       <c r="O26" s="161" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2">
@@ -10339,7 +10383,7 @@
         <v>101</v>
       </c>
       <c r="O27" s="161" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2">
@@ -10506,7 +10550,7 @@
         <v>101</v>
       </c>
       <c r="O28" s="161" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2">
@@ -10673,7 +10717,7 @@
         <v>101</v>
       </c>
       <c r="O29" s="161" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2">
@@ -10840,7 +10884,7 @@
         <v>101</v>
       </c>
       <c r="O30" s="161" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2">
@@ -11007,7 +11051,7 @@
         <v>101</v>
       </c>
       <c r="O31" s="161" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2">
@@ -11174,7 +11218,7 @@
         <v>101</v>
       </c>
       <c r="O32" s="161" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2">
@@ -11341,7 +11385,7 @@
         <v>101</v>
       </c>
       <c r="O33" s="161" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2">
@@ -11508,7 +11552,7 @@
         <v>101</v>
       </c>
       <c r="O34" s="161" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2">
@@ -11675,7 +11719,7 @@
         <v>101</v>
       </c>
       <c r="O35" s="161" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2">
@@ -11842,7 +11886,7 @@
         <v>101</v>
       </c>
       <c r="O36" s="161" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2">
@@ -12000,7 +12044,7 @@
         <v>101</v>
       </c>
       <c r="O37" s="161" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2">
@@ -12281,15 +12325,15 @@
     </row>
     <row r="41" spans="6:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="6:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="233" t="s">
+      <c r="F42" s="238" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="234"/>
-      <c r="H42" s="235"/>
-      <c r="K42" s="241" t="s">
-        <v>509</v>
-      </c>
-      <c r="L42" s="242"/>
+      <c r="G42" s="239"/>
+      <c r="H42" s="240"/>
+      <c r="K42" s="243" t="s">
+        <v>508</v>
+      </c>
+      <c r="L42" s="244"/>
     </row>
     <row r="43" spans="6:79" ht="31.5" x14ac:dyDescent="0.25">
       <c r="F43" s="36" t="s">
@@ -12302,7 +12346,7 @@
         <v>22</v>
       </c>
       <c r="K43" s="150" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L43" s="150">
         <v>1</v>
@@ -12315,7 +12359,7 @@
       <c r="G44" s="28"/>
       <c r="H44" s="29"/>
       <c r="K44" s="150" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L44" s="150">
         <v>0</v>
@@ -12328,7 +12372,7 @@
       <c r="G45" s="28"/>
       <c r="H45" s="29"/>
       <c r="K45" s="150" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L45" s="150">
         <v>1</v>
@@ -12341,7 +12385,7 @@
       <c r="G46" s="28"/>
       <c r="H46" s="29"/>
       <c r="K46" s="150" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L46" s="150">
         <v>0</v>
@@ -12354,7 +12398,7 @@
       <c r="G47" s="28"/>
       <c r="H47" s="29"/>
       <c r="K47" s="150" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L47" s="150">
         <v>0</v>
@@ -12381,18 +12425,56 @@
       <c r="G50" s="28"/>
       <c r="H50" s="29"/>
     </row>
-    <row r="55" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="233" t="s">
-        <v>422</v>
-      </c>
-      <c r="D56" s="234"/>
-      <c r="E56" s="235"/>
+    <row r="56" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="232" t="s">
+        <v>620</v>
+      </c>
+      <c r="D56" s="232"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="231" t="s">
+        <v>509</v>
+      </c>
+      <c r="D57" s="231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="231" t="s">
+        <v>512</v>
+      </c>
+      <c r="D58" s="231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="231" t="s">
+        <v>510</v>
+      </c>
+      <c r="D59" s="231" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="231" t="s">
+        <v>511</v>
+      </c>
+      <c r="D60" s="231" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="231" t="s">
+        <v>513</v>
+      </c>
+      <c r="D61" s="231" t="s">
+        <v>621</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C56:D56"/>
     <mergeCell ref="K3:CA3"/>
-    <mergeCell ref="C56:E56"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="A9:B9"/>
@@ -12776,16 +12858,16 @@
         <v>378</v>
       </c>
       <c r="Y5" s="127" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z5" s="127" t="s">
         <v>491</v>
       </c>
-      <c r="Z5" s="127" t="s">
+      <c r="AA5" s="128" t="s">
         <v>492</v>
       </c>
-      <c r="AA5" s="128" t="s">
+      <c r="AB5" s="128" t="s">
         <v>493</v>
-      </c>
-      <c r="AB5" s="128" t="s">
-        <v>494</v>
       </c>
       <c r="AC5" s="63"/>
     </row>
@@ -12945,24 +13027,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="C1" s="254" t="s">
-        <v>437</v>
-      </c>
-      <c r="D1" s="254"/>
-      <c r="L1" s="253" t="s">
-        <v>475</v>
-      </c>
-      <c r="M1" s="253"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="253"/>
-      <c r="P1" s="253"/>
-      <c r="Q1" s="253"/>
-      <c r="R1" s="253"/>
-      <c r="S1" s="253"/>
+      <c r="C1" s="256" t="s">
+        <v>436</v>
+      </c>
+      <c r="D1" s="256"/>
+      <c r="L1" s="255" t="s">
+        <v>474</v>
+      </c>
+      <c r="M1" s="255"/>
+      <c r="N1" s="255"/>
+      <c r="O1" s="255"/>
+      <c r="P1" s="255"/>
+      <c r="Q1" s="255"/>
+      <c r="R1" s="255"/>
+      <c r="S1" s="255"/>
     </row>
     <row r="2" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C2" s="105" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D2" s="105">
         <v>1</v>
@@ -12970,26 +13052,26 @@
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C3" s="105" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D3" s="105">
         <f>D2</f>
         <v>1</v>
       </c>
       <c r="N3" t="s">
+        <v>475</v>
+      </c>
+      <c r="O3" t="s">
         <v>476</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>477</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>478</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>479</v>
-      </c>
-      <c r="R3" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="4" spans="2:45" x14ac:dyDescent="0.25">
@@ -12997,7 +13079,7 @@
         <v>209</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N4" s="135">
         <v>0</v>
@@ -13037,13 +13119,13 @@
         <v>231</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>334</v>
       </c>
       <c r="K6" s="110" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N6" s="138"/>
       <c r="O6" s="135">
@@ -13093,7 +13175,7 @@
         <v>209</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N7" s="138">
         <v>0</v>
@@ -13114,49 +13196,49 @@
         <v>0</v>
       </c>
       <c r="S7" s="139" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T7" s="124" t="str">
         <f>IF(C7=0,"",C7)</f>
         <v/>
       </c>
       <c r="U7" s="140" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="V7" s="140" t="str">
         <f>IF(C7=0,"",D7)</f>
         <v/>
       </c>
       <c r="W7" s="141" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="X7" s="142" t="str">
         <f>IF(C7=0,"",E7)</f>
         <v/>
       </c>
       <c r="Y7" s="141" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Z7" s="140" t="str">
         <f>IF(C7=0,"",F7)</f>
         <v/>
       </c>
       <c r="AA7" s="143" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AB7" s="144" t="str">
         <f>IF(C7=0,"",G7)</f>
         <v/>
       </c>
       <c r="AC7" s="145" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AD7" s="144" t="str">
         <f>IF(C7=0,"",H7)</f>
         <v/>
       </c>
       <c r="AE7" s="145" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF7" s="146" t="str">
         <f>IF(C7=0,"",I7)</f>
@@ -13186,7 +13268,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13205,7 +13287,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13226,12 +13308,12 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -13432,7 +13514,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C6" t="s">
         <v>318</v>
@@ -13484,8 +13566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B9844E-F661-46DB-A8DF-606C0C725DFB}">
   <dimension ref="A1:JB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FR7" workbookViewId="0">
-      <selection activeCell="GI27" sqref="GI27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13493,7 +13575,8 @@
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" customWidth="1"/>
     <col min="5" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="9" width="35.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" customWidth="1"/>
     <col min="11" max="11" width="35.7109375" customWidth="1"/>
     <col min="12" max="14" width="7.7109375" customWidth="1"/>
@@ -13541,31 +13624,31 @@
       </c>
     </row>
     <row r="4" spans="4:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="259" t="s">
+      <c r="D4" s="293" t="s">
         <v>313</v>
       </c>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
+      <c r="E4" s="293"/>
+      <c r="F4" s="293"/>
+      <c r="G4" s="293"/>
+      <c r="H4" s="293"/>
       <c r="I4" s="66" t="s">
         <v>312</v>
       </c>
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
       <c r="P4" s="66"/>
-      <c r="Q4" s="259" t="s">
+      <c r="Q4" s="293" t="s">
         <v>311</v>
       </c>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="259"/>
-      <c r="U4" s="259"/>
-      <c r="V4" s="259"/>
-      <c r="Z4" s="254" t="s">
-        <v>437</v>
-      </c>
-      <c r="AA4" s="254"/>
+      <c r="R4" s="293"/>
+      <c r="S4" s="293"/>
+      <c r="T4" s="293"/>
+      <c r="U4" s="293"/>
+      <c r="V4" s="293"/>
+      <c r="Z4" s="256" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA4" s="256"/>
       <c r="AU4" s="102" t="s">
         <v>403</v>
       </c>
@@ -13594,12 +13677,12 @@
       </c>
     </row>
     <row r="5" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D5" s="260" t="s">
+      <c r="D5" s="294" t="s">
         <v>310</v>
       </c>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="294"/>
+      <c r="G5" s="294"/>
       <c r="H5" s="106">
         <f>AU5</f>
         <v>0</v>
@@ -13612,19 +13695,19 @@
       <c r="P5" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="Q5" s="261" t="s">
+      <c r="Q5" s="295" t="s">
         <v>307</v>
       </c>
-      <c r="R5" s="261"/>
-      <c r="S5" s="261"/>
-      <c r="T5" s="261"/>
-      <c r="U5" s="261">
+      <c r="R5" s="295"/>
+      <c r="S5" s="295"/>
+      <c r="T5" s="295"/>
+      <c r="U5" s="295">
         <f ca="1">ROUNDUP(SUM($AC$26:$AC$900000),2)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="261"/>
+      <c r="V5" s="295"/>
       <c r="Z5" s="105" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AA5" s="105">
         <v>1</v>
@@ -13671,14 +13754,14 @@
       </c>
     </row>
     <row r="6" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D6" s="262" t="s">
+      <c r="D6" s="296" t="s">
         <v>306</v>
       </c>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
-      <c r="G6" s="262"/>
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
       <c r="H6" s="95" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I6" s="65" t="s">
         <v>305</v>
@@ -13688,31 +13771,31 @@
       <c r="P6" s="65">
         <v>63</v>
       </c>
-      <c r="Q6" s="261" t="s">
+      <c r="Q6" s="295" t="s">
         <v>304</v>
       </c>
-      <c r="R6" s="261"/>
-      <c r="S6" s="261"/>
-      <c r="T6" s="261"/>
-      <c r="U6" s="261">
+      <c r="R6" s="295"/>
+      <c r="S6" s="295"/>
+      <c r="T6" s="295"/>
+      <c r="U6" s="295">
         <f ca="1">ROUNDUP(U5*U11,2)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="261"/>
+      <c r="V6" s="295"/>
       <c r="Z6" s="105" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AA6" s="105">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D7" s="255" t="s">
+      <c r="D7" s="288" t="s">
         <v>303</v>
       </c>
-      <c r="E7" s="255"/>
-      <c r="F7" s="255"/>
-      <c r="G7" s="255"/>
+      <c r="E7" s="288"/>
+      <c r="F7" s="288"/>
+      <c r="G7" s="288"/>
       <c r="H7" s="62">
         <v>45399</v>
       </c>
@@ -13724,25 +13807,25 @@
       <c r="P7" s="65">
         <v>32</v>
       </c>
-      <c r="Q7" s="261" t="s">
+      <c r="Q7" s="295" t="s">
         <v>301</v>
       </c>
-      <c r="R7" s="261"/>
-      <c r="S7" s="261"/>
-      <c r="T7" s="261"/>
-      <c r="U7" s="261">
+      <c r="R7" s="295"/>
+      <c r="S7" s="295"/>
+      <c r="T7" s="295"/>
+      <c r="U7" s="295">
         <f ca="1">ROUNDUP((U6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*U8),2)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="261"/>
+      <c r="V7" s="295"/>
     </row>
     <row r="8" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D8" s="255" t="s">
+      <c r="D8" s="288" t="s">
         <v>300</v>
       </c>
-      <c r="E8" s="255"/>
-      <c r="F8" s="255"/>
-      <c r="G8" s="255"/>
+      <c r="E8" s="288"/>
+      <c r="F8" s="288"/>
+      <c r="G8" s="288"/>
       <c r="H8" s="62" t="s">
         <v>299</v>
       </c>
@@ -13754,24 +13837,24 @@
       <c r="P8" s="65">
         <v>6</v>
       </c>
-      <c r="Q8" s="263" t="s">
+      <c r="Q8" s="297" t="s">
         <v>297</v>
       </c>
-      <c r="R8" s="264"/>
-      <c r="S8" s="264"/>
-      <c r="T8" s="265"/>
-      <c r="U8" s="268">
+      <c r="R8" s="298"/>
+      <c r="S8" s="298"/>
+      <c r="T8" s="299"/>
+      <c r="U8" s="286">
         <v>0.92</v>
       </c>
-      <c r="V8" s="268"/>
+      <c r="V8" s="286"/>
     </row>
     <row r="9" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D9" s="255" t="s">
+      <c r="D9" s="288" t="s">
         <v>296</v>
       </c>
-      <c r="E9" s="255"/>
-      <c r="F9" s="255"/>
-      <c r="G9" s="255"/>
+      <c r="E9" s="288"/>
+      <c r="F9" s="288"/>
+      <c r="G9" s="288"/>
       <c r="H9" s="62" t="s">
         <v>295</v>
       </c>
@@ -13783,22 +13866,22 @@
       <c r="P9" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="Q9" s="256" t="s">
+      <c r="Q9" s="300" t="s">
         <v>292</v>
       </c>
-      <c r="R9" s="256"/>
-      <c r="S9" s="256"/>
-      <c r="T9" s="256"/>
-      <c r="U9" s="257"/>
-      <c r="V9" s="257"/>
+      <c r="R9" s="300"/>
+      <c r="S9" s="300"/>
+      <c r="T9" s="300"/>
+      <c r="U9" s="301"/>
+      <c r="V9" s="301"/>
     </row>
     <row r="10" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D10" s="255" t="s">
+      <c r="D10" s="288" t="s">
         <v>291</v>
       </c>
-      <c r="E10" s="255"/>
-      <c r="F10" s="255"/>
-      <c r="G10" s="255"/>
+      <c r="E10" s="288"/>
+      <c r="F10" s="288"/>
+      <c r="G10" s="288"/>
       <c r="I10" s="65" t="s">
         <v>290</v>
       </c>
@@ -13807,20 +13890,20 @@
       <c r="P10" s="65">
         <v>4</v>
       </c>
-      <c r="Q10" s="256"/>
-      <c r="R10" s="256"/>
-      <c r="S10" s="256"/>
-      <c r="T10" s="256"/>
-      <c r="U10" s="257"/>
-      <c r="V10" s="257"/>
+      <c r="Q10" s="300"/>
+      <c r="R10" s="300"/>
+      <c r="S10" s="300"/>
+      <c r="T10" s="300"/>
+      <c r="U10" s="301"/>
+      <c r="V10" s="301"/>
     </row>
     <row r="11" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D11" s="255" t="s">
+      <c r="D11" s="288" t="s">
         <v>289</v>
       </c>
-      <c r="E11" s="255"/>
-      <c r="F11" s="255"/>
-      <c r="G11" s="255"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
       <c r="H11" s="105">
         <v>380</v>
       </c>
@@ -13832,24 +13915,24 @@
       <c r="P11" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="Q11" s="281" t="s">
+      <c r="Q11" s="279" t="s">
         <v>286</v>
       </c>
-      <c r="R11" s="282"/>
-      <c r="S11" s="282"/>
-      <c r="T11" s="283"/>
-      <c r="U11" s="284">
+      <c r="R11" s="280"/>
+      <c r="S11" s="280"/>
+      <c r="T11" s="281"/>
+      <c r="U11" s="282">
         <v>1</v>
       </c>
-      <c r="V11" s="285"/>
+      <c r="V11" s="283"/>
     </row>
     <row r="12" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D12" s="255" t="s">
+      <c r="D12" s="288" t="s">
         <v>285</v>
       </c>
-      <c r="E12" s="255"/>
-      <c r="F12" s="255"/>
-      <c r="G12" s="255"/>
+      <c r="E12" s="288"/>
+      <c r="F12" s="288"/>
+      <c r="G12" s="288"/>
       <c r="H12" s="62" t="s">
         <v>284</v>
       </c>
@@ -13861,24 +13944,24 @@
       <c r="P12" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="Q12" s="258" t="s">
+      <c r="Q12" s="289" t="s">
         <v>282</v>
       </c>
-      <c r="R12" s="258"/>
-      <c r="S12" s="258"/>
-      <c r="T12" s="258"/>
-      <c r="U12" s="258">
+      <c r="R12" s="289"/>
+      <c r="S12" s="289"/>
+      <c r="T12" s="289"/>
+      <c r="U12" s="289">
         <v>44.5</v>
       </c>
-      <c r="V12" s="258"/>
+      <c r="V12" s="289"/>
     </row>
     <row r="13" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D13" s="255" t="s">
+      <c r="D13" s="288" t="s">
         <v>281</v>
       </c>
-      <c r="E13" s="255"/>
-      <c r="F13" s="255"/>
-      <c r="G13" s="255"/>
+      <c r="E13" s="288"/>
+      <c r="F13" s="288"/>
+      <c r="G13" s="288"/>
       <c r="H13" s="62" t="s">
         <v>280</v>
       </c>
@@ -13886,24 +13969,24 @@
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
       <c r="P13" s="63"/>
-      <c r="Q13" s="258" t="s">
+      <c r="Q13" s="289" t="s">
         <v>279</v>
       </c>
-      <c r="R13" s="258"/>
-      <c r="S13" s="258"/>
-      <c r="T13" s="258"/>
-      <c r="U13" s="258">
+      <c r="R13" s="289"/>
+      <c r="S13" s="289"/>
+      <c r="T13" s="289"/>
+      <c r="U13" s="289">
         <v>44.5</v>
       </c>
-      <c r="V13" s="258"/>
+      <c r="V13" s="289"/>
     </row>
     <row r="14" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D14" s="255" t="s">
+      <c r="D14" s="288" t="s">
         <v>278</v>
       </c>
-      <c r="E14" s="255"/>
-      <c r="F14" s="255"/>
-      <c r="G14" s="255"/>
+      <c r="E14" s="288"/>
+      <c r="F14" s="288"/>
+      <c r="G14" s="288"/>
       <c r="H14" s="64" t="str">
         <f>'&lt;zlight&gt;'!G20&amp;"."&amp;'&lt;zlight&gt;'!H20</f>
         <v>.</v>
@@ -13912,56 +13995,56 @@
       <c r="J14" s="98"/>
       <c r="K14" s="98"/>
       <c r="P14" s="63"/>
-      <c r="Q14" s="258" t="s">
+      <c r="Q14" s="289" t="s">
         <v>277</v>
       </c>
-      <c r="R14" s="258"/>
-      <c r="S14" s="258"/>
-      <c r="T14" s="258"/>
-      <c r="U14" s="258">
+      <c r="R14" s="289"/>
+      <c r="S14" s="289"/>
+      <c r="T14" s="289"/>
+      <c r="U14" s="289">
         <v>44.5</v>
       </c>
-      <c r="V14" s="258"/>
+      <c r="V14" s="289"/>
     </row>
     <row r="15" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D15" s="255" t="s">
+      <c r="D15" s="288" t="s">
         <v>276</v>
       </c>
-      <c r="E15" s="255"/>
-      <c r="F15" s="255"/>
-      <c r="G15" s="255"/>
+      <c r="E15" s="288"/>
+      <c r="F15" s="288"/>
+      <c r="G15" s="288"/>
       <c r="H15" s="62">
         <v>77</v>
       </c>
       <c r="P15" s="63"/>
-      <c r="Q15" s="267" t="s">
+      <c r="Q15" s="290" t="s">
         <v>275</v>
       </c>
-      <c r="R15" s="267"/>
-      <c r="S15" s="267"/>
-      <c r="T15" s="267"/>
-      <c r="U15" s="268">
+      <c r="R15" s="290"/>
+      <c r="S15" s="290"/>
+      <c r="T15" s="290"/>
+      <c r="U15" s="286">
         <f ca="1">ROUNDUP((U6*1000)/(INDEX(BD!$C$4:$C$5,MATCH(H11,BD!$B$4:$B$5,0))*U8),2)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="268"/>
+      <c r="V15" s="286"/>
     </row>
     <row r="16" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="Q16" s="271" t="s">
+      <c r="Q16" s="269" t="s">
         <v>406</v>
       </c>
-      <c r="R16" s="271"/>
-      <c r="S16" s="271"/>
-      <c r="T16" s="271"/>
-      <c r="U16" s="271" t="e">
+      <c r="R16" s="269"/>
+      <c r="S16" s="269"/>
+      <c r="T16" s="269"/>
+      <c r="U16" s="269" t="e">
         <f>INDEX(BB5:BB9,MATCH(1,BD5:BD9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="V16" s="271"/>
+      <c r="V16" s="269"/>
     </row>
     <row r="22" spans="1:262" x14ac:dyDescent="0.25">
       <c r="L22" s="148" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:262" x14ac:dyDescent="0.25">
@@ -15014,209 +15097,209 @@
       </c>
     </row>
     <row r="25" spans="1:262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BD25" s="275" t="s">
-        <v>515</v>
-      </c>
-      <c r="BE25" s="276"/>
-      <c r="BF25" s="276"/>
-      <c r="BG25" s="276"/>
-      <c r="BH25" s="276"/>
-      <c r="BI25" s="276"/>
-      <c r="BJ25" s="276"/>
-      <c r="BK25" s="276"/>
-      <c r="BL25" s="276"/>
-      <c r="BM25" s="276"/>
-      <c r="BN25" s="276"/>
-      <c r="BO25" s="276"/>
-      <c r="BP25" s="276"/>
-      <c r="BQ25" s="276"/>
-      <c r="BR25" s="276"/>
-      <c r="BS25" s="276"/>
-      <c r="BT25" s="276"/>
-      <c r="BU25" s="276"/>
-      <c r="BV25" s="276"/>
-      <c r="BW25" s="276"/>
-      <c r="BX25" s="276"/>
-      <c r="BY25" s="276"/>
-      <c r="BZ25" s="276"/>
-      <c r="CA25" s="277"/>
-      <c r="CB25" s="275" t="s">
-        <v>518</v>
-      </c>
-      <c r="CC25" s="276"/>
-      <c r="CD25" s="276"/>
-      <c r="CE25" s="276"/>
-      <c r="CF25" s="276"/>
-      <c r="CG25" s="276"/>
-      <c r="CH25" s="276"/>
-      <c r="CI25" s="276"/>
-      <c r="CJ25" s="276"/>
-      <c r="CK25" s="276"/>
-      <c r="CL25" s="276"/>
-      <c r="CM25" s="276"/>
-      <c r="CN25" s="276"/>
-      <c r="CO25" s="276"/>
-      <c r="CP25" s="276"/>
-      <c r="CQ25" s="276"/>
-      <c r="CR25" s="276"/>
-      <c r="CS25" s="276"/>
-      <c r="CT25" s="278" t="s">
+      <c r="BD25" s="273" t="s">
+        <v>514</v>
+      </c>
+      <c r="BE25" s="274"/>
+      <c r="BF25" s="274"/>
+      <c r="BG25" s="274"/>
+      <c r="BH25" s="274"/>
+      <c r="BI25" s="274"/>
+      <c r="BJ25" s="274"/>
+      <c r="BK25" s="274"/>
+      <c r="BL25" s="274"/>
+      <c r="BM25" s="274"/>
+      <c r="BN25" s="274"/>
+      <c r="BO25" s="274"/>
+      <c r="BP25" s="274"/>
+      <c r="BQ25" s="274"/>
+      <c r="BR25" s="274"/>
+      <c r="BS25" s="274"/>
+      <c r="BT25" s="274"/>
+      <c r="BU25" s="274"/>
+      <c r="BV25" s="274"/>
+      <c r="BW25" s="274"/>
+      <c r="BX25" s="274"/>
+      <c r="BY25" s="274"/>
+      <c r="BZ25" s="274"/>
+      <c r="CA25" s="275"/>
+      <c r="CB25" s="273" t="s">
+        <v>517</v>
+      </c>
+      <c r="CC25" s="274"/>
+      <c r="CD25" s="274"/>
+      <c r="CE25" s="274"/>
+      <c r="CF25" s="274"/>
+      <c r="CG25" s="274"/>
+      <c r="CH25" s="274"/>
+      <c r="CI25" s="274"/>
+      <c r="CJ25" s="274"/>
+      <c r="CK25" s="274"/>
+      <c r="CL25" s="274"/>
+      <c r="CM25" s="274"/>
+      <c r="CN25" s="274"/>
+      <c r="CO25" s="274"/>
+      <c r="CP25" s="274"/>
+      <c r="CQ25" s="274"/>
+      <c r="CR25" s="274"/>
+      <c r="CS25" s="274"/>
+      <c r="CT25" s="276" t="s">
         <v>266</v>
       </c>
-      <c r="CU25" s="279"/>
-      <c r="CV25" s="279"/>
-      <c r="CW25" s="279"/>
-      <c r="CX25" s="279"/>
-      <c r="CY25" s="279"/>
-      <c r="CZ25" s="279"/>
-      <c r="DA25" s="279"/>
-      <c r="DB25" s="279"/>
-      <c r="DC25" s="279"/>
-      <c r="DD25" s="279"/>
-      <c r="DE25" s="279"/>
-      <c r="DF25" s="279"/>
-      <c r="DG25" s="279"/>
-      <c r="DH25" s="279"/>
-      <c r="DI25" s="279"/>
-      <c r="DJ25" s="279"/>
-      <c r="DK25" s="279"/>
-      <c r="DL25" s="279"/>
-      <c r="DM25" s="279"/>
-      <c r="DN25" s="279"/>
-      <c r="DO25" s="279"/>
-      <c r="DP25" s="279"/>
-      <c r="DQ25" s="279"/>
-      <c r="DR25" s="279"/>
-      <c r="DS25" s="279"/>
-      <c r="DT25" s="279"/>
-      <c r="DU25" s="279"/>
-      <c r="DV25" s="279"/>
-      <c r="DW25" s="279"/>
-      <c r="DX25" s="279"/>
-      <c r="DY25" s="279"/>
-      <c r="DZ25" s="279"/>
-      <c r="EA25" s="279"/>
-      <c r="EB25" s="279"/>
-      <c r="EC25" s="279"/>
-      <c r="ED25" s="279"/>
-      <c r="EE25" s="279"/>
-      <c r="EF25" s="279"/>
-      <c r="EG25" s="279"/>
-      <c r="EH25" s="279"/>
-      <c r="EI25" s="279"/>
-      <c r="EJ25" s="279"/>
-      <c r="EK25" s="279"/>
-      <c r="EL25" s="279"/>
-      <c r="EM25" s="279"/>
-      <c r="EN25" s="279"/>
-      <c r="EO25" s="279"/>
-      <c r="EP25" s="279"/>
-      <c r="EQ25" s="279"/>
-      <c r="ER25" s="279"/>
-      <c r="ES25" s="279"/>
-      <c r="ET25" s="279"/>
-      <c r="EU25" s="279"/>
-      <c r="EV25" s="279"/>
-      <c r="EW25" s="279"/>
-      <c r="EX25" s="279"/>
-      <c r="EY25" s="279"/>
-      <c r="EZ25" s="279"/>
-      <c r="FA25" s="279"/>
-      <c r="FB25" s="279"/>
-      <c r="FC25" s="279"/>
-      <c r="FD25" s="279"/>
-      <c r="FE25" s="279"/>
-      <c r="FF25" s="279"/>
-      <c r="FG25" s="279"/>
-      <c r="FH25" s="279"/>
-      <c r="FI25" s="279"/>
-      <c r="FJ25" s="279"/>
-      <c r="FK25" s="279"/>
-      <c r="FL25" s="279"/>
-      <c r="FM25" s="279"/>
-      <c r="FN25" s="279"/>
-      <c r="FO25" s="279"/>
-      <c r="FP25" s="280"/>
+      <c r="CU25" s="277"/>
+      <c r="CV25" s="277"/>
+      <c r="CW25" s="277"/>
+      <c r="CX25" s="277"/>
+      <c r="CY25" s="277"/>
+      <c r="CZ25" s="277"/>
+      <c r="DA25" s="277"/>
+      <c r="DB25" s="277"/>
+      <c r="DC25" s="277"/>
+      <c r="DD25" s="277"/>
+      <c r="DE25" s="277"/>
+      <c r="DF25" s="277"/>
+      <c r="DG25" s="277"/>
+      <c r="DH25" s="277"/>
+      <c r="DI25" s="277"/>
+      <c r="DJ25" s="277"/>
+      <c r="DK25" s="277"/>
+      <c r="DL25" s="277"/>
+      <c r="DM25" s="277"/>
+      <c r="DN25" s="277"/>
+      <c r="DO25" s="277"/>
+      <c r="DP25" s="277"/>
+      <c r="DQ25" s="277"/>
+      <c r="DR25" s="277"/>
+      <c r="DS25" s="277"/>
+      <c r="DT25" s="277"/>
+      <c r="DU25" s="277"/>
+      <c r="DV25" s="277"/>
+      <c r="DW25" s="277"/>
+      <c r="DX25" s="277"/>
+      <c r="DY25" s="277"/>
+      <c r="DZ25" s="277"/>
+      <c r="EA25" s="277"/>
+      <c r="EB25" s="277"/>
+      <c r="EC25" s="277"/>
+      <c r="ED25" s="277"/>
+      <c r="EE25" s="277"/>
+      <c r="EF25" s="277"/>
+      <c r="EG25" s="277"/>
+      <c r="EH25" s="277"/>
+      <c r="EI25" s="277"/>
+      <c r="EJ25" s="277"/>
+      <c r="EK25" s="277"/>
+      <c r="EL25" s="277"/>
+      <c r="EM25" s="277"/>
+      <c r="EN25" s="277"/>
+      <c r="EO25" s="277"/>
+      <c r="EP25" s="277"/>
+      <c r="EQ25" s="277"/>
+      <c r="ER25" s="277"/>
+      <c r="ES25" s="277"/>
+      <c r="ET25" s="277"/>
+      <c r="EU25" s="277"/>
+      <c r="EV25" s="277"/>
+      <c r="EW25" s="277"/>
+      <c r="EX25" s="277"/>
+      <c r="EY25" s="277"/>
+      <c r="EZ25" s="277"/>
+      <c r="FA25" s="277"/>
+      <c r="FB25" s="277"/>
+      <c r="FC25" s="277"/>
+      <c r="FD25" s="277"/>
+      <c r="FE25" s="277"/>
+      <c r="FF25" s="277"/>
+      <c r="FG25" s="277"/>
+      <c r="FH25" s="277"/>
+      <c r="FI25" s="277"/>
+      <c r="FJ25" s="277"/>
+      <c r="FK25" s="277"/>
+      <c r="FL25" s="277"/>
+      <c r="FM25" s="277"/>
+      <c r="FN25" s="277"/>
+      <c r="FO25" s="277"/>
+      <c r="FP25" s="278"/>
     </row>
     <row r="26" spans="1:262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="269" t="s">
+      <c r="D26" s="291" t="s">
         <v>274</v>
       </c>
-      <c r="E26" s="266" t="s">
+      <c r="E26" s="261" t="s">
         <v>225</v>
       </c>
-      <c r="F26" s="266" t="s">
+      <c r="F26" s="261" t="s">
         <v>224</v>
       </c>
-      <c r="G26" s="266" t="s">
+      <c r="G26" s="261" t="s">
         <v>273</v>
       </c>
-      <c r="H26" s="266" t="s">
+      <c r="H26" s="261" t="s">
         <v>272</v>
       </c>
-      <c r="I26" s="266" t="s">
+      <c r="I26" s="261" t="s">
         <v>271</v>
       </c>
-      <c r="J26" s="290" t="s">
-        <v>615</v>
-      </c>
-      <c r="K26" s="270" t="s">
+      <c r="J26" s="257" t="s">
+        <v>614</v>
+      </c>
+      <c r="K26" s="292" t="s">
         <v>390</v>
       </c>
-      <c r="L26" s="293" t="s">
+      <c r="L26" s="260" t="s">
         <v>391</v>
       </c>
-      <c r="M26" s="293"/>
-      <c r="N26" s="293"/>
-      <c r="O26" s="266" t="s">
+      <c r="M26" s="260"/>
+      <c r="N26" s="260"/>
+      <c r="O26" s="261" t="s">
         <v>270</v>
       </c>
-      <c r="P26" s="294" t="s">
+      <c r="P26" s="262" t="s">
         <v>269</v>
       </c>
-      <c r="Q26" s="294"/>
-      <c r="R26" s="294"/>
-      <c r="S26" s="294"/>
-      <c r="T26" s="294"/>
-      <c r="U26" s="294"/>
-      <c r="V26" s="294"/>
-      <c r="W26" s="294"/>
-      <c r="X26" s="294"/>
-      <c r="Y26" s="294"/>
-      <c r="Z26" s="294"/>
-      <c r="AA26" s="294"/>
-      <c r="AB26" s="295" t="s">
+      <c r="Q26" s="262"/>
+      <c r="R26" s="262"/>
+      <c r="S26" s="262"/>
+      <c r="T26" s="262"/>
+      <c r="U26" s="262"/>
+      <c r="V26" s="262"/>
+      <c r="W26" s="262"/>
+      <c r="X26" s="262"/>
+      <c r="Y26" s="262"/>
+      <c r="Z26" s="262"/>
+      <c r="AA26" s="262"/>
+      <c r="AB26" s="263" t="s">
         <v>268</v>
       </c>
-      <c r="AC26" s="295"/>
-      <c r="AD26" s="295"/>
-      <c r="AE26" s="295"/>
-      <c r="AF26" s="295"/>
-      <c r="AG26" s="295"/>
-      <c r="AH26" s="295"/>
-      <c r="AI26" s="295"/>
-      <c r="AJ26" s="295"/>
-      <c r="AK26" s="295"/>
-      <c r="AL26" s="295"/>
-      <c r="AM26" s="295"/>
-      <c r="AN26" s="295" t="s">
+      <c r="AC26" s="263"/>
+      <c r="AD26" s="263"/>
+      <c r="AE26" s="263"/>
+      <c r="AF26" s="263"/>
+      <c r="AG26" s="263"/>
+      <c r="AH26" s="263"/>
+      <c r="AI26" s="263"/>
+      <c r="AJ26" s="263"/>
+      <c r="AK26" s="263"/>
+      <c r="AL26" s="263"/>
+      <c r="AM26" s="263"/>
+      <c r="AN26" s="263" t="s">
         <v>267</v>
       </c>
-      <c r="AO26" s="295"/>
-      <c r="AP26" s="295"/>
-      <c r="AQ26" s="295"/>
-      <c r="AR26" s="295"/>
-      <c r="AS26" s="295"/>
-      <c r="AT26" s="295"/>
-      <c r="AU26" s="295"/>
-      <c r="AV26" s="295"/>
-      <c r="AW26" s="295"/>
-      <c r="AX26" s="295"/>
-      <c r="AY26" s="295"/>
-      <c r="AZ26" s="295"/>
-      <c r="BA26" s="295"/>
-      <c r="BB26" s="295"/>
-      <c r="BC26" s="295"/>
+      <c r="AO26" s="263"/>
+      <c r="AP26" s="263"/>
+      <c r="AQ26" s="263"/>
+      <c r="AR26" s="263"/>
+      <c r="AS26" s="263"/>
+      <c r="AT26" s="263"/>
+      <c r="AU26" s="263"/>
+      <c r="AV26" s="263"/>
+      <c r="AW26" s="263"/>
+      <c r="AX26" s="263"/>
+      <c r="AY26" s="263"/>
+      <c r="AZ26" s="263"/>
+      <c r="BA26" s="263"/>
+      <c r="BB26" s="263"/>
+      <c r="BC26" s="263"/>
       <c r="BD26" s="63"/>
       <c r="BE26" s="63"/>
       <c r="BF26" s="63"/>
@@ -15225,26 +15308,26 @@
       <c r="BI26" s="63"/>
       <c r="BJ26" s="63"/>
       <c r="BK26" s="63"/>
-      <c r="BL26" s="297" t="s">
-        <v>504</v>
-      </c>
-      <c r="BM26" s="297"/>
-      <c r="BN26" s="297"/>
-      <c r="BO26" s="297"/>
-      <c r="BP26" s="297"/>
-      <c r="BQ26" s="297"/>
-      <c r="BR26" s="297"/>
-      <c r="BS26" s="297"/>
+      <c r="BL26" s="265" t="s">
+        <v>503</v>
+      </c>
+      <c r="BM26" s="265"/>
+      <c r="BN26" s="265"/>
+      <c r="BO26" s="265"/>
+      <c r="BP26" s="265"/>
+      <c r="BQ26" s="265"/>
+      <c r="BR26" s="265"/>
+      <c r="BS26" s="265"/>
       <c r="BT26" s="63"/>
       <c r="BU26" s="63"/>
       <c r="BV26" s="63"/>
-      <c r="BW26" s="298" t="s">
-        <v>517</v>
-      </c>
-      <c r="BX26" s="298"/>
-      <c r="BY26" s="298"/>
-      <c r="BZ26" s="298"/>
-      <c r="CA26" s="298"/>
+      <c r="BW26" s="266" t="s">
+        <v>516</v>
+      </c>
+      <c r="BX26" s="266"/>
+      <c r="BY26" s="266"/>
+      <c r="BZ26" s="266"/>
+      <c r="CA26" s="266"/>
       <c r="CB26" s="63"/>
       <c r="CC26" s="63"/>
       <c r="CD26" s="63"/>
@@ -15275,84 +15358,84 @@
       <c r="DC26" s="63"/>
       <c r="DD26" s="63"/>
       <c r="DE26" s="63"/>
-      <c r="DF26" s="287" t="s">
-        <v>538</v>
-      </c>
-      <c r="DG26" s="287"/>
-      <c r="DH26" s="287"/>
-      <c r="DI26" s="287"/>
-      <c r="DJ26" s="287"/>
-      <c r="DK26" s="287"/>
-      <c r="DL26" s="287"/>
-      <c r="DM26" s="287"/>
-      <c r="DN26" s="287"/>
-      <c r="DO26" s="287"/>
-      <c r="DP26" s="287"/>
-      <c r="DQ26" s="287"/>
-      <c r="DR26" s="287"/>
-      <c r="DS26" s="287"/>
-      <c r="DT26" s="287"/>
-      <c r="DU26" s="287"/>
-      <c r="DV26" s="287"/>
-      <c r="DW26" s="287"/>
-      <c r="DX26" s="286" t="s">
+      <c r="DF26" s="285" t="s">
+        <v>537</v>
+      </c>
+      <c r="DG26" s="285"/>
+      <c r="DH26" s="285"/>
+      <c r="DI26" s="285"/>
+      <c r="DJ26" s="285"/>
+      <c r="DK26" s="285"/>
+      <c r="DL26" s="285"/>
+      <c r="DM26" s="285"/>
+      <c r="DN26" s="285"/>
+      <c r="DO26" s="285"/>
+      <c r="DP26" s="285"/>
+      <c r="DQ26" s="285"/>
+      <c r="DR26" s="285"/>
+      <c r="DS26" s="285"/>
+      <c r="DT26" s="285"/>
+      <c r="DU26" s="285"/>
+      <c r="DV26" s="285"/>
+      <c r="DW26" s="285"/>
+      <c r="DX26" s="284" t="s">
         <v>206</v>
       </c>
-      <c r="DY26" s="286"/>
-      <c r="DZ26" s="286"/>
-      <c r="EA26" s="272" t="s">
+      <c r="DY26" s="284"/>
+      <c r="DZ26" s="284"/>
+      <c r="EA26" s="270" t="s">
         <v>205</v>
       </c>
-      <c r="EB26" s="273"/>
-      <c r="EC26" s="273"/>
-      <c r="ED26" s="273"/>
-      <c r="EE26" s="273"/>
-      <c r="EF26" s="273"/>
-      <c r="EG26" s="273"/>
-      <c r="EH26" s="273"/>
-      <c r="EI26" s="273"/>
-      <c r="EJ26" s="273"/>
-      <c r="EK26" s="273"/>
-      <c r="EL26" s="273"/>
-      <c r="EM26" s="273"/>
-      <c r="EN26" s="273"/>
-      <c r="EO26" s="273"/>
-      <c r="EP26" s="273"/>
-      <c r="EQ26" s="288" t="s">
+      <c r="EB26" s="271"/>
+      <c r="EC26" s="271"/>
+      <c r="ED26" s="271"/>
+      <c r="EE26" s="271"/>
+      <c r="EF26" s="271"/>
+      <c r="EG26" s="271"/>
+      <c r="EH26" s="271"/>
+      <c r="EI26" s="271"/>
+      <c r="EJ26" s="271"/>
+      <c r="EK26" s="271"/>
+      <c r="EL26" s="271"/>
+      <c r="EM26" s="271"/>
+      <c r="EN26" s="271"/>
+      <c r="EO26" s="271"/>
+      <c r="EP26" s="271"/>
+      <c r="EQ26" s="287" t="s">
         <v>204</v>
       </c>
-      <c r="ER26" s="288"/>
-      <c r="ES26" s="288"/>
-      <c r="ET26" s="288"/>
-      <c r="EU26" s="288"/>
-      <c r="EV26" s="288"/>
-      <c r="EW26" s="289" t="s">
+      <c r="ER26" s="287"/>
+      <c r="ES26" s="287"/>
+      <c r="ET26" s="287"/>
+      <c r="EU26" s="287"/>
+      <c r="EV26" s="287"/>
+      <c r="EW26" s="267" t="s">
         <v>203</v>
       </c>
-      <c r="EX26" s="289"/>
-      <c r="EY26" s="289"/>
-      <c r="EZ26" s="289"/>
-      <c r="FA26" s="289" t="s">
+      <c r="EX26" s="267"/>
+      <c r="EY26" s="267"/>
+      <c r="EZ26" s="267"/>
+      <c r="FA26" s="267" t="s">
         <v>202</v>
       </c>
-      <c r="FB26" s="289"/>
-      <c r="FC26" s="289"/>
-      <c r="FD26" s="289"/>
-      <c r="FE26" s="289" t="s">
+      <c r="FB26" s="267"/>
+      <c r="FC26" s="267"/>
+      <c r="FD26" s="267"/>
+      <c r="FE26" s="267" t="s">
         <v>201</v>
       </c>
-      <c r="FF26" s="289"/>
-      <c r="FG26" s="289"/>
-      <c r="FH26" s="289"/>
-      <c r="FI26" s="289"/>
-      <c r="FJ26" s="289"/>
-      <c r="FK26" s="289" t="s">
+      <c r="FF26" s="267"/>
+      <c r="FG26" s="267"/>
+      <c r="FH26" s="267"/>
+      <c r="FI26" s="267"/>
+      <c r="FJ26" s="267"/>
+      <c r="FK26" s="267" t="s">
         <v>200</v>
       </c>
-      <c r="FL26" s="289"/>
-      <c r="FM26" s="289"/>
-      <c r="FN26" s="289"/>
-      <c r="FO26" s="289"/>
+      <c r="FL26" s="267"/>
+      <c r="FM26" s="267"/>
+      <c r="FN26" s="267"/>
+      <c r="FO26" s="267"/>
       <c r="FP26" s="63"/>
       <c r="FQ26" s="88"/>
       <c r="FR26" s="88"/>
@@ -15435,14 +15518,14 @@
       </c>
     </row>
     <row r="27" spans="1:262" ht="103.5" x14ac:dyDescent="0.25">
-      <c r="D27" s="269"/>
-      <c r="E27" s="266"/>
-      <c r="F27" s="266"/>
-      <c r="G27" s="266"/>
-      <c r="H27" s="266"/>
-      <c r="I27" s="266"/>
-      <c r="J27" s="291"/>
-      <c r="K27" s="270"/>
+      <c r="D27" s="291"/>
+      <c r="E27" s="261"/>
+      <c r="F27" s="261"/>
+      <c r="G27" s="261"/>
+      <c r="H27" s="261"/>
+      <c r="I27" s="261"/>
+      <c r="J27" s="258"/>
+      <c r="K27" s="292"/>
       <c r="L27" s="99" t="s">
         <v>257</v>
       </c>
@@ -15452,7 +15535,7 @@
       <c r="N27" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="O27" s="266"/>
+      <c r="O27" s="261"/>
       <c r="P27" s="175" t="s">
         <v>329</v>
       </c>
@@ -15553,13 +15636,13 @@
         <v>231</v>
       </c>
       <c r="AW27" s="181" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AX27" s="180" t="s">
         <v>230</v>
       </c>
       <c r="AY27" s="229" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AZ27" s="180" t="s">
         <v>229</v>
@@ -15574,28 +15657,28 @@
         <v>226</v>
       </c>
       <c r="BD27" s="182" t="s">
+        <v>497</v>
+      </c>
+      <c r="BE27" s="182" t="s">
         <v>498</v>
       </c>
-      <c r="BE27" s="182" t="s">
+      <c r="BF27" s="182" t="s">
         <v>499</v>
-      </c>
-      <c r="BF27" s="182" t="s">
-        <v>500</v>
       </c>
       <c r="BG27" s="183" t="s">
         <v>222</v>
       </c>
       <c r="BH27" s="184" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="BI27" s="185" t="s">
+        <v>500</v>
+      </c>
+      <c r="BJ27" s="186" t="s">
+        <v>502</v>
+      </c>
+      <c r="BK27" s="187" t="s">
         <v>501</v>
-      </c>
-      <c r="BJ27" s="186" t="s">
-        <v>503</v>
-      </c>
-      <c r="BK27" s="187" t="s">
-        <v>502</v>
       </c>
       <c r="BL27" s="180" t="s">
         <v>223</v>
@@ -15613,22 +15696,22 @@
         <v>218</v>
       </c>
       <c r="BQ27" s="188" t="s">
+        <v>504</v>
+      </c>
+      <c r="BR27" s="180" t="s">
         <v>505</v>
       </c>
-      <c r="BR27" s="180" t="s">
+      <c r="BS27" s="180" t="s">
         <v>506</v>
-      </c>
-      <c r="BS27" s="180" t="s">
-        <v>507</v>
       </c>
       <c r="BT27" s="186" t="s">
         <v>217</v>
       </c>
       <c r="BU27" s="186" t="s">
+        <v>525</v>
+      </c>
+      <c r="BV27" s="185" t="s">
         <v>526</v>
-      </c>
-      <c r="BV27" s="185" t="s">
-        <v>527</v>
       </c>
       <c r="BW27" s="187" t="s">
         <v>216</v>
@@ -15646,13 +15729,13 @@
         <v>212</v>
       </c>
       <c r="CB27" s="182" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="CC27" s="183" t="s">
         <v>222</v>
       </c>
       <c r="CD27" s="183" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="CE27" s="186" t="s">
         <v>221</v>
@@ -15661,28 +15744,28 @@
         <v>220</v>
       </c>
       <c r="CG27" s="180" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="CH27" s="188" t="s">
         <v>218</v>
       </c>
       <c r="CI27" s="188" t="s">
+        <v>504</v>
+      </c>
+      <c r="CJ27" s="180" t="s">
         <v>505</v>
       </c>
-      <c r="CJ27" s="180" t="s">
+      <c r="CK27" s="180" t="s">
         <v>506</v>
-      </c>
-      <c r="CK27" s="180" t="s">
-        <v>507</v>
       </c>
       <c r="CL27" s="186" t="s">
         <v>217</v>
       </c>
       <c r="CM27" s="186" t="s">
+        <v>525</v>
+      </c>
+      <c r="CN27" s="185" t="s">
         <v>526</v>
-      </c>
-      <c r="CN27" s="185" t="s">
-        <v>527</v>
       </c>
       <c r="CO27" s="187" t="s">
         <v>216</v>
@@ -15721,7 +15804,7 @@
         <v>416</v>
       </c>
       <c r="DA27" s="190" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="DB27" s="190" t="s">
         <v>417</v>
@@ -15730,198 +15813,198 @@
         <v>418</v>
       </c>
       <c r="DD27" s="191" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="DE27" s="89"/>
       <c r="DF27" s="192" t="s">
+        <v>533</v>
+      </c>
+      <c r="DG27" s="192" t="s">
         <v>534</v>
       </c>
-      <c r="DG27" s="192" t="s">
+      <c r="DH27" s="193" t="s">
+        <v>557</v>
+      </c>
+      <c r="DI27" s="193" t="s">
+        <v>558</v>
+      </c>
+      <c r="DJ27" s="193" t="s">
+        <v>559</v>
+      </c>
+      <c r="DK27" s="194" t="s">
+        <v>545</v>
+      </c>
+      <c r="DL27" s="194" t="s">
         <v>535</v>
       </c>
-      <c r="DH27" s="193" t="s">
-        <v>558</v>
-      </c>
-      <c r="DI27" s="193" t="s">
-        <v>559</v>
-      </c>
-      <c r="DJ27" s="193" t="s">
+      <c r="DM27" s="194" t="s">
+        <v>585</v>
+      </c>
+      <c r="DN27" s="194" t="s">
+        <v>586</v>
+      </c>
+      <c r="DO27" s="166" t="s">
+        <v>520</v>
+      </c>
+      <c r="DP27" s="166" t="s">
+        <v>521</v>
+      </c>
+      <c r="DQ27" s="166" t="s">
+        <v>522</v>
+      </c>
+      <c r="DR27" s="192" t="s">
+        <v>536</v>
+      </c>
+      <c r="DS27" s="194" t="s">
+        <v>538</v>
+      </c>
+      <c r="DT27" s="195" t="s">
+        <v>539</v>
+      </c>
+      <c r="DU27" s="195" t="s">
+        <v>521</v>
+      </c>
+      <c r="DV27" s="195" t="s">
+        <v>522</v>
+      </c>
+      <c r="DW27" s="194" t="s">
+        <v>540</v>
+      </c>
+      <c r="DX27" s="169" t="s">
+        <v>542</v>
+      </c>
+      <c r="DY27" s="169" t="s">
+        <v>543</v>
+      </c>
+      <c r="DZ27" s="170" t="s">
+        <v>516</v>
+      </c>
+      <c r="EA27" s="196" t="s">
+        <v>544</v>
+      </c>
+      <c r="EB27" s="196" t="s">
+        <v>546</v>
+      </c>
+      <c r="EC27" s="196" t="s">
+        <v>547</v>
+      </c>
+      <c r="ED27" s="197" t="s">
+        <v>549</v>
+      </c>
+      <c r="EE27" s="198" t="s">
+        <v>550</v>
+      </c>
+      <c r="EF27" s="198" t="s">
+        <v>551</v>
+      </c>
+      <c r="EG27" s="198" t="s">
+        <v>522</v>
+      </c>
+      <c r="EH27" s="198" t="s">
+        <v>552</v>
+      </c>
+      <c r="EI27" s="198" t="s">
+        <v>553</v>
+      </c>
+      <c r="EJ27" s="198" t="s">
+        <v>592</v>
+      </c>
+      <c r="EK27" s="198" t="s">
+        <v>593</v>
+      </c>
+      <c r="EL27" s="199" t="s">
+        <v>590</v>
+      </c>
+      <c r="EM27" s="200" t="s">
+        <v>554</v>
+      </c>
+      <c r="EN27" s="201" t="s">
+        <v>548</v>
+      </c>
+      <c r="EO27" s="202" t="s">
         <v>560</v>
       </c>
-      <c r="DK27" s="194" t="s">
-        <v>546</v>
-      </c>
-      <c r="DL27" s="194" t="s">
-        <v>536</v>
-      </c>
-      <c r="DM27" s="194" t="s">
-        <v>586</v>
-      </c>
-      <c r="DN27" s="194" t="s">
-        <v>587</v>
-      </c>
-      <c r="DO27" s="166" t="s">
-        <v>521</v>
-      </c>
-      <c r="DP27" s="166" t="s">
-        <v>522</v>
-      </c>
-      <c r="DQ27" s="166" t="s">
-        <v>523</v>
-      </c>
-      <c r="DR27" s="192" t="s">
-        <v>537</v>
-      </c>
-      <c r="DS27" s="194" t="s">
-        <v>539</v>
-      </c>
-      <c r="DT27" s="195" t="s">
-        <v>540</v>
-      </c>
-      <c r="DU27" s="195" t="s">
-        <v>522</v>
-      </c>
-      <c r="DV27" s="195" t="s">
-        <v>523</v>
-      </c>
-      <c r="DW27" s="194" t="s">
-        <v>541</v>
-      </c>
-      <c r="DX27" s="169" t="s">
-        <v>543</v>
-      </c>
-      <c r="DY27" s="169" t="s">
-        <v>544</v>
-      </c>
-      <c r="DZ27" s="170" t="s">
-        <v>517</v>
-      </c>
-      <c r="EA27" s="196" t="s">
-        <v>545</v>
-      </c>
-      <c r="EB27" s="196" t="s">
-        <v>547</v>
-      </c>
-      <c r="EC27" s="196" t="s">
-        <v>548</v>
-      </c>
-      <c r="ED27" s="197" t="s">
-        <v>550</v>
-      </c>
-      <c r="EE27" s="198" t="s">
-        <v>551</v>
-      </c>
-      <c r="EF27" s="198" t="s">
-        <v>552</v>
-      </c>
-      <c r="EG27" s="198" t="s">
-        <v>523</v>
-      </c>
-      <c r="EH27" s="198" t="s">
-        <v>553</v>
-      </c>
-      <c r="EI27" s="198" t="s">
-        <v>554</v>
-      </c>
-      <c r="EJ27" s="198" t="s">
-        <v>593</v>
-      </c>
-      <c r="EK27" s="198" t="s">
-        <v>594</v>
-      </c>
-      <c r="EL27" s="199" t="s">
-        <v>591</v>
-      </c>
-      <c r="EM27" s="200" t="s">
+      <c r="EP27" s="203" t="s">
+        <v>516</v>
+      </c>
+      <c r="EQ27" s="200" t="s">
         <v>555</v>
       </c>
-      <c r="EN27" s="201" t="s">
-        <v>549</v>
-      </c>
-      <c r="EO27" s="202" t="s">
+      <c r="ER27" s="200" t="s">
+        <v>556</v>
+      </c>
+      <c r="ES27" s="204" t="s">
+        <v>562</v>
+      </c>
+      <c r="ET27" s="204" t="s">
+        <v>563</v>
+      </c>
+      <c r="EU27" s="204" t="s">
         <v>561</v>
       </c>
-      <c r="EP27" s="203" t="s">
-        <v>517</v>
-      </c>
-      <c r="EQ27" s="200" t="s">
-        <v>556</v>
-      </c>
-      <c r="ER27" s="200" t="s">
-        <v>557</v>
-      </c>
-      <c r="ES27" s="204" t="s">
-        <v>563</v>
-      </c>
-      <c r="ET27" s="204" t="s">
+      <c r="EV27" s="205" t="s">
+        <v>516</v>
+      </c>
+      <c r="EW27" s="204" t="s">
         <v>564</v>
       </c>
-      <c r="EU27" s="204" t="s">
-        <v>562</v>
-      </c>
-      <c r="EV27" s="205" t="s">
-        <v>517</v>
-      </c>
-      <c r="EW27" s="204" t="s">
+      <c r="EX27" s="204" t="s">
         <v>565</v>
       </c>
-      <c r="EX27" s="204" t="s">
+      <c r="EY27" s="204" t="s">
         <v>566</v>
       </c>
-      <c r="EY27" s="204" t="s">
-        <v>567</v>
-      </c>
       <c r="EZ27" s="205" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="FA27" s="205" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="FB27" s="205"/>
       <c r="FC27" s="205"/>
       <c r="FD27" s="205" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="FE27" s="205" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="FF27" s="206" t="s">
+        <v>587</v>
+      </c>
+      <c r="FG27" s="206" t="s">
         <v>588</v>
       </c>
-      <c r="FG27" s="206" t="s">
+      <c r="FH27" s="206" t="s">
         <v>589</v>
       </c>
-      <c r="FH27" s="206" t="s">
-        <v>590</v>
-      </c>
       <c r="FI27" s="206" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="FJ27" s="206" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="FK27" s="205" t="s">
+        <v>580</v>
+      </c>
+      <c r="FL27" s="205" t="s">
         <v>581</v>
       </c>
-      <c r="FL27" s="205" t="s">
+      <c r="FM27" s="205" t="s">
         <v>582</v>
       </c>
-      <c r="FM27" s="205" t="s">
+      <c r="FN27" s="205" t="s">
         <v>583</v>
       </c>
-      <c r="FN27" s="205" t="s">
-        <v>584</v>
-      </c>
       <c r="FO27" s="205" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="FP27" s="207" t="s">
-        <v>433</v>
-      </c>
-      <c r="FQ27" s="299" t="s">
-        <v>596</v>
-      </c>
-      <c r="FR27" s="299"/>
+        <v>432</v>
+      </c>
+      <c r="FQ27" s="268" t="s">
+        <v>595</v>
+      </c>
+      <c r="FR27" s="268"/>
       <c r="FU27" s="121">
         <f>35*$AA$5</f>
         <v>35</v>
@@ -15947,44 +16030,44 @@
       <c r="GQ27" s="112"/>
       <c r="GR27" s="112"/>
       <c r="GS27" s="112"/>
-      <c r="HM27" s="296" t="s">
+      <c r="HM27" s="264" t="s">
         <v>421</v>
       </c>
-      <c r="HN27" s="296"/>
-      <c r="HO27" s="296"/>
-      <c r="HP27" s="296"/>
-      <c r="HQ27" s="296"/>
-      <c r="HR27" s="296"/>
-      <c r="HS27" s="296"/>
-      <c r="HT27" s="296"/>
-      <c r="HU27" s="274" t="s">
+      <c r="HN27" s="264"/>
+      <c r="HO27" s="264"/>
+      <c r="HP27" s="264"/>
+      <c r="HQ27" s="264"/>
+      <c r="HR27" s="264"/>
+      <c r="HS27" s="264"/>
+      <c r="HT27" s="264"/>
+      <c r="HU27" s="272" t="s">
         <v>211</v>
       </c>
-      <c r="HV27" s="274"/>
-      <c r="HW27" s="274"/>
-      <c r="HX27" s="274"/>
-      <c r="HY27" s="274"/>
-      <c r="HZ27" s="274"/>
-      <c r="IA27" s="274"/>
-      <c r="IB27" s="274"/>
-      <c r="IC27" s="274"/>
-      <c r="ID27" s="274"/>
-      <c r="IE27" s="292" t="s">
+      <c r="HV27" s="272"/>
+      <c r="HW27" s="272"/>
+      <c r="HX27" s="272"/>
+      <c r="HY27" s="272"/>
+      <c r="HZ27" s="272"/>
+      <c r="IA27" s="272"/>
+      <c r="IB27" s="272"/>
+      <c r="IC27" s="272"/>
+      <c r="ID27" s="272"/>
+      <c r="IE27" s="259" t="s">
         <v>210</v>
       </c>
-      <c r="IF27" s="292"/>
-      <c r="IG27" s="292"/>
-      <c r="IH27" s="292"/>
-      <c r="II27" s="292"/>
-      <c r="IJ27" s="292"/>
-      <c r="IK27" s="292"/>
-      <c r="IL27" s="292"/>
-      <c r="IM27" s="292"/>
-      <c r="IN27" s="292"/>
+      <c r="IF27" s="259"/>
+      <c r="IG27" s="259"/>
+      <c r="IH27" s="259"/>
+      <c r="II27" s="259"/>
+      <c r="IJ27" s="259"/>
+      <c r="IK27" s="259"/>
+      <c r="IL27" s="259"/>
+      <c r="IM27" s="259"/>
+      <c r="IN27" s="259"/>
     </row>
     <row r="28" spans="1:262" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="222" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D28" s="61">
         <f>IF(COUNT($CU$28:CU28)=MATCH(CT28,$CT$28:CT28,0),CT28,"")</f>
@@ -16003,7 +16086,7 @@
         <v>АВ</v>
       </c>
       <c r="H28" s="61" t="e">
-        <f ca="1">IF(E28="","",IF(F28="",BY28&amp;", "&amp;BZ28&amp;", "&amp;CA28,IF(MATCH(F28,$F$28:F28,0)=MATCH(F28,$F$28:F28,1),BY28&amp;", "&amp;BZ28&amp;", "&amp;CA28,"")))</f>
+        <f ca="1">IF(E28="","",IF(F28="",BY28&amp;", "&amp;BZ28&amp;", "&amp;CA28&amp;" (Iгр="&amp;BL28&amp;"А)",IF(MATCH(F28,$F$28:F28,0)=MATCH(F28,$F$28:F28,1),BY28&amp;", "&amp;BZ28&amp;", "&amp;CA28&amp;" (Iгр="&amp;BL28&amp;"А)","")))</f>
         <v>#N/A</v>
       </c>
       <c r="I28" s="61" t="e">
@@ -16244,17 +16327,17 @@
         <f>IF(BH28="","","C")</f>
         <v>C</v>
       </c>
-      <c r="BU28" s="155">
-        <f>IF(BH28="","",0)</f>
-        <v>0</v>
+      <c r="BU28" s="155" t="str">
+        <f>IF(BH28="","",INDEX(BD!$D$57:$D$61,MATCH($BD28,BD!$C$57:$C$61,0)))</f>
+        <v>N</v>
       </c>
       <c r="BV28" s="154">
         <f ca="1">IF(BH28=1,BK28+IF(BU28="N",1,0),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW28" s="156" t="str">
         <f ca="1">IF(BH28=1,IF(BU28="N",BK28&amp;"P+N",BK28&amp;"P"),"")</f>
-        <v>1P</v>
+        <v>1P+N</v>
       </c>
       <c r="BX28" s="156" t="str">
         <f>IF(BH28="","",IF(BD28="АВДТ","30мА",IF(BD28="УЗО","30мА","")))</f>
@@ -16311,7 +16394,7 @@
         <v>C</v>
       </c>
       <c r="CM28" s="155">
-        <f>IF(CB28="","",0)</f>
+        <f>IF(CB28="","",INDEX(BD!$D$57:$D$61,MATCH($CB28,BD!$C$57:$C$61,0)))</f>
         <v>0</v>
       </c>
       <c r="CN28" s="154" t="e">
@@ -16335,7 +16418,7 @@
         <v>#N/A</v>
       </c>
       <c r="CS28" s="159" t="e">
-        <f ca="1">IF(CB28="","",CO28&amp;","&amp;CJ28&amp;"А,"&amp;CL28&amp;IF(CP28="","",","&amp;CP28&amp;"мА"))</f>
+        <f ca="1">IF(CB28="","",CO28&amp;","&amp;CJ28&amp;"А,"&amp;CL28&amp;IF(CP28="","",","&amp;CP28))</f>
         <v>#N/A</v>
       </c>
       <c r="CT28" s="210">
@@ -16679,17 +16762,17 @@
         <v>#N/A</v>
       </c>
       <c r="GD28" s="109" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="GE28" s="163" t="e">
         <f ca="1">IF(H28="",IF(GC28&lt;&gt;"INTEGER_0","INTEGER_2","INTEGER_0"),IF(BU28&lt;&gt;"N","INTEGER_1","INTEGER_2"))</f>
         <v>#N/A</v>
       </c>
       <c r="GF28" s="109" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="GG28" s="162" t="e">
-        <f ca="1">IF(GC28="INTEGER_2","INTEGER_2",IF(GC28="INTEGER_3","INTEGER_2","INTEGER_0"))</f>
+        <f ca="1">IF(GC28="INTEGER_2","INTEGER_2",IF(GC28="INTEGER_3","INTEGER_2",IF(CM28="N","INTEGER_2",IF(CM28=0,"INTEGER_1","INTEGER_0"))))</f>
         <v>#N/A</v>
       </c>
       <c r="GH28" s="110" t="s">
@@ -16809,23 +16892,23 @@
         <v>&lt;zcadnameblock&gt;</v>
       </c>
       <c r="HO28" s="121" t="e">
-        <f>FU28+12.5*$AA$5+INDEX(BDUGO!$D$4:$D$41,MATCH(IF(DB28&gt;0,"UU","")&amp;HN28,BDUGO!$C$4:$C$41,0))*$AA$5</f>
+        <f>FU28+12.5*$AA$5+INDEX(BDUGO!$D$4:$D$51,MATCH(IF(DB28&gt;0,"UU","")&amp;HN28,BDUGO!$C$4:$C$51,0))*$AA$5</f>
         <v>#N/A</v>
       </c>
       <c r="HP28" s="121" t="e">
-        <f>FV28+42.5*$AA$6+INDEX(BDUGO!$E$4:$E$41,MATCH(IF(DB28&gt;0,"UU","")&amp;HN28,BDUGO!$C$4:$C$41,0))*$AA$6</f>
+        <f>FV28+42.5*$AA$6+INDEX(BDUGO!$E$4:$E$51,MATCH(IF(DB28&gt;0,"UU","")&amp;HN28,BDUGO!$C$4:$C$51,0))*$AA$6</f>
         <v>#N/A</v>
       </c>
       <c r="HQ28" s="121" t="e">
-        <f>IF(INDEX(BDUGO!$F$4:$F$41,MATCH(IF(DB28&gt;0,"UU","")&amp;HN28,BDUGO!$C$4:$C$41,0))=0,1,INDEX(BDUGO!$F$4:$F$41,MATCH(IF(DB28&gt;0,"UU","")&amp;HN28,BDUGO!$C$4:$C$41,0)))*$AA$5</f>
+        <f>IF(INDEX(BDUGO!$F$4:$F$51,MATCH(IF(DB28&gt;0,"UU","")&amp;HN28,BDUGO!$C$4:$C$51,0))=0,1,INDEX(BDUGO!$F$4:$F$51,MATCH(IF(DB28&gt;0,"UU","")&amp;HN28,BDUGO!$C$4:$C$51,0)))*$AA$5</f>
         <v>#N/A</v>
       </c>
       <c r="HR28" s="121" t="e">
-        <f>IF(INDEX(BDUGO!$G$4:$G$41,MATCH(IF(DB28&gt;0,"UU","")&amp;HN28,BDUGO!$C$4:$C$41,0))=0,1,INDEX(BDUGO!$G$4:$G$41,MATCH(IF(DB28&gt;0,"UU","")&amp;HN28,BDUGO!$C$4:$C$41,0)))*$AA$6</f>
+        <f>IF(INDEX(BDUGO!$G$4:$G$51,MATCH(IF(DB28&gt;0,"UU","")&amp;HN28,BDUGO!$C$4:$C$51,0))=0,1,INDEX(BDUGO!$G$4:$G$51,MATCH(IF(DB28&gt;0,"UU","")&amp;HN28,BDUGO!$C$4:$C$51,0)))*$AA$6</f>
         <v>#N/A</v>
       </c>
       <c r="HS28" s="121" t="e">
-        <f>INDEX(BDUGO!$H$4:$H$41,MATCH(IF(DB28&gt;0,"UU","")&amp;HN28,BDUGO!$C$4:$C$41,0))</f>
+        <f>INDEX(BDUGO!$H$4:$H$51,MATCH(IF(DB28&gt;0,"UU","")&amp;HN28,BDUGO!$C$4:$C$51,0))</f>
         <v>#N/A</v>
       </c>
       <c r="HT28" s="151" t="s">
@@ -16913,19 +16996,43 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="IE27:IN27"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:AA26"/>
-    <mergeCell ref="AB26:AM26"/>
-    <mergeCell ref="AN26:BC26"/>
-    <mergeCell ref="HM27:HT27"/>
-    <mergeCell ref="BL26:BS26"/>
-    <mergeCell ref="BW26:CA26"/>
-    <mergeCell ref="EW26:EZ26"/>
-    <mergeCell ref="FK26:FO26"/>
-    <mergeCell ref="FQ27:FR27"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="Q9:T10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="K26:K27"/>
     <mergeCell ref="Q16:T16"/>
     <mergeCell ref="U16:V16"/>
     <mergeCell ref="EA26:EP26"/>
@@ -16942,43 +17049,19 @@
     <mergeCell ref="EQ26:EV26"/>
     <mergeCell ref="FA26:FD26"/>
     <mergeCell ref="FE26:FJ26"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="Q9:T10"/>
-    <mergeCell ref="U9:V10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="IE27:IN27"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:AA26"/>
+    <mergeCell ref="AB26:AM26"/>
+    <mergeCell ref="AN26:BC26"/>
+    <mergeCell ref="HM27:HT27"/>
+    <mergeCell ref="BL26:BS26"/>
+    <mergeCell ref="BW26:CA26"/>
+    <mergeCell ref="EW26:EZ26"/>
+    <mergeCell ref="FK26:FO26"/>
+    <mergeCell ref="FQ27:FR27"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="Q28">
@@ -17292,32 +17375,32 @@
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="C3" s="65"/>
-      <c r="D3" s="250" t="s">
+      <c r="D3" s="252" t="s">
         <v>331</v>
       </c>
-      <c r="E3" s="250"/>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250" t="s">
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252" t="s">
         <v>332</v>
       </c>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
       <c r="J3" s="75" t="s">
         <v>335</v>
       </c>
       <c r="K3" s="75" t="s">
         <v>333</v>
       </c>
-      <c r="L3" s="250" t="s">
+      <c r="L3" s="252" t="s">
         <v>334</v>
       </c>
-      <c r="M3" s="250"/>
-      <c r="N3" s="250"/>
-      <c r="O3" s="300" t="s">
+      <c r="M3" s="252"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="302" t="s">
         <v>342</v>
       </c>
-      <c r="P3" s="300"/>
-      <c r="Q3" s="300"/>
+      <c r="P3" s="302"/>
+      <c r="Q3" s="302"/>
       <c r="R3" s="81" t="s">
         <v>343</v>
       </c>
@@ -17448,41 +17531,41 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
-      <c r="Q2" s="232"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="232"/>
-      <c r="U2" s="232"/>
-      <c r="V2" s="232"/>
-      <c r="W2" s="232"/>
-      <c r="X2" s="232"/>
-      <c r="Y2" s="232"/>
-      <c r="Z2" s="232"/>
-      <c r="AA2" s="232"/>
-      <c r="AB2" s="232"/>
-      <c r="AC2" s="232"/>
-      <c r="AD2" s="232"/>
-      <c r="AE2" s="232"/>
-      <c r="AF2" s="232"/>
-      <c r="AG2" s="232"/>
-      <c r="AH2" s="243"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="234"/>
+      <c r="O2" s="234"/>
+      <c r="P2" s="234"/>
+      <c r="Q2" s="234"/>
+      <c r="R2" s="234"/>
+      <c r="S2" s="234"/>
+      <c r="T2" s="234"/>
+      <c r="U2" s="234"/>
+      <c r="V2" s="234"/>
+      <c r="W2" s="234"/>
+      <c r="X2" s="234"/>
+      <c r="Y2" s="234"/>
+      <c r="Z2" s="234"/>
+      <c r="AA2" s="234"/>
+      <c r="AB2" s="234"/>
+      <c r="AC2" s="234"/>
+      <c r="AD2" s="234"/>
+      <c r="AE2" s="234"/>
+      <c r="AF2" s="234"/>
+      <c r="AG2" s="234"/>
+      <c r="AH2" s="245"/>
     </row>
     <row r="3" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -18910,49 +18993,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="244" t="s">
+      <c r="B1" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="244"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="246"/>
+      <c r="P1" s="246"/>
+      <c r="Q1" s="246"/>
+      <c r="R1" s="246"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="245" t="s">
+      <c r="C2" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="245"/>
-      <c r="O2" s="245"/>
-      <c r="P2" s="245"/>
-      <c r="Q2" s="245"/>
-      <c r="R2" s="246"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="248"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -19402,10 +19485,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AF4D7D-6E66-4BDD-B569-46F1C33B4B46}">
-  <dimension ref="C1:H41"/>
+  <dimension ref="C1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19416,38 +19499,38 @@
   <sheetData>
     <row r="1" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="247" t="s">
-        <v>423</v>
-      </c>
-      <c r="D2" s="248"/>
-      <c r="E2" s="248"/>
-      <c r="F2" s="248"/>
-      <c r="G2" s="248"/>
-      <c r="H2" s="249"/>
+      <c r="C2" s="249" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="251"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" s="116" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3" s="116" t="s">
         <v>424</v>
       </c>
-      <c r="D3" s="116" t="s">
+      <c r="E3" s="116" t="s">
         <v>425</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="F3" s="116" t="s">
         <v>426</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="G3" s="116" t="s">
         <v>427</v>
       </c>
-      <c r="G3" s="116" t="s">
+      <c r="H3" s="116" t="s">
         <v>428</v>
-      </c>
-      <c r="H3" s="116" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" s="164" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D4" s="165">
         <v>0</v>
@@ -19467,7 +19550,7 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="164" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D5" s="165">
         <v>0</v>
@@ -19487,7 +19570,7 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="164" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D6" s="165">
         <v>0</v>
@@ -19507,7 +19590,7 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="164" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D7" s="165">
         <v>0</v>
@@ -19527,7 +19610,7 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="164" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D8" s="165">
         <v>0</v>
@@ -19547,7 +19630,7 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="164" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D9" s="165">
         <v>0</v>
@@ -19567,7 +19650,7 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="164" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D10" s="165">
         <v>0</v>
@@ -19587,7 +19670,7 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="164" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D11" s="165">
         <v>0</v>
@@ -19607,7 +19690,7 @@
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="164" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D12" s="165">
         <v>0</v>
@@ -19627,7 +19710,7 @@
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="164" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D13" s="165">
         <v>0</v>
@@ -19647,7 +19730,7 @@
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="164" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D14" s="165">
         <v>0</v>
@@ -19667,7 +19750,7 @@
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="164" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D15" s="165">
         <v>0</v>
@@ -19687,7 +19770,7 @@
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="164" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D16" s="165">
         <v>0</v>
@@ -19707,7 +19790,7 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="164" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D17" s="165">
         <v>0</v>
@@ -19727,7 +19810,7 @@
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="164" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D18" s="165">
         <v>0</v>
@@ -19747,7 +19830,7 @@
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="164" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D19" s="165">
         <v>0</v>
@@ -19767,7 +19850,7 @@
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="164" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D20" s="165">
         <v>0</v>
@@ -19787,7 +19870,7 @@
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="164" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D21" s="165">
         <v>0</v>
@@ -19807,7 +19890,7 @@
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="164" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D22" s="165">
         <v>0</v>
@@ -19827,7 +19910,7 @@
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" s="164" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D23" s="165">
         <v>0</v>
@@ -19847,7 +19930,7 @@
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" s="164" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D24" s="165">
         <v>0</v>
@@ -19867,7 +19950,7 @@
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" s="164" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D25" s="165">
         <v>0</v>
@@ -19887,7 +19970,7 @@
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" s="164" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D26" s="165">
         <v>0</v>
@@ -19907,7 +19990,7 @@
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" s="164" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D27" s="165">
         <v>0</v>
@@ -19927,7 +20010,7 @@
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28" s="164" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D28" s="165">
         <v>0</v>
@@ -19947,7 +20030,7 @@
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" s="164" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D29" s="165">
         <v>0</v>
@@ -19967,7 +20050,7 @@
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30" s="164" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D30" s="165">
         <v>0</v>
@@ -19987,7 +20070,7 @@
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31" s="164" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D31" s="165">
         <v>0</v>
@@ -20007,7 +20090,7 @@
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C32" s="164" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D32" s="165">
         <v>0</v>
@@ -20027,7 +20110,7 @@
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="164" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D33" s="165">
         <v>0</v>
@@ -20047,7 +20130,7 @@
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="164" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D34" s="165">
         <v>0</v>
@@ -20067,7 +20150,7 @@
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="164" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D35" s="165">
         <v>0</v>
@@ -20087,7 +20170,7 @@
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="164" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D36" s="165">
         <v>0</v>
@@ -20107,7 +20190,7 @@
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="164" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D37" s="165">
         <v>0</v>
@@ -20127,7 +20210,7 @@
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="164" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D38" s="165">
         <v>0</v>
@@ -20147,7 +20230,7 @@
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" s="164" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D39" s="165">
         <v>0</v>
@@ -20167,7 +20250,7 @@
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" s="164" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D40" s="165">
         <v>0</v>
@@ -20187,13 +20270,13 @@
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" s="164" t="s">
-        <v>432</v>
+        <v>622</v>
       </c>
       <c r="D41" s="165">
         <v>0</v>
       </c>
       <c r="E41" s="165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" s="165">
         <v>1</v>
@@ -20202,6 +20285,206 @@
         <v>1</v>
       </c>
       <c r="H41" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="164" t="s">
+        <v>623</v>
+      </c>
+      <c r="D42" s="165">
+        <v>0</v>
+      </c>
+      <c r="E42" s="165">
+        <v>35</v>
+      </c>
+      <c r="F42" s="165">
+        <v>1</v>
+      </c>
+      <c r="G42" s="165">
+        <v>1</v>
+      </c>
+      <c r="H42" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="164" t="s">
+        <v>624</v>
+      </c>
+      <c r="D43" s="165">
+        <v>0</v>
+      </c>
+      <c r="E43" s="165">
+        <v>2</v>
+      </c>
+      <c r="F43" s="165">
+        <v>1</v>
+      </c>
+      <c r="G43" s="165">
+        <v>1</v>
+      </c>
+      <c r="H43" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="164" t="s">
+        <v>625</v>
+      </c>
+      <c r="D44" s="165">
+        <v>0</v>
+      </c>
+      <c r="E44" s="165">
+        <v>35</v>
+      </c>
+      <c r="F44" s="165">
+        <v>1</v>
+      </c>
+      <c r="G44" s="165">
+        <v>1</v>
+      </c>
+      <c r="H44" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="164" t="s">
+        <v>626</v>
+      </c>
+      <c r="D45" s="165">
+        <v>0</v>
+      </c>
+      <c r="E45" s="165">
+        <v>2</v>
+      </c>
+      <c r="F45" s="165">
+        <v>1</v>
+      </c>
+      <c r="G45" s="165">
+        <v>1</v>
+      </c>
+      <c r="H45" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="164" t="s">
+        <v>627</v>
+      </c>
+      <c r="D46" s="165">
+        <v>0</v>
+      </c>
+      <c r="E46" s="165">
+        <v>35</v>
+      </c>
+      <c r="F46" s="165">
+        <v>1</v>
+      </c>
+      <c r="G46" s="165">
+        <v>1</v>
+      </c>
+      <c r="H46" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="164" t="s">
+        <v>628</v>
+      </c>
+      <c r="D47" s="165">
+        <v>0</v>
+      </c>
+      <c r="E47" s="165">
+        <v>2</v>
+      </c>
+      <c r="F47" s="165">
+        <v>1</v>
+      </c>
+      <c r="G47" s="165">
+        <v>1</v>
+      </c>
+      <c r="H47" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="164" t="s">
+        <v>629</v>
+      </c>
+      <c r="D48" s="165">
+        <v>0</v>
+      </c>
+      <c r="E48" s="165">
+        <v>35</v>
+      </c>
+      <c r="F48" s="165">
+        <v>1</v>
+      </c>
+      <c r="G48" s="165">
+        <v>1</v>
+      </c>
+      <c r="H48" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="164" t="s">
+        <v>630</v>
+      </c>
+      <c r="D49" s="165">
+        <v>0</v>
+      </c>
+      <c r="E49" s="165">
+        <v>2</v>
+      </c>
+      <c r="F49" s="165">
+        <v>1</v>
+      </c>
+      <c r="G49" s="165">
+        <v>1</v>
+      </c>
+      <c r="H49" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="164" t="s">
+        <v>631</v>
+      </c>
+      <c r="D50" s="165">
+        <v>0</v>
+      </c>
+      <c r="E50" s="165">
+        <v>35</v>
+      </c>
+      <c r="F50" s="165">
+        <v>1</v>
+      </c>
+      <c r="G50" s="165">
+        <v>1</v>
+      </c>
+      <c r="H50" s="165">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="164" t="s">
+        <v>431</v>
+      </c>
+      <c r="D51" s="165">
+        <v>0</v>
+      </c>
+      <c r="E51" s="165">
+        <v>0</v>
+      </c>
+      <c r="F51" s="165">
+        <v>1</v>
+      </c>
+      <c r="G51" s="165">
+        <v>1</v>
+      </c>
+      <c r="H51" s="165">
         <v>0</v>
       </c>
     </row>
@@ -20298,7 +20581,7 @@
         <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -20367,137 +20650,137 @@
         <v>328</v>
       </c>
       <c r="I7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
+        <v>445</v>
+      </c>
+      <c r="K27" t="s">
         <v>446</v>
-      </c>
-      <c r="K27" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="28" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
+        <v>447</v>
+      </c>
+      <c r="K28" t="s">
         <v>448</v>
-      </c>
-      <c r="K28" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="29" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
+        <v>449</v>
+      </c>
+      <c r="K29" t="s">
         <v>450</v>
-      </c>
-      <c r="K29" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="30" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
+        <v>451</v>
+      </c>
+      <c r="K30" t="s">
         <v>452</v>
-      </c>
-      <c r="K30" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="31" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
+        <v>453</v>
+      </c>
+      <c r="K31" t="s">
         <v>454</v>
-      </c>
-      <c r="K31" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="32" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
+        <v>455</v>
+      </c>
+      <c r="K32" t="s">
         <v>456</v>
-      </c>
-      <c r="K32" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="33" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J33" t="s">
+        <v>457</v>
+      </c>
+      <c r="K33" t="s">
         <v>458</v>
-      </c>
-      <c r="K33" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
+        <v>459</v>
+      </c>
+      <c r="K34" t="s">
         <v>460</v>
-      </c>
-      <c r="K34" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J35" t="s">
+        <v>461</v>
+      </c>
+      <c r="K35" t="s">
         <v>462</v>
-      </c>
-      <c r="K35" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
+        <v>463</v>
+      </c>
+      <c r="K36" t="s">
         <v>464</v>
-      </c>
-      <c r="K36" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J37" t="s">
+        <v>453</v>
+      </c>
+      <c r="K37" t="s">
         <v>454</v>
-      </c>
-      <c r="K37" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J38" t="s">
+        <v>455</v>
+      </c>
+      <c r="K38" t="s">
         <v>456</v>
-      </c>
-      <c r="K38" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J39" t="s">
+        <v>457</v>
+      </c>
+      <c r="K39" t="s">
         <v>458</v>
-      </c>
-      <c r="K39" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J40" t="s">
+        <v>459</v>
+      </c>
+      <c r="K40" t="s">
         <v>460</v>
-      </c>
-      <c r="K40" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.25">
       <c r="J41" t="s">
+        <v>465</v>
+      </c>
+      <c r="K41" t="s">
         <v>466</v>
-      </c>
-      <c r="K41" t="s">
-        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -20589,11 +20872,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="D3" s="251" t="s">
+      <c r="D3" s="253" t="s">
         <v>316</v>
       </c>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="D4" s="67" t="s">
@@ -20816,71 +21099,71 @@
     </row>
     <row r="8" spans="1:68" ht="135" x14ac:dyDescent="0.25">
       <c r="B8" s="224"/>
-      <c r="C8" s="250" t="s">
+      <c r="C8" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="250"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="252" t="s">
+      <c r="D8" s="252"/>
+      <c r="E8" s="252"/>
+      <c r="F8" s="254" t="s">
         <v>323</v>
       </c>
-      <c r="G8" s="252"/>
-      <c r="H8" s="252"/>
-      <c r="I8" s="250" t="s">
+      <c r="G8" s="254"/>
+      <c r="H8" s="254"/>
+      <c r="I8" s="252" t="s">
         <v>165</v>
       </c>
-      <c r="J8" s="250"/>
-      <c r="K8" s="250"/>
-      <c r="L8" s="250" t="s">
+      <c r="J8" s="252"/>
+      <c r="K8" s="252"/>
+      <c r="L8" s="252" t="s">
         <v>178</v>
       </c>
-      <c r="M8" s="250"/>
-      <c r="N8" s="250"/>
-      <c r="O8" s="250" t="s">
+      <c r="M8" s="252"/>
+      <c r="N8" s="252"/>
+      <c r="O8" s="252" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="250"/>
-      <c r="Q8" s="250"/>
-      <c r="R8" s="250" t="s">
+      <c r="P8" s="252"/>
+      <c r="Q8" s="252"/>
+      <c r="R8" s="252" t="s">
         <v>179</v>
       </c>
-      <c r="S8" s="250"/>
-      <c r="T8" s="250"/>
-      <c r="U8" s="250" t="s">
+      <c r="S8" s="252"/>
+      <c r="T8" s="252"/>
+      <c r="U8" s="252" t="s">
         <v>166</v>
       </c>
-      <c r="V8" s="250"/>
-      <c r="W8" s="250"/>
-      <c r="X8" s="250" t="s">
+      <c r="V8" s="252"/>
+      <c r="W8" s="252"/>
+      <c r="X8" s="252" t="s">
         <v>181</v>
       </c>
-      <c r="Y8" s="250"/>
-      <c r="Z8" s="250"/>
-      <c r="AA8" s="250" t="s">
+      <c r="Y8" s="252"/>
+      <c r="Z8" s="252"/>
+      <c r="AA8" s="252" t="s">
         <v>182</v>
       </c>
-      <c r="AB8" s="250"/>
-      <c r="AC8" s="250"/>
-      <c r="AD8" s="250" t="s">
+      <c r="AB8" s="252"/>
+      <c r="AC8" s="252"/>
+      <c r="AD8" s="252" t="s">
         <v>3</v>
       </c>
-      <c r="AE8" s="250"/>
-      <c r="AF8" s="250"/>
-      <c r="AG8" s="250" t="s">
+      <c r="AE8" s="252"/>
+      <c r="AF8" s="252"/>
+      <c r="AG8" s="252" t="s">
         <v>380</v>
       </c>
-      <c r="AH8" s="250"/>
-      <c r="AI8" s="250"/>
-      <c r="AJ8" s="250" t="s">
-        <v>602</v>
-      </c>
-      <c r="AK8" s="250"/>
-      <c r="AL8" s="250"/>
-      <c r="AM8" s="250" t="s">
-        <v>598</v>
-      </c>
-      <c r="AN8" s="250"/>
-      <c r="AO8" s="250"/>
+      <c r="AH8" s="252"/>
+      <c r="AI8" s="252"/>
+      <c r="AJ8" s="252" t="s">
+        <v>601</v>
+      </c>
+      <c r="AK8" s="252"/>
+      <c r="AL8" s="252"/>
+      <c r="AM8" s="252" t="s">
+        <v>597</v>
+      </c>
+      <c r="AN8" s="252"/>
+      <c r="AO8" s="252"/>
       <c r="AP8" s="107" t="s">
         <v>419</v>
       </c>
@@ -20888,16 +21171,16 @@
         <v>325</v>
       </c>
       <c r="AR8" s="87" t="s">
+        <v>470</v>
+      </c>
+      <c r="AS8" s="87" t="s">
         <v>471</v>
       </c>
-      <c r="AS8" s="87" t="s">
+      <c r="AT8" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="AT8" s="87" t="s">
-        <v>473</v>
-      </c>
       <c r="AU8" s="87" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AV8" s="90" t="s">
         <v>385</v>
@@ -21230,12 +21513,12 @@
       <c r="AH11" s="52"/>
       <c r="AI11" s="53"/>
       <c r="AJ11" s="54" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AK11" s="52"/>
       <c r="AL11" s="53"/>
       <c r="AM11" s="54" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AN11" s="52"/>
       <c r="AO11" s="223"/>

--- a/environment/runtimefiles/AllCPU-AllOS/zcadelectrotech/data/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHODпоследнее.xlsx
+++ b/environment/runtimefiles/AllCPU-AllOS/zcadelectrotech/data/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHODпоследнее.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\AllCPU-AllOS\zcadelectrotech\data\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B654F421-2909-4919-A6AB-977B4CA686B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79C3AE3-880E-4DA2-B3ED-B5F22F99F67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="2235" windowWidth="43140" windowHeight="18855" firstSheet="3" activeTab="15" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="4620" yWindow="1650" windowWidth="28125" windowHeight="18855" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="4" r:id="rId1"/>
@@ -2372,12 +2372,6 @@
     <t>Общ. кол-во полюсов</t>
   </si>
   <si>
-    <t>ARMAT B06S</t>
-  </si>
-  <si>
-    <t>ARMAT M10N</t>
-  </si>
-  <si>
     <t>VEL_SOCKET_1P31IN</t>
   </si>
   <si>
@@ -2685,6 +2679,12 @@
   </si>
   <si>
     <t>UUVEL_SOCKET_1P54IN</t>
+  </si>
+  <si>
+    <t>ВА 47-63</t>
+  </si>
+  <si>
+    <t>АВДТ-63</t>
   </si>
 </sst>
 </file>
@@ -4071,7 +4071,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4528,9 +4528,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4855,6 +4852,119 @@
     <xf numFmtId="0" fontId="15" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="46" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
@@ -4870,10 +4980,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -4892,118 +4998,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5014,7 +5011,29 @@
     <cellStyle name="Обычный 4" xfId="2" xr:uid="{48E5EE6E-1ABC-45BC-BBF9-DFA8FA4F7CCC}"/>
     <cellStyle name="Обычный_расчет нагрузки" xfId="1" xr:uid="{2A78680A-EF87-4AAC-8D9D-BEC6B0A95A74}"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="83">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF284392"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC89D7D"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5973,8 +5992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A712ECE2-33D4-468C-AC42-3438B4F27DC9}">
   <dimension ref="A2:CA61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5990,87 +6009,87 @@
   <sheetData>
     <row r="2" spans="1:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:79" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="236"/>
-      <c r="C3" s="237"/>
-      <c r="F3" s="238" t="s">
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="F3" s="237" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="239"/>
-      <c r="H3" s="240"/>
-      <c r="K3" s="233" t="s">
+      <c r="G3" s="238"/>
+      <c r="H3" s="239"/>
+      <c r="K3" s="232" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="234"/>
-      <c r="S3" s="234"/>
-      <c r="T3" s="234"/>
-      <c r="U3" s="234"/>
-      <c r="V3" s="234"/>
-      <c r="W3" s="234"/>
-      <c r="X3" s="234"/>
-      <c r="Y3" s="234"/>
-      <c r="Z3" s="234"/>
-      <c r="AA3" s="234"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="234"/>
-      <c r="AD3" s="234"/>
-      <c r="AE3" s="234"/>
-      <c r="AF3" s="234"/>
-      <c r="AG3" s="234"/>
-      <c r="AH3" s="234"/>
-      <c r="AI3" s="234"/>
-      <c r="AJ3" s="234"/>
-      <c r="AK3" s="234"/>
-      <c r="AL3" s="234"/>
-      <c r="AM3" s="234"/>
-      <c r="AN3" s="234"/>
-      <c r="AO3" s="234"/>
-      <c r="AP3" s="234"/>
-      <c r="AQ3" s="234"/>
-      <c r="AR3" s="234"/>
-      <c r="AS3" s="234"/>
-      <c r="AT3" s="234"/>
-      <c r="AU3" s="234"/>
-      <c r="AV3" s="234"/>
-      <c r="AW3" s="234"/>
-      <c r="AX3" s="234"/>
-      <c r="AY3" s="234"/>
-      <c r="AZ3" s="234"/>
-      <c r="BA3" s="234"/>
-      <c r="BB3" s="234"/>
-      <c r="BC3" s="234"/>
-      <c r="BD3" s="234"/>
-      <c r="BE3" s="234"/>
-      <c r="BF3" s="234"/>
-      <c r="BG3" s="234"/>
-      <c r="BH3" s="234"/>
-      <c r="BI3" s="234"/>
-      <c r="BJ3" s="234"/>
-      <c r="BK3" s="234"/>
-      <c r="BL3" s="234"/>
-      <c r="BM3" s="234"/>
-      <c r="BN3" s="234"/>
-      <c r="BO3" s="234"/>
-      <c r="BP3" s="234"/>
-      <c r="BQ3" s="234"/>
-      <c r="BR3" s="234"/>
-      <c r="BS3" s="234"/>
-      <c r="BT3" s="234"/>
-      <c r="BU3" s="234"/>
-      <c r="BV3" s="234"/>
-      <c r="BW3" s="234"/>
-      <c r="BX3" s="234"/>
-      <c r="BY3" s="234"/>
-      <c r="BZ3" s="234"/>
-      <c r="CA3" s="234"/>
+      <c r="L3" s="233"/>
+      <c r="M3" s="233"/>
+      <c r="N3" s="233"/>
+      <c r="O3" s="233"/>
+      <c r="P3" s="233"/>
+      <c r="Q3" s="233"/>
+      <c r="R3" s="233"/>
+      <c r="S3" s="233"/>
+      <c r="T3" s="233"/>
+      <c r="U3" s="233"/>
+      <c r="V3" s="233"/>
+      <c r="W3" s="233"/>
+      <c r="X3" s="233"/>
+      <c r="Y3" s="233"/>
+      <c r="Z3" s="233"/>
+      <c r="AA3" s="233"/>
+      <c r="AB3" s="233"/>
+      <c r="AC3" s="233"/>
+      <c r="AD3" s="233"/>
+      <c r="AE3" s="233"/>
+      <c r="AF3" s="233"/>
+      <c r="AG3" s="233"/>
+      <c r="AH3" s="233"/>
+      <c r="AI3" s="233"/>
+      <c r="AJ3" s="233"/>
+      <c r="AK3" s="233"/>
+      <c r="AL3" s="233"/>
+      <c r="AM3" s="233"/>
+      <c r="AN3" s="233"/>
+      <c r="AO3" s="233"/>
+      <c r="AP3" s="233"/>
+      <c r="AQ3" s="233"/>
+      <c r="AR3" s="233"/>
+      <c r="AS3" s="233"/>
+      <c r="AT3" s="233"/>
+      <c r="AU3" s="233"/>
+      <c r="AV3" s="233"/>
+      <c r="AW3" s="233"/>
+      <c r="AX3" s="233"/>
+      <c r="AY3" s="233"/>
+      <c r="AZ3" s="233"/>
+      <c r="BA3" s="233"/>
+      <c r="BB3" s="233"/>
+      <c r="BC3" s="233"/>
+      <c r="BD3" s="233"/>
+      <c r="BE3" s="233"/>
+      <c r="BF3" s="233"/>
+      <c r="BG3" s="233"/>
+      <c r="BH3" s="233"/>
+      <c r="BI3" s="233"/>
+      <c r="BJ3" s="233"/>
+      <c r="BK3" s="233"/>
+      <c r="BL3" s="233"/>
+      <c r="BM3" s="233"/>
+      <c r="BN3" s="233"/>
+      <c r="BO3" s="233"/>
+      <c r="BP3" s="233"/>
+      <c r="BQ3" s="233"/>
+      <c r="BR3" s="233"/>
+      <c r="BS3" s="233"/>
+      <c r="BT3" s="233"/>
+      <c r="BU3" s="233"/>
+      <c r="BV3" s="233"/>
+      <c r="BW3" s="233"/>
+      <c r="BX3" s="233"/>
+      <c r="BY3" s="233"/>
+      <c r="BZ3" s="233"/>
+      <c r="CA3" s="233"/>
     </row>
     <row r="4" spans="1:79" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -6224,14 +6243,14 @@
       <c r="BB4" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="BC4" s="230" t="s">
+      <c r="BC4" s="229" t="s">
+        <v>613</v>
+      </c>
+      <c r="BD4" s="229" t="s">
+        <v>614</v>
+      </c>
+      <c r="BE4" s="229" t="s">
         <v>615</v>
-      </c>
-      <c r="BD4" s="230" t="s">
-        <v>616</v>
-      </c>
-      <c r="BE4" s="230" t="s">
-        <v>617</v>
       </c>
       <c r="BF4" s="43" t="s">
         <v>89</v>
@@ -6668,8 +6687,8 @@
       <c r="AH6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AI6" s="161" t="s">
-        <v>527</v>
+      <c r="AI6" s="226" t="s">
+        <v>631</v>
       </c>
       <c r="AJ6" s="2">
         <v>0</v>
@@ -6717,20 +6736,20 @@
       <c r="AY6" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AZ6" s="227" t="s">
-        <v>618</v>
+      <c r="AZ6" s="226" t="s">
+        <v>616</v>
       </c>
       <c r="BA6" s="2"/>
       <c r="BB6" s="2">
         <v>5</v>
       </c>
-      <c r="BC6" s="227" t="s">
-        <v>619</v>
-      </c>
-      <c r="BD6" s="227">
+      <c r="BC6" s="226" t="s">
+        <v>617</v>
+      </c>
+      <c r="BD6" s="226">
         <v>12.5</v>
       </c>
-      <c r="BE6" s="227">
+      <c r="BE6" s="226">
         <v>150</v>
       </c>
       <c r="BF6" s="2">
@@ -6868,8 +6887,8 @@
       <c r="AH7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AI7" s="161" t="s">
-        <v>527</v>
+      <c r="AI7" s="226" t="s">
+        <v>631</v>
       </c>
       <c r="AJ7" s="2">
         <v>0</v>
@@ -6917,20 +6936,20 @@
       <c r="AY7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AZ7" s="227" t="s">
-        <v>618</v>
+      <c r="AZ7" s="226" t="s">
+        <v>616</v>
       </c>
       <c r="BA7" s="2"/>
       <c r="BB7" s="2">
         <v>5</v>
       </c>
-      <c r="BC7" s="227" t="s">
-        <v>619</v>
-      </c>
-      <c r="BD7" s="227">
+      <c r="BC7" s="226" t="s">
+        <v>617</v>
+      </c>
+      <c r="BD7" s="226">
         <v>12.5</v>
       </c>
-      <c r="BE7" s="227">
+      <c r="BE7" s="226">
         <v>150</v>
       </c>
       <c r="BF7" s="2">
@@ -7069,8 +7088,8 @@
       <c r="AH8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AI8" s="161" t="s">
-        <v>527</v>
+      <c r="AI8" s="226" t="s">
+        <v>631</v>
       </c>
       <c r="AJ8" s="2">
         <v>0</v>
@@ -7118,20 +7137,20 @@
       <c r="AY8" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AZ8" s="227" t="s">
-        <v>618</v>
+      <c r="AZ8" s="226" t="s">
+        <v>616</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2">
         <v>5</v>
       </c>
-      <c r="BC8" s="227" t="s">
-        <v>619</v>
-      </c>
-      <c r="BD8" s="227">
+      <c r="BC8" s="226" t="s">
+        <v>617</v>
+      </c>
+      <c r="BD8" s="226">
         <v>12.5</v>
       </c>
-      <c r="BE8" s="227">
+      <c r="BE8" s="226">
         <v>150</v>
       </c>
       <c r="BF8" s="2">
@@ -7189,10 +7208,10 @@
       <c r="CA8" s="2"/>
     </row>
     <row r="9" spans="1:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="241" t="s">
+      <c r="A9" s="240" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="242"/>
+      <c r="B9" s="241"/>
       <c r="F9" s="27">
         <v>2500</v>
       </c>
@@ -7268,8 +7287,8 @@
       <c r="AH9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AI9" s="161" t="s">
-        <v>527</v>
+      <c r="AI9" s="226" t="s">
+        <v>631</v>
       </c>
       <c r="AJ9" s="2">
         <v>0</v>
@@ -7317,20 +7336,20 @@
       <c r="AY9" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AZ9" s="227" t="s">
-        <v>618</v>
+      <c r="AZ9" s="226" t="s">
+        <v>616</v>
       </c>
       <c r="BA9" s="2"/>
       <c r="BB9" s="2">
         <v>5</v>
       </c>
-      <c r="BC9" s="227" t="s">
-        <v>619</v>
-      </c>
-      <c r="BD9" s="227">
+      <c r="BC9" s="226" t="s">
+        <v>617</v>
+      </c>
+      <c r="BD9" s="226">
         <v>12.5</v>
       </c>
-      <c r="BE9" s="227">
+      <c r="BE9" s="226">
         <v>150</v>
       </c>
       <c r="BF9" s="2">
@@ -7469,8 +7488,8 @@
       <c r="AH10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AI10" s="161" t="s">
-        <v>527</v>
+      <c r="AI10" s="226" t="s">
+        <v>631</v>
       </c>
       <c r="AJ10" s="2">
         <v>0</v>
@@ -7518,20 +7537,20 @@
       <c r="AY10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AZ10" s="227" t="s">
-        <v>618</v>
+      <c r="AZ10" s="226" t="s">
+        <v>616</v>
       </c>
       <c r="BA10" s="2"/>
       <c r="BB10" s="2">
         <v>5</v>
       </c>
-      <c r="BC10" s="227" t="s">
-        <v>619</v>
-      </c>
-      <c r="BD10" s="227">
+      <c r="BC10" s="226" t="s">
+        <v>617</v>
+      </c>
+      <c r="BD10" s="226">
         <v>12.5</v>
       </c>
-      <c r="BE10" s="227">
+      <c r="BE10" s="226">
         <v>150</v>
       </c>
       <c r="BF10" s="2">
@@ -7670,8 +7689,8 @@
       <c r="AH11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AI11" s="161" t="s">
-        <v>527</v>
+      <c r="AI11" s="226" t="s">
+        <v>631</v>
       </c>
       <c r="AJ11" s="2">
         <v>0</v>
@@ -7719,20 +7738,20 @@
       <c r="AY11" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="AZ11" s="227" t="s">
-        <v>618</v>
+      <c r="AZ11" s="226" t="s">
+        <v>616</v>
       </c>
       <c r="BA11" s="2"/>
-      <c r="BB11" s="226">
+      <c r="BB11" s="225">
         <v>5</v>
       </c>
-      <c r="BC11" s="227" t="s">
-        <v>619</v>
-      </c>
-      <c r="BD11" s="227">
+      <c r="BC11" s="226" t="s">
+        <v>617</v>
+      </c>
+      <c r="BD11" s="226">
         <v>12.5</v>
       </c>
-      <c r="BE11" s="227">
+      <c r="BE11" s="226">
         <v>150</v>
       </c>
       <c r="BF11" s="2">
@@ -7871,8 +7890,8 @@
       <c r="AH12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AI12" s="161" t="s">
-        <v>527</v>
+      <c r="AI12" s="226" t="s">
+        <v>631</v>
       </c>
       <c r="AJ12" s="2">
         <v>0</v>
@@ -7920,20 +7939,20 @@
       <c r="AY12" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="AZ12" s="227" t="s">
-        <v>618</v>
+      <c r="AZ12" s="226" t="s">
+        <v>616</v>
       </c>
       <c r="BA12" s="2"/>
-      <c r="BB12" s="226">
+      <c r="BB12" s="225">
         <v>5</v>
       </c>
-      <c r="BC12" s="227" t="s">
-        <v>619</v>
-      </c>
-      <c r="BD12" s="227">
+      <c r="BC12" s="226" t="s">
+        <v>617</v>
+      </c>
+      <c r="BD12" s="226">
         <v>12.5</v>
       </c>
-      <c r="BE12" s="227">
+      <c r="BE12" s="226">
         <v>150</v>
       </c>
       <c r="BF12" s="2">
@@ -8066,8 +8085,8 @@
       <c r="AH13" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AI13" s="161" t="s">
-        <v>527</v>
+      <c r="AI13" s="226" t="s">
+        <v>631</v>
       </c>
       <c r="AJ13" s="2">
         <v>0</v>
@@ -8116,9 +8135,9 @@
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
       <c r="BB13" s="2"/>
-      <c r="BC13" s="226"/>
-      <c r="BD13" s="226"/>
-      <c r="BE13" s="226"/>
+      <c r="BC13" s="225"/>
+      <c r="BD13" s="225"/>
+      <c r="BE13" s="225"/>
       <c r="BF13" s="2">
         <v>1200</v>
       </c>
@@ -8243,8 +8262,8 @@
       <c r="AH14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AI14" s="161" t="s">
-        <v>527</v>
+      <c r="AI14" s="226" t="s">
+        <v>631</v>
       </c>
       <c r="AJ14" s="2">
         <v>0</v>
@@ -8287,9 +8306,9 @@
       <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
       <c r="BB14" s="2"/>
-      <c r="BC14" s="226"/>
-      <c r="BD14" s="226"/>
-      <c r="BE14" s="226"/>
+      <c r="BC14" s="225"/>
+      <c r="BD14" s="225"/>
+      <c r="BE14" s="225"/>
       <c r="BF14" s="47">
         <v>1000</v>
       </c>
@@ -8414,8 +8433,8 @@
       <c r="AH15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AI15" s="161" t="s">
-        <v>527</v>
+      <c r="AI15" s="226" t="s">
+        <v>631</v>
       </c>
       <c r="AJ15" s="2">
         <v>0</v>
@@ -8458,9 +8477,9 @@
       <c r="AZ15" s="2"/>
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
-      <c r="BC15" s="226"/>
-      <c r="BD15" s="226"/>
-      <c r="BE15" s="226"/>
+      <c r="BC15" s="225"/>
+      <c r="BD15" s="225"/>
+      <c r="BE15" s="225"/>
       <c r="BF15" s="47">
         <v>800</v>
       </c>
@@ -8627,9 +8646,9 @@
       <c r="AZ16" s="2"/>
       <c r="BA16" s="2"/>
       <c r="BB16" s="2"/>
-      <c r="BC16" s="226"/>
-      <c r="BD16" s="226"/>
-      <c r="BE16" s="226"/>
+      <c r="BC16" s="225"/>
+      <c r="BD16" s="225"/>
+      <c r="BE16" s="225"/>
       <c r="BF16" s="47">
         <v>750</v>
       </c>
@@ -8796,9 +8815,9 @@
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
       <c r="BB17" s="2"/>
-      <c r="BC17" s="226"/>
-      <c r="BD17" s="226"/>
-      <c r="BE17" s="226"/>
+      <c r="BC17" s="225"/>
+      <c r="BD17" s="225"/>
+      <c r="BE17" s="225"/>
       <c r="BF17" s="47">
         <v>600</v>
       </c>
@@ -8965,9 +8984,9 @@
       <c r="AZ18" s="2"/>
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
-      <c r="BC18" s="226"/>
-      <c r="BD18" s="226"/>
-      <c r="BE18" s="226"/>
+      <c r="BC18" s="225"/>
+      <c r="BD18" s="225"/>
+      <c r="BE18" s="225"/>
       <c r="BF18" s="47">
         <v>500</v>
       </c>
@@ -9134,9 +9153,9 @@
       <c r="AZ19" s="2"/>
       <c r="BA19" s="2"/>
       <c r="BB19" s="2"/>
-      <c r="BC19" s="226"/>
-      <c r="BD19" s="226"/>
-      <c r="BE19" s="226"/>
+      <c r="BC19" s="225"/>
+      <c r="BD19" s="225"/>
+      <c r="BE19" s="225"/>
       <c r="BF19" s="47">
         <v>400</v>
       </c>
@@ -9303,9 +9322,9 @@
       <c r="AZ20" s="2"/>
       <c r="BA20" s="2"/>
       <c r="BB20" s="2"/>
-      <c r="BC20" s="226"/>
-      <c r="BD20" s="226"/>
-      <c r="BE20" s="226"/>
+      <c r="BC20" s="225"/>
+      <c r="BD20" s="225"/>
+      <c r="BE20" s="225"/>
       <c r="BF20" s="47">
         <v>300</v>
       </c>
@@ -9472,9 +9491,9 @@
       <c r="AZ21" s="2"/>
       <c r="BA21" s="2"/>
       <c r="BB21" s="2"/>
-      <c r="BC21" s="226"/>
-      <c r="BD21" s="226"/>
-      <c r="BE21" s="226"/>
+      <c r="BC21" s="225"/>
+      <c r="BD21" s="225"/>
+      <c r="BE21" s="225"/>
       <c r="BF21" s="47">
         <v>250</v>
       </c>
@@ -9641,9 +9660,9 @@
       <c r="AZ22" s="2"/>
       <c r="BA22" s="2"/>
       <c r="BB22" s="2"/>
-      <c r="BC22" s="226"/>
-      <c r="BD22" s="226"/>
-      <c r="BE22" s="226"/>
+      <c r="BC22" s="225"/>
+      <c r="BD22" s="225"/>
+      <c r="BE22" s="225"/>
       <c r="BF22" s="47">
         <v>200</v>
       </c>
@@ -9806,9 +9825,9 @@
       <c r="AZ23" s="2"/>
       <c r="BA23" s="2"/>
       <c r="BB23" s="2"/>
-      <c r="BC23" s="226"/>
-      <c r="BD23" s="226"/>
-      <c r="BE23" s="226"/>
+      <c r="BC23" s="225"/>
+      <c r="BD23" s="225"/>
+      <c r="BE23" s="225"/>
       <c r="BF23" s="47">
         <v>150</v>
       </c>
@@ -9881,8 +9900,8 @@
       <c r="N24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>528</v>
+      <c r="O24" s="226" t="s">
+        <v>630</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2">
@@ -9973,9 +9992,9 @@
       <c r="AZ24" s="2"/>
       <c r="BA24" s="2"/>
       <c r="BB24" s="2"/>
-      <c r="BC24" s="226"/>
-      <c r="BD24" s="226"/>
-      <c r="BE24" s="226"/>
+      <c r="BC24" s="225"/>
+      <c r="BD24" s="225"/>
+      <c r="BE24" s="225"/>
       <c r="BF24" s="47">
         <v>125</v>
       </c>
@@ -10048,8 +10067,8 @@
       <c r="N25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O25" s="161" t="s">
-        <v>528</v>
+      <c r="O25" s="226" t="s">
+        <v>630</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2">
@@ -10140,9 +10159,9 @@
       <c r="AZ25" s="2"/>
       <c r="BA25" s="2"/>
       <c r="BB25" s="2"/>
-      <c r="BC25" s="226"/>
-      <c r="BD25" s="226"/>
-      <c r="BE25" s="226"/>
+      <c r="BC25" s="225"/>
+      <c r="BD25" s="225"/>
+      <c r="BE25" s="225"/>
       <c r="BF25" s="47">
         <v>120</v>
       </c>
@@ -10215,8 +10234,8 @@
       <c r="N26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O26" s="161" t="s">
-        <v>528</v>
+      <c r="O26" s="226" t="s">
+        <v>630</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2">
@@ -10307,9 +10326,9 @@
       <c r="AZ26" s="2"/>
       <c r="BA26" s="2"/>
       <c r="BB26" s="2"/>
-      <c r="BC26" s="226"/>
-      <c r="BD26" s="226"/>
-      <c r="BE26" s="226"/>
+      <c r="BC26" s="225"/>
+      <c r="BD26" s="225"/>
+      <c r="BE26" s="225"/>
       <c r="BF26" s="47">
         <v>100</v>
       </c>
@@ -10382,8 +10401,8 @@
       <c r="N27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O27" s="161" t="s">
-        <v>528</v>
+      <c r="O27" s="226" t="s">
+        <v>630</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2">
@@ -10474,9 +10493,9 @@
       <c r="AZ27" s="2"/>
       <c r="BA27" s="2"/>
       <c r="BB27" s="2"/>
-      <c r="BC27" s="226"/>
-      <c r="BD27" s="226"/>
-      <c r="BE27" s="226"/>
+      <c r="BC27" s="225"/>
+      <c r="BD27" s="225"/>
+      <c r="BE27" s="225"/>
       <c r="BF27" s="47">
         <v>80</v>
       </c>
@@ -10549,8 +10568,8 @@
       <c r="N28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O28" s="161" t="s">
-        <v>528</v>
+      <c r="O28" s="226" t="s">
+        <v>630</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2">
@@ -10641,9 +10660,9 @@
       <c r="AZ28" s="2"/>
       <c r="BA28" s="2"/>
       <c r="BB28" s="2"/>
-      <c r="BC28" s="226"/>
-      <c r="BD28" s="226"/>
-      <c r="BE28" s="226"/>
+      <c r="BC28" s="225"/>
+      <c r="BD28" s="225"/>
+      <c r="BE28" s="225"/>
       <c r="BF28" s="47">
         <v>75</v>
       </c>
@@ -10716,8 +10735,8 @@
       <c r="N29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O29" s="161" t="s">
-        <v>528</v>
+      <c r="O29" s="226" t="s">
+        <v>630</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2">
@@ -10808,9 +10827,9 @@
       <c r="AZ29" s="2"/>
       <c r="BA29" s="2"/>
       <c r="BB29" s="2"/>
-      <c r="BC29" s="226"/>
-      <c r="BD29" s="226"/>
-      <c r="BE29" s="226"/>
+      <c r="BC29" s="225"/>
+      <c r="BD29" s="225"/>
+      <c r="BE29" s="225"/>
       <c r="BF29" s="47">
         <v>60</v>
       </c>
@@ -10883,8 +10902,8 @@
       <c r="N30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O30" s="161" t="s">
-        <v>528</v>
+      <c r="O30" s="226" t="s">
+        <v>630</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2">
@@ -10975,9 +10994,9 @@
       <c r="AZ30" s="2"/>
       <c r="BA30" s="2"/>
       <c r="BB30" s="2"/>
-      <c r="BC30" s="226"/>
-      <c r="BD30" s="226"/>
-      <c r="BE30" s="226"/>
+      <c r="BC30" s="225"/>
+      <c r="BD30" s="225"/>
+      <c r="BE30" s="225"/>
       <c r="BF30" s="47">
         <v>50</v>
       </c>
@@ -11050,8 +11069,8 @@
       <c r="N31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O31" s="161" t="s">
-        <v>528</v>
+      <c r="O31" s="226" t="s">
+        <v>630</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2">
@@ -11142,9 +11161,9 @@
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
       <c r="BB31" s="2"/>
-      <c r="BC31" s="226"/>
-      <c r="BD31" s="226"/>
-      <c r="BE31" s="226"/>
+      <c r="BC31" s="225"/>
+      <c r="BD31" s="225"/>
+      <c r="BE31" s="225"/>
       <c r="BF31" s="47">
         <v>40</v>
       </c>
@@ -11217,8 +11236,8 @@
       <c r="N32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O32" s="161" t="s">
-        <v>528</v>
+      <c r="O32" s="226" t="s">
+        <v>630</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2">
@@ -11309,9 +11328,9 @@
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
       <c r="BB32" s="2"/>
-      <c r="BC32" s="226"/>
-      <c r="BD32" s="226"/>
-      <c r="BE32" s="226"/>
+      <c r="BC32" s="225"/>
+      <c r="BD32" s="225"/>
+      <c r="BE32" s="225"/>
       <c r="BF32" s="47">
         <v>30</v>
       </c>
@@ -11384,8 +11403,8 @@
       <c r="N33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O33" s="161" t="s">
-        <v>528</v>
+      <c r="O33" s="226" t="s">
+        <v>630</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2">
@@ -11476,9 +11495,9 @@
       <c r="AZ33" s="2"/>
       <c r="BA33" s="2"/>
       <c r="BB33" s="2"/>
-      <c r="BC33" s="226"/>
-      <c r="BD33" s="226"/>
-      <c r="BE33" s="226"/>
+      <c r="BC33" s="225"/>
+      <c r="BD33" s="225"/>
+      <c r="BE33" s="225"/>
       <c r="BF33" s="47">
         <v>25</v>
       </c>
@@ -11551,8 +11570,8 @@
       <c r="N34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O34" s="161" t="s">
-        <v>528</v>
+      <c r="O34" s="226" t="s">
+        <v>630</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2">
@@ -11643,9 +11662,9 @@
       <c r="AZ34" s="2"/>
       <c r="BA34" s="2"/>
       <c r="BB34" s="2"/>
-      <c r="BC34" s="226"/>
-      <c r="BD34" s="226"/>
-      <c r="BE34" s="226"/>
+      <c r="BC34" s="225"/>
+      <c r="BD34" s="225"/>
+      <c r="BE34" s="225"/>
       <c r="BF34" s="47">
         <v>20</v>
       </c>
@@ -11718,8 +11737,8 @@
       <c r="N35" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O35" s="161" t="s">
-        <v>528</v>
+      <c r="O35" s="226" t="s">
+        <v>630</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2">
@@ -11810,9 +11829,9 @@
       <c r="AZ35" s="2"/>
       <c r="BA35" s="2"/>
       <c r="BB35" s="2"/>
-      <c r="BC35" s="226"/>
-      <c r="BD35" s="226"/>
-      <c r="BE35" s="226"/>
+      <c r="BC35" s="225"/>
+      <c r="BD35" s="225"/>
+      <c r="BE35" s="225"/>
       <c r="BF35" s="47">
         <v>15</v>
       </c>
@@ -11885,8 +11904,8 @@
       <c r="N36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O36" s="161" t="s">
-        <v>528</v>
+      <c r="O36" s="226" t="s">
+        <v>630</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2">
@@ -11977,9 +11996,9 @@
       <c r="AZ36" s="2"/>
       <c r="BA36" s="2"/>
       <c r="BB36" s="2"/>
-      <c r="BC36" s="226"/>
-      <c r="BD36" s="226"/>
-      <c r="BE36" s="226"/>
+      <c r="BC36" s="225"/>
+      <c r="BD36" s="225"/>
+      <c r="BE36" s="225"/>
       <c r="BF36" s="47">
         <v>10</v>
       </c>
@@ -12043,8 +12062,8 @@
       <c r="N37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O37" s="161" t="s">
-        <v>528</v>
+      <c r="O37" s="226" t="s">
+        <v>630</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2">
@@ -12135,9 +12154,9 @@
       <c r="AZ37" s="2"/>
       <c r="BA37" s="2"/>
       <c r="BB37" s="2"/>
-      <c r="BC37" s="226"/>
-      <c r="BD37" s="226"/>
-      <c r="BE37" s="226"/>
+      <c r="BC37" s="225"/>
+      <c r="BD37" s="225"/>
+      <c r="BE37" s="225"/>
       <c r="BF37" s="47">
         <v>5</v>
       </c>
@@ -12277,9 +12296,9 @@
       <c r="AZ38" s="2"/>
       <c r="BA38" s="2"/>
       <c r="BB38" s="2"/>
-      <c r="BC38" s="226"/>
-      <c r="BD38" s="226"/>
-      <c r="BE38" s="226"/>
+      <c r="BC38" s="225"/>
+      <c r="BD38" s="225"/>
+      <c r="BE38" s="225"/>
       <c r="BF38" s="2">
         <v>0</v>
       </c>
@@ -12325,15 +12344,15 @@
     </row>
     <row r="41" spans="6:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="6:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="238" t="s">
+      <c r="F42" s="237" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="239"/>
-      <c r="H42" s="240"/>
-      <c r="K42" s="243" t="s">
+      <c r="G42" s="238"/>
+      <c r="H42" s="239"/>
+      <c r="K42" s="242" t="s">
         <v>508</v>
       </c>
-      <c r="L42" s="244"/>
+      <c r="L42" s="243"/>
     </row>
     <row r="43" spans="6:79" ht="31.5" x14ac:dyDescent="0.25">
       <c r="F43" s="36" t="s">
@@ -12426,49 +12445,49 @@
       <c r="H50" s="29"/>
     </row>
     <row r="56" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="232" t="s">
-        <v>620</v>
-      </c>
-      <c r="D56" s="232"/>
+      <c r="C56" s="231" t="s">
+        <v>618</v>
+      </c>
+      <c r="D56" s="231"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="231" t="s">
+      <c r="C57" s="230" t="s">
         <v>509</v>
       </c>
-      <c r="D57" s="231">
+      <c r="D57" s="230">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="231" t="s">
+      <c r="C58" s="230" t="s">
         <v>512</v>
       </c>
-      <c r="D58" s="231">
+      <c r="D58" s="230">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="231" t="s">
+      <c r="C59" s="230" t="s">
         <v>510</v>
       </c>
-      <c r="D59" s="231" t="s">
-        <v>621</v>
+      <c r="D59" s="230" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="231" t="s">
+      <c r="C60" s="230" t="s">
         <v>511</v>
       </c>
-      <c r="D60" s="231" t="s">
-        <v>621</v>
+      <c r="D60" s="230" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="231" t="s">
+      <c r="C61" s="230" t="s">
         <v>513</v>
       </c>
-      <c r="D61" s="231" t="s">
-        <v>621</v>
+      <c r="D61" s="230" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -12483,132 +12502,142 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="K6:M37 U13:Z37 U6:W12 Y6:AA6 Y7:Z12 AA7:AA37 BM6:BU37 BX6:CA37 AO13:BK37 AO6:AU12 AV8:AV12 AW6:AY12 AE6:AG37 BA6:BB12 BF7:BK12 BF6:BJ6">
+    <cfRule type="cellIs" dxfId="82" priority="28" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:M38 U38:AG38 AO38:AP38">
+    <cfRule type="cellIs" dxfId="81" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ38:AW38">
     <cfRule type="cellIs" dxfId="80" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:M38 U38:AG38 AO38:AP38">
+  <conditionalFormatting sqref="AX38:BU38 BX38:CA38">
     <cfRule type="cellIs" dxfId="79" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ38:AW38">
+  <conditionalFormatting sqref="N6:T23 N24:N37 P24:T37">
     <cfRule type="cellIs" dxfId="78" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX38:BU38 BX38:CA38">
+  <conditionalFormatting sqref="N38:T38">
     <cfRule type="cellIs" dxfId="77" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:T37">
+  <conditionalFormatting sqref="AH6:AH15">
     <cfRule type="cellIs" dxfId="76" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N38:T38">
+  <conditionalFormatting sqref="AJ38:AN38">
     <cfRule type="cellIs" dxfId="75" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH6:AI15">
+  <conditionalFormatting sqref="AH16:AH37">
     <cfRule type="cellIs" dxfId="74" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ38:AN38">
+  <conditionalFormatting sqref="AH38">
     <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH16:AH37">
+  <conditionalFormatting sqref="AI16:AI37">
     <cfRule type="cellIs" dxfId="72" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH38">
+  <conditionalFormatting sqref="AI38">
     <cfRule type="cellIs" dxfId="71" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI16:AI37">
+  <conditionalFormatting sqref="AJ6:AK6 AJ7 AK7:AK15">
     <cfRule type="cellIs" dxfId="70" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI38">
+  <conditionalFormatting sqref="AJ8:AJ11">
     <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ6:AK6 AJ7 AK7:AK15">
+  <conditionalFormatting sqref="AJ12:AJ14">
     <cfRule type="cellIs" dxfId="68" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ8:AJ11">
+  <conditionalFormatting sqref="AJ16:AK36 AJ15">
     <cfRule type="cellIs" dxfId="67" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ12:AJ14">
+  <conditionalFormatting sqref="AJ37:AK37">
     <cfRule type="cellIs" dxfId="66" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ16:AK36 AJ15">
+  <conditionalFormatting sqref="BV6:BV37">
     <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ37:AK37">
+  <conditionalFormatting sqref="BV38">
     <cfRule type="cellIs" dxfId="64" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BV6:BV37">
+  <conditionalFormatting sqref="BW6:BW37">
     <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BV38">
+  <conditionalFormatting sqref="BW38">
     <cfRule type="cellIs" dxfId="62" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BW6:BW37">
+  <conditionalFormatting sqref="X6:X12">
     <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BW38">
+  <conditionalFormatting sqref="AV6:AV7">
     <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X6:X12">
+  <conditionalFormatting sqref="AL6:AN37">
     <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV6:AV7">
+  <conditionalFormatting sqref="AB6:AD37">
     <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL6:AN37">
+  <conditionalFormatting sqref="BC6:BE12">
     <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB6:AD37">
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+  <conditionalFormatting sqref="O24:O37">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC6:BE12">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+  <conditionalFormatting sqref="AI6:AI15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13027,20 +13056,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="C1" s="256" t="s">
+      <c r="C1" s="255" t="s">
         <v>436</v>
       </c>
-      <c r="D1" s="256"/>
-      <c r="L1" s="255" t="s">
+      <c r="D1" s="255"/>
+      <c r="L1" s="254" t="s">
         <v>474</v>
       </c>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="255"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="254"/>
+      <c r="O1" s="254"/>
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="254"/>
+      <c r="S1" s="254"/>
     </row>
     <row r="2" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C2" s="105" t="s">
@@ -13514,7 +13543,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C6" t="s">
         <v>318</v>
@@ -13566,7 +13595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B9844E-F661-46DB-A8DF-606C0C725DFB}">
   <dimension ref="A1:JB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -13624,31 +13653,31 @@
       </c>
     </row>
     <row r="4" spans="4:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="293" t="s">
+      <c r="D4" s="260" t="s">
         <v>313</v>
       </c>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="260"/>
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
       <c r="I4" s="66" t="s">
         <v>312</v>
       </c>
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
       <c r="P4" s="66"/>
-      <c r="Q4" s="293" t="s">
+      <c r="Q4" s="260" t="s">
         <v>311</v>
       </c>
-      <c r="R4" s="293"/>
-      <c r="S4" s="293"/>
-      <c r="T4" s="293"/>
-      <c r="U4" s="293"/>
-      <c r="V4" s="293"/>
-      <c r="Z4" s="256" t="s">
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="260"/>
+      <c r="U4" s="260"/>
+      <c r="V4" s="260"/>
+      <c r="Z4" s="255" t="s">
         <v>436</v>
       </c>
-      <c r="AA4" s="256"/>
+      <c r="AA4" s="255"/>
       <c r="AU4" s="102" t="s">
         <v>403</v>
       </c>
@@ -13677,12 +13706,12 @@
       </c>
     </row>
     <row r="5" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D5" s="294" t="s">
+      <c r="D5" s="261" t="s">
         <v>310</v>
       </c>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="294"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
       <c r="H5" s="106">
         <f>AU5</f>
         <v>0</v>
@@ -13695,17 +13724,17 @@
       <c r="P5" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="Q5" s="295" t="s">
+      <c r="Q5" s="262" t="s">
         <v>307</v>
       </c>
-      <c r="R5" s="295"/>
-      <c r="S5" s="295"/>
-      <c r="T5" s="295"/>
-      <c r="U5" s="295">
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
+      <c r="U5" s="262">
         <f ca="1">ROUNDUP(SUM($AC$26:$AC$900000),2)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="295"/>
+      <c r="V5" s="262"/>
       <c r="Z5" s="105" t="s">
         <v>424</v>
       </c>
@@ -13754,12 +13783,12 @@
       </c>
     </row>
     <row r="6" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D6" s="296" t="s">
+      <c r="D6" s="263" t="s">
         <v>306</v>
       </c>
-      <c r="E6" s="296"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
       <c r="H6" s="95" t="s">
         <v>443</v>
       </c>
@@ -13771,17 +13800,17 @@
       <c r="P6" s="65">
         <v>63</v>
       </c>
-      <c r="Q6" s="295" t="s">
+      <c r="Q6" s="262" t="s">
         <v>304</v>
       </c>
-      <c r="R6" s="295"/>
-      <c r="S6" s="295"/>
-      <c r="T6" s="295"/>
-      <c r="U6" s="295">
+      <c r="R6" s="262"/>
+      <c r="S6" s="262"/>
+      <c r="T6" s="262"/>
+      <c r="U6" s="262">
         <f ca="1">ROUNDUP(U5*U11,2)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="295"/>
+      <c r="V6" s="262"/>
       <c r="Z6" s="105" t="s">
         <v>425</v>
       </c>
@@ -13790,12 +13819,12 @@
       </c>
     </row>
     <row r="7" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D7" s="288" t="s">
+      <c r="D7" s="256" t="s">
         <v>303</v>
       </c>
-      <c r="E7" s="288"/>
-      <c r="F7" s="288"/>
-      <c r="G7" s="288"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
       <c r="H7" s="62">
         <v>45399</v>
       </c>
@@ -13807,25 +13836,25 @@
       <c r="P7" s="65">
         <v>32</v>
       </c>
-      <c r="Q7" s="295" t="s">
+      <c r="Q7" s="262" t="s">
         <v>301</v>
       </c>
-      <c r="R7" s="295"/>
-      <c r="S7" s="295"/>
-      <c r="T7" s="295"/>
-      <c r="U7" s="295">
+      <c r="R7" s="262"/>
+      <c r="S7" s="262"/>
+      <c r="T7" s="262"/>
+      <c r="U7" s="262">
         <f ca="1">ROUNDUP((U6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*U8),2)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="295"/>
+      <c r="V7" s="262"/>
     </row>
     <row r="8" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D8" s="288" t="s">
+      <c r="D8" s="256" t="s">
         <v>300</v>
       </c>
-      <c r="E8" s="288"/>
-      <c r="F8" s="288"/>
-      <c r="G8" s="288"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
       <c r="H8" s="62" t="s">
         <v>299</v>
       </c>
@@ -13837,24 +13866,24 @@
       <c r="P8" s="65">
         <v>6</v>
       </c>
-      <c r="Q8" s="297" t="s">
+      <c r="Q8" s="264" t="s">
         <v>297</v>
       </c>
-      <c r="R8" s="298"/>
-      <c r="S8" s="298"/>
-      <c r="T8" s="299"/>
-      <c r="U8" s="286">
+      <c r="R8" s="265"/>
+      <c r="S8" s="265"/>
+      <c r="T8" s="266"/>
+      <c r="U8" s="269">
         <v>0.92</v>
       </c>
-      <c r="V8" s="286"/>
+      <c r="V8" s="269"/>
     </row>
     <row r="9" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D9" s="288" t="s">
+      <c r="D9" s="256" t="s">
         <v>296</v>
       </c>
-      <c r="E9" s="288"/>
-      <c r="F9" s="288"/>
-      <c r="G9" s="288"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
+      <c r="G9" s="256"/>
       <c r="H9" s="62" t="s">
         <v>295</v>
       </c>
@@ -13866,22 +13895,22 @@
       <c r="P9" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="Q9" s="300" t="s">
+      <c r="Q9" s="257" t="s">
         <v>292</v>
       </c>
-      <c r="R9" s="300"/>
-      <c r="S9" s="300"/>
-      <c r="T9" s="300"/>
-      <c r="U9" s="301"/>
-      <c r="V9" s="301"/>
+      <c r="R9" s="257"/>
+      <c r="S9" s="257"/>
+      <c r="T9" s="257"/>
+      <c r="U9" s="258"/>
+      <c r="V9" s="258"/>
     </row>
     <row r="10" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D10" s="288" t="s">
+      <c r="D10" s="256" t="s">
         <v>291</v>
       </c>
-      <c r="E10" s="288"/>
-      <c r="F10" s="288"/>
-      <c r="G10" s="288"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="256"/>
       <c r="I10" s="65" t="s">
         <v>290</v>
       </c>
@@ -13890,20 +13919,20 @@
       <c r="P10" s="65">
         <v>4</v>
       </c>
-      <c r="Q10" s="300"/>
-      <c r="R10" s="300"/>
-      <c r="S10" s="300"/>
-      <c r="T10" s="300"/>
-      <c r="U10" s="301"/>
-      <c r="V10" s="301"/>
+      <c r="Q10" s="257"/>
+      <c r="R10" s="257"/>
+      <c r="S10" s="257"/>
+      <c r="T10" s="257"/>
+      <c r="U10" s="258"/>
+      <c r="V10" s="258"/>
     </row>
     <row r="11" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D11" s="288" t="s">
+      <c r="D11" s="256" t="s">
         <v>289</v>
       </c>
-      <c r="E11" s="288"/>
-      <c r="F11" s="288"/>
-      <c r="G11" s="288"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="256"/>
+      <c r="G11" s="256"/>
       <c r="H11" s="105">
         <v>380</v>
       </c>
@@ -13915,24 +13944,24 @@
       <c r="P11" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="Q11" s="279" t="s">
+      <c r="Q11" s="282" t="s">
         <v>286</v>
       </c>
-      <c r="R11" s="280"/>
-      <c r="S11" s="280"/>
-      <c r="T11" s="281"/>
-      <c r="U11" s="282">
+      <c r="R11" s="283"/>
+      <c r="S11" s="283"/>
+      <c r="T11" s="284"/>
+      <c r="U11" s="285">
         <v>1</v>
       </c>
-      <c r="V11" s="283"/>
+      <c r="V11" s="286"/>
     </row>
     <row r="12" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D12" s="288" t="s">
+      <c r="D12" s="256" t="s">
         <v>285</v>
       </c>
-      <c r="E12" s="288"/>
-      <c r="F12" s="288"/>
-      <c r="G12" s="288"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
       <c r="H12" s="62" t="s">
         <v>284</v>
       </c>
@@ -13944,24 +13973,24 @@
       <c r="P12" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="Q12" s="289" t="s">
+      <c r="Q12" s="259" t="s">
         <v>282</v>
       </c>
-      <c r="R12" s="289"/>
-      <c r="S12" s="289"/>
-      <c r="T12" s="289"/>
-      <c r="U12" s="289">
+      <c r="R12" s="259"/>
+      <c r="S12" s="259"/>
+      <c r="T12" s="259"/>
+      <c r="U12" s="259">
         <v>44.5</v>
       </c>
-      <c r="V12" s="289"/>
+      <c r="V12" s="259"/>
     </row>
     <row r="13" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D13" s="288" t="s">
+      <c r="D13" s="256" t="s">
         <v>281</v>
       </c>
-      <c r="E13" s="288"/>
-      <c r="F13" s="288"/>
-      <c r="G13" s="288"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
       <c r="H13" s="62" t="s">
         <v>280</v>
       </c>
@@ -13969,24 +13998,24 @@
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
       <c r="P13" s="63"/>
-      <c r="Q13" s="289" t="s">
+      <c r="Q13" s="259" t="s">
         <v>279</v>
       </c>
-      <c r="R13" s="289"/>
-      <c r="S13" s="289"/>
-      <c r="T13" s="289"/>
-      <c r="U13" s="289">
+      <c r="R13" s="259"/>
+      <c r="S13" s="259"/>
+      <c r="T13" s="259"/>
+      <c r="U13" s="259">
         <v>44.5</v>
       </c>
-      <c r="V13" s="289"/>
+      <c r="V13" s="259"/>
     </row>
     <row r="14" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D14" s="288" t="s">
+      <c r="D14" s="256" t="s">
         <v>278</v>
       </c>
-      <c r="E14" s="288"/>
-      <c r="F14" s="288"/>
-      <c r="G14" s="288"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="256"/>
       <c r="H14" s="64" t="str">
         <f>'&lt;zlight&gt;'!G20&amp;"."&amp;'&lt;zlight&gt;'!H20</f>
         <v>.</v>
@@ -13995,52 +14024,52 @@
       <c r="J14" s="98"/>
       <c r="K14" s="98"/>
       <c r="P14" s="63"/>
-      <c r="Q14" s="289" t="s">
+      <c r="Q14" s="259" t="s">
         <v>277</v>
       </c>
-      <c r="R14" s="289"/>
-      <c r="S14" s="289"/>
-      <c r="T14" s="289"/>
-      <c r="U14" s="289">
+      <c r="R14" s="259"/>
+      <c r="S14" s="259"/>
+      <c r="T14" s="259"/>
+      <c r="U14" s="259">
         <v>44.5</v>
       </c>
-      <c r="V14" s="289"/>
+      <c r="V14" s="259"/>
     </row>
     <row r="15" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="D15" s="288" t="s">
+      <c r="D15" s="256" t="s">
         <v>276</v>
       </c>
-      <c r="E15" s="288"/>
-      <c r="F15" s="288"/>
-      <c r="G15" s="288"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
       <c r="H15" s="62">
         <v>77</v>
       </c>
       <c r="P15" s="63"/>
-      <c r="Q15" s="290" t="s">
+      <c r="Q15" s="268" t="s">
         <v>275</v>
       </c>
-      <c r="R15" s="290"/>
-      <c r="S15" s="290"/>
-      <c r="T15" s="290"/>
-      <c r="U15" s="286">
+      <c r="R15" s="268"/>
+      <c r="S15" s="268"/>
+      <c r="T15" s="268"/>
+      <c r="U15" s="269">
         <f ca="1">ROUNDUP((U6*1000)/(INDEX(BD!$C$4:$C$5,MATCH(H11,BD!$B$4:$B$5,0))*U8),2)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="286"/>
+      <c r="V15" s="269"/>
     </row>
     <row r="16" spans="4:57" x14ac:dyDescent="0.25">
-      <c r="Q16" s="269" t="s">
+      <c r="Q16" s="272" t="s">
         <v>406</v>
       </c>
-      <c r="R16" s="269"/>
-      <c r="S16" s="269"/>
-      <c r="T16" s="269"/>
-      <c r="U16" s="269" t="e">
+      <c r="R16" s="272"/>
+      <c r="S16" s="272"/>
+      <c r="T16" s="272"/>
+      <c r="U16" s="272" t="e">
         <f>INDEX(BB5:BB9,MATCH(1,BD5:BD9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="V16" s="269"/>
+      <c r="V16" s="272"/>
     </row>
     <row r="22" spans="1:262" x14ac:dyDescent="0.25">
       <c r="L22" s="148" t="s">
@@ -14057,989 +14086,989 @@
         <f>COLUMN(A24)</f>
         <v>1</v>
       </c>
-      <c r="B24" s="174">
+      <c r="B24" s="173">
         <f t="shared" ref="B24:BO24" si="0">COLUMN(B24)</f>
         <v>2</v>
       </c>
-      <c r="C24" s="174">
+      <c r="C24" s="173">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D24" s="174">
+      <c r="D24" s="173">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E24" s="174">
+      <c r="E24" s="173">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F24" s="174">
+      <c r="F24" s="173">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G24" s="174">
+      <c r="G24" s="173">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H24" s="174">
+      <c r="H24" s="173">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I24" s="174">
+      <c r="I24" s="173">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J24" s="225"/>
-      <c r="K24" s="174">
+      <c r="J24" s="224"/>
+      <c r="K24" s="173">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="L24" s="174">
+      <c r="L24" s="173">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M24" s="174">
+      <c r="M24" s="173">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="N24" s="174">
+      <c r="N24" s="173">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="O24" s="174">
+      <c r="O24" s="173">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P24" s="174">
+      <c r="P24" s="173">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Q24" s="174">
+      <c r="Q24" s="173">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="R24" s="174">
+      <c r="R24" s="173">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="S24" s="174">
+      <c r="S24" s="173">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="T24" s="174">
+      <c r="T24" s="173">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="U24" s="174">
+      <c r="U24" s="173">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="V24" s="174">
+      <c r="V24" s="173">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="W24" s="174">
+      <c r="W24" s="173">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="X24" s="174">
+      <c r="X24" s="173">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="Y24" s="174">
+      <c r="Y24" s="173">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="Z24" s="174">
+      <c r="Z24" s="173">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AA24" s="174">
+      <c r="AA24" s="173">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AB24" s="174">
+      <c r="AB24" s="173">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AC24" s="174">
+      <c r="AC24" s="173">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AD24" s="174">
+      <c r="AD24" s="173">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AE24" s="174">
+      <c r="AE24" s="173">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AF24" s="174">
+      <c r="AF24" s="173">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AG24" s="174">
+      <c r="AG24" s="173">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AH24" s="174">
+      <c r="AH24" s="173">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AI24" s="174">
+      <c r="AI24" s="173">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AJ24" s="174">
+      <c r="AJ24" s="173">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AK24" s="174">
+      <c r="AK24" s="173">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="AL24" s="174">
+      <c r="AL24" s="173">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="AM24" s="174">
+      <c r="AM24" s="173">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AN24" s="174">
+      <c r="AN24" s="173">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AO24" s="174">
+      <c r="AO24" s="173">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AP24" s="174">
+      <c r="AP24" s="173">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="AQ24" s="174">
+      <c r="AQ24" s="173">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AR24" s="174">
+      <c r="AR24" s="173">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AS24" s="174">
+      <c r="AS24" s="173">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AT24" s="174">
+      <c r="AT24" s="173">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AU24" s="174">
+      <c r="AU24" s="173">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="AV24" s="174">
+      <c r="AV24" s="173">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AW24" s="174">
+      <c r="AW24" s="173">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="AX24" s="174">
+      <c r="AX24" s="173">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="AY24" s="225"/>
-      <c r="AZ24" s="174">
+      <c r="AY24" s="224"/>
+      <c r="AZ24" s="173">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="BA24" s="174">
+      <c r="BA24" s="173">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="BB24" s="174">
+      <c r="BB24" s="173">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BC24" s="174">
+      <c r="BC24" s="173">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="BD24" s="174">
+      <c r="BD24" s="173">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="BE24" s="174">
+      <c r="BE24" s="173">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="BF24" s="174">
+      <c r="BF24" s="173">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="BG24" s="174">
+      <c r="BG24" s="173">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="BH24" s="174">
+      <c r="BH24" s="173">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="BI24" s="174">
+      <c r="BI24" s="173">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="BJ24" s="174">
+      <c r="BJ24" s="173">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="BK24" s="174">
+      <c r="BK24" s="173">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="BL24" s="174">
+      <c r="BL24" s="173">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="BM24" s="174">
+      <c r="BM24" s="173">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="BN24" s="174">
+      <c r="BN24" s="173">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="BO24" s="174">
+      <c r="BO24" s="173">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="BP24" s="174">
+      <c r="BP24" s="173">
         <f t="shared" ref="BP24:EA24" si="1">COLUMN(BP24)</f>
         <v>68</v>
       </c>
-      <c r="BQ24" s="174">
+      <c r="BQ24" s="173">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="BR24" s="174">
+      <c r="BR24" s="173">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="BS24" s="174">
+      <c r="BS24" s="173">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="BT24" s="174">
+      <c r="BT24" s="173">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="BU24" s="174">
+      <c r="BU24" s="173">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="BV24" s="174">
+      <c r="BV24" s="173">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="BW24" s="174">
+      <c r="BW24" s="173">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="BX24" s="174">
+      <c r="BX24" s="173">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="BY24" s="174">
+      <c r="BY24" s="173">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="BZ24" s="174">
+      <c r="BZ24" s="173">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="CA24" s="174">
+      <c r="CA24" s="173">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="CB24" s="174">
+      <c r="CB24" s="173">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="CC24" s="174">
+      <c r="CC24" s="173">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="CD24" s="174">
+      <c r="CD24" s="173">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="CE24" s="174">
+      <c r="CE24" s="173">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="CF24" s="174">
+      <c r="CF24" s="173">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="CG24" s="174">
+      <c r="CG24" s="173">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="CH24" s="174">
+      <c r="CH24" s="173">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="CI24" s="174">
+      <c r="CI24" s="173">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="CJ24" s="174">
+      <c r="CJ24" s="173">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="CK24" s="174">
+      <c r="CK24" s="173">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="CL24" s="174">
+      <c r="CL24" s="173">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="CM24" s="174">
+      <c r="CM24" s="173">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="CN24" s="174">
+      <c r="CN24" s="173">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="CO24" s="174">
+      <c r="CO24" s="173">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="CP24" s="174">
+      <c r="CP24" s="173">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="CQ24" s="174">
+      <c r="CQ24" s="173">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="CR24" s="174">
+      <c r="CR24" s="173">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="CS24" s="174">
+      <c r="CS24" s="173">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="CT24" s="174">
+      <c r="CT24" s="173">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="CU24" s="174">
+      <c r="CU24" s="173">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="CV24" s="174">
+      <c r="CV24" s="173">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="CW24" s="174">
+      <c r="CW24" s="173">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="CX24" s="174">
+      <c r="CX24" s="173">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="CY24" s="174">
+      <c r="CY24" s="173">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="CZ24" s="174">
+      <c r="CZ24" s="173">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="DA24" s="174">
+      <c r="DA24" s="173">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="DB24" s="174">
+      <c r="DB24" s="173">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="DC24" s="174">
+      <c r="DC24" s="173">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="DD24" s="174">
+      <c r="DD24" s="173">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="DE24" s="174">
+      <c r="DE24" s="173">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="DF24" s="174">
+      <c r="DF24" s="173">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="DG24" s="174">
+      <c r="DG24" s="173">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="DH24" s="174">
+      <c r="DH24" s="173">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="DI24" s="174">
+      <c r="DI24" s="173">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="DJ24" s="174">
+      <c r="DJ24" s="173">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="DK24" s="174">
+      <c r="DK24" s="173">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="DL24" s="174">
+      <c r="DL24" s="173">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="DM24" s="174">
+      <c r="DM24" s="173">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="DN24" s="174">
+      <c r="DN24" s="173">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="DO24" s="174">
+      <c r="DO24" s="173">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="DP24" s="174">
+      <c r="DP24" s="173">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="DQ24" s="174">
+      <c r="DQ24" s="173">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="DR24" s="174">
+      <c r="DR24" s="173">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="DS24" s="174">
+      <c r="DS24" s="173">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="DT24" s="174">
+      <c r="DT24" s="173">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="DU24" s="174">
+      <c r="DU24" s="173">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="DV24" s="174">
+      <c r="DV24" s="173">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="DW24" s="174">
+      <c r="DW24" s="173">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="DX24" s="174">
+      <c r="DX24" s="173">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="DY24" s="174">
+      <c r="DY24" s="173">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="DZ24" s="174">
+      <c r="DZ24" s="173">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="EA24" s="174">
+      <c r="EA24" s="173">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="EB24" s="174">
+      <c r="EB24" s="173">
         <f t="shared" ref="EB24:GM24" si="2">COLUMN(EB24)</f>
         <v>132</v>
       </c>
-      <c r="EC24" s="174">
+      <c r="EC24" s="173">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="ED24" s="174">
+      <c r="ED24" s="173">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="EE24" s="174">
+      <c r="EE24" s="173">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="EF24" s="174">
+      <c r="EF24" s="173">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="EG24" s="174">
+      <c r="EG24" s="173">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="EH24" s="174">
+      <c r="EH24" s="173">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="EI24" s="174">
+      <c r="EI24" s="173">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="EJ24" s="174">
+      <c r="EJ24" s="173">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="EK24" s="174">
+      <c r="EK24" s="173">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="EL24" s="174">
+      <c r="EL24" s="173">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="EM24" s="174">
+      <c r="EM24" s="173">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="EN24" s="174">
+      <c r="EN24" s="173">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="EO24" s="174">
+      <c r="EO24" s="173">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="EP24" s="174">
+      <c r="EP24" s="173">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="EQ24" s="174">
+      <c r="EQ24" s="173">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="ER24" s="174">
+      <c r="ER24" s="173">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="ES24" s="174">
+      <c r="ES24" s="173">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="ET24" s="174">
+      <c r="ET24" s="173">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="EU24" s="174">
+      <c r="EU24" s="173">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="EV24" s="174">
+      <c r="EV24" s="173">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="EW24" s="174">
+      <c r="EW24" s="173">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="EX24" s="174">
+      <c r="EX24" s="173">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="EY24" s="174">
+      <c r="EY24" s="173">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="EZ24" s="174">
+      <c r="EZ24" s="173">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="FA24" s="174">
+      <c r="FA24" s="173">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="FB24" s="174">
+      <c r="FB24" s="173">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="FC24" s="174">
+      <c r="FC24" s="173">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="FD24" s="174">
+      <c r="FD24" s="173">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="FE24" s="174">
+      <c r="FE24" s="173">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="FF24" s="174">
+      <c r="FF24" s="173">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="FG24" s="174">
+      <c r="FG24" s="173">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="FH24" s="174">
+      <c r="FH24" s="173">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="FI24" s="174">
+      <c r="FI24" s="173">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="FJ24" s="174">
+      <c r="FJ24" s="173">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="FK24" s="174">
+      <c r="FK24" s="173">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="FL24" s="174">
+      <c r="FL24" s="173">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="FM24" s="174">
+      <c r="FM24" s="173">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="FN24" s="174">
+      <c r="FN24" s="173">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="FO24" s="174">
+      <c r="FO24" s="173">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="FP24" s="174">
+      <c r="FP24" s="173">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
-      <c r="FQ24" s="174">
+      <c r="FQ24" s="173">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="FR24" s="174">
+      <c r="FR24" s="173">
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="FS24" s="174">
+      <c r="FS24" s="173">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="FT24" s="174">
+      <c r="FT24" s="173">
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="FU24" s="174">
+      <c r="FU24" s="173">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="FV24" s="174">
+      <c r="FV24" s="173">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="FW24" s="174">
+      <c r="FW24" s="173">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
-      <c r="FX24" s="174">
+      <c r="FX24" s="173">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="FY24" s="174">
+      <c r="FY24" s="173">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="FZ24" s="174">
+      <c r="FZ24" s="173">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="GA24" s="174">
+      <c r="GA24" s="173">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="GB24" s="174">
+      <c r="GB24" s="173">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="GC24" s="174">
+      <c r="GC24" s="173">
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
-      <c r="GD24" s="174">
+      <c r="GD24" s="173">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="GE24" s="174">
+      <c r="GE24" s="173">
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
-      <c r="GF24" s="174">
+      <c r="GF24" s="173">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="GG24" s="174">
+      <c r="GG24" s="173">
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
-      <c r="GH24" s="174">
+      <c r="GH24" s="173">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="GI24" s="174">
+      <c r="GI24" s="173">
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
-      <c r="GJ24" s="174">
+      <c r="GJ24" s="173">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="GK24" s="174">
+      <c r="GK24" s="173">
         <f t="shared" si="2"/>
         <v>193</v>
       </c>
-      <c r="GL24" s="174">
+      <c r="GL24" s="173">
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="GM24" s="174">
+      <c r="GM24" s="173">
         <f t="shared" si="2"/>
         <v>195</v>
       </c>
-      <c r="GN24" s="174">
+      <c r="GN24" s="173">
         <f t="shared" ref="GN24:IO24" si="3">COLUMN(GN24)</f>
         <v>196</v>
       </c>
-      <c r="GO24" s="174">
+      <c r="GO24" s="173">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="GP24" s="174">
+      <c r="GP24" s="173">
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
-      <c r="GQ24" s="174">
+      <c r="GQ24" s="173">
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
-      <c r="GR24" s="174">
+      <c r="GR24" s="173">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="GS24" s="174">
+      <c r="GS24" s="173">
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
-      <c r="GT24" s="174">
+      <c r="GT24" s="173">
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
-      <c r="GU24" s="174">
+      <c r="GU24" s="173">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="GV24" s="174">
+      <c r="GV24" s="173">
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="GW24" s="174">
+      <c r="GW24" s="173">
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
-      <c r="GX24" s="174">
+      <c r="GX24" s="173">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
-      <c r="GY24" s="174">
+      <c r="GY24" s="173">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="GZ24" s="174">
+      <c r="GZ24" s="173">
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="HA24" s="174">
+      <c r="HA24" s="173">
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
-      <c r="HB24" s="174">
+      <c r="HB24" s="173">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="HC24" s="174">
+      <c r="HC24" s="173">
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
-      <c r="HD24" s="174">
+      <c r="HD24" s="173">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
-      <c r="HE24" s="174">
+      <c r="HE24" s="173">
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
-      <c r="HF24" s="174">
+      <c r="HF24" s="173">
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
-      <c r="HG24" s="174">
+      <c r="HG24" s="173">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
-      <c r="HH24" s="174">
+      <c r="HH24" s="173">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="HI24" s="174">
+      <c r="HI24" s="173">
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
-      <c r="HJ24" s="174">
+      <c r="HJ24" s="173">
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
-      <c r="HK24" s="174">
+      <c r="HK24" s="173">
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
-      <c r="HL24" s="174">
+      <c r="HL24" s="173">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="HM24" s="174">
+      <c r="HM24" s="173">
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
-      <c r="HN24" s="174">
+      <c r="HN24" s="173">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
-      <c r="HO24" s="174">
+      <c r="HO24" s="173">
         <f t="shared" si="3"/>
         <v>223</v>
       </c>
-      <c r="HP24" s="174">
+      <c r="HP24" s="173">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="HQ24" s="174">
+      <c r="HQ24" s="173">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="HR24" s="174">
+      <c r="HR24" s="173">
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
-      <c r="HS24" s="174">
+      <c r="HS24" s="173">
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
-      <c r="HT24" s="174">
+      <c r="HT24" s="173">
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
-      <c r="HU24" s="174">
+      <c r="HU24" s="173">
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
-      <c r="HV24" s="174">
+      <c r="HV24" s="173">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="HW24" s="174">
+      <c r="HW24" s="173">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
-      <c r="HX24" s="174">
+      <c r="HX24" s="173">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="HY24" s="174">
+      <c r="HY24" s="173">
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
-      <c r="HZ24" s="174">
+      <c r="HZ24" s="173">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="IA24" s="174">
+      <c r="IA24" s="173">
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
-      <c r="IB24" s="174">
+      <c r="IB24" s="173">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="IC24" s="174">
+      <c r="IC24" s="173">
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
-      <c r="ID24" s="174">
+      <c r="ID24" s="173">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
-      <c r="IE24" s="174">
+      <c r="IE24" s="173">
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
-      <c r="IF24" s="174">
+      <c r="IF24" s="173">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="IG24" s="174">
+      <c r="IG24" s="173">
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
-      <c r="IH24" s="174">
+      <c r="IH24" s="173">
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
-      <c r="II24" s="174">
+      <c r="II24" s="173">
         <f t="shared" si="3"/>
         <v>243</v>
       </c>
-      <c r="IJ24" s="174">
+      <c r="IJ24" s="173">
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
-      <c r="IK24" s="174">
+      <c r="IK24" s="173">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="IL24" s="174">
+      <c r="IL24" s="173">
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
-      <c r="IM24" s="174">
+      <c r="IM24" s="173">
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
-      <c r="IN24" s="174">
+      <c r="IN24" s="173">
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
-      <c r="IO24" s="174">
+      <c r="IO24" s="173">
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
@@ -15097,209 +15126,209 @@
       </c>
     </row>
     <row r="25" spans="1:262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BD25" s="273" t="s">
+      <c r="BD25" s="276" t="s">
         <v>514</v>
       </c>
-      <c r="BE25" s="274"/>
-      <c r="BF25" s="274"/>
-      <c r="BG25" s="274"/>
-      <c r="BH25" s="274"/>
-      <c r="BI25" s="274"/>
-      <c r="BJ25" s="274"/>
-      <c r="BK25" s="274"/>
-      <c r="BL25" s="274"/>
-      <c r="BM25" s="274"/>
-      <c r="BN25" s="274"/>
-      <c r="BO25" s="274"/>
-      <c r="BP25" s="274"/>
-      <c r="BQ25" s="274"/>
-      <c r="BR25" s="274"/>
-      <c r="BS25" s="274"/>
-      <c r="BT25" s="274"/>
-      <c r="BU25" s="274"/>
-      <c r="BV25" s="274"/>
-      <c r="BW25" s="274"/>
-      <c r="BX25" s="274"/>
-      <c r="BY25" s="274"/>
-      <c r="BZ25" s="274"/>
-      <c r="CA25" s="275"/>
-      <c r="CB25" s="273" t="s">
+      <c r="BE25" s="277"/>
+      <c r="BF25" s="277"/>
+      <c r="BG25" s="277"/>
+      <c r="BH25" s="277"/>
+      <c r="BI25" s="277"/>
+      <c r="BJ25" s="277"/>
+      <c r="BK25" s="277"/>
+      <c r="BL25" s="277"/>
+      <c r="BM25" s="277"/>
+      <c r="BN25" s="277"/>
+      <c r="BO25" s="277"/>
+      <c r="BP25" s="277"/>
+      <c r="BQ25" s="277"/>
+      <c r="BR25" s="277"/>
+      <c r="BS25" s="277"/>
+      <c r="BT25" s="277"/>
+      <c r="BU25" s="277"/>
+      <c r="BV25" s="277"/>
+      <c r="BW25" s="277"/>
+      <c r="BX25" s="277"/>
+      <c r="BY25" s="277"/>
+      <c r="BZ25" s="277"/>
+      <c r="CA25" s="278"/>
+      <c r="CB25" s="276" t="s">
         <v>517</v>
       </c>
-      <c r="CC25" s="274"/>
-      <c r="CD25" s="274"/>
-      <c r="CE25" s="274"/>
-      <c r="CF25" s="274"/>
-      <c r="CG25" s="274"/>
-      <c r="CH25" s="274"/>
-      <c r="CI25" s="274"/>
-      <c r="CJ25" s="274"/>
-      <c r="CK25" s="274"/>
-      <c r="CL25" s="274"/>
-      <c r="CM25" s="274"/>
-      <c r="CN25" s="274"/>
-      <c r="CO25" s="274"/>
-      <c r="CP25" s="274"/>
-      <c r="CQ25" s="274"/>
-      <c r="CR25" s="274"/>
-      <c r="CS25" s="274"/>
-      <c r="CT25" s="276" t="s">
+      <c r="CC25" s="277"/>
+      <c r="CD25" s="277"/>
+      <c r="CE25" s="277"/>
+      <c r="CF25" s="277"/>
+      <c r="CG25" s="277"/>
+      <c r="CH25" s="277"/>
+      <c r="CI25" s="277"/>
+      <c r="CJ25" s="277"/>
+      <c r="CK25" s="277"/>
+      <c r="CL25" s="277"/>
+      <c r="CM25" s="277"/>
+      <c r="CN25" s="277"/>
+      <c r="CO25" s="277"/>
+      <c r="CP25" s="277"/>
+      <c r="CQ25" s="277"/>
+      <c r="CR25" s="277"/>
+      <c r="CS25" s="277"/>
+      <c r="CT25" s="279" t="s">
         <v>266</v>
       </c>
-      <c r="CU25" s="277"/>
-      <c r="CV25" s="277"/>
-      <c r="CW25" s="277"/>
-      <c r="CX25" s="277"/>
-      <c r="CY25" s="277"/>
-      <c r="CZ25" s="277"/>
-      <c r="DA25" s="277"/>
-      <c r="DB25" s="277"/>
-      <c r="DC25" s="277"/>
-      <c r="DD25" s="277"/>
-      <c r="DE25" s="277"/>
-      <c r="DF25" s="277"/>
-      <c r="DG25" s="277"/>
-      <c r="DH25" s="277"/>
-      <c r="DI25" s="277"/>
-      <c r="DJ25" s="277"/>
-      <c r="DK25" s="277"/>
-      <c r="DL25" s="277"/>
-      <c r="DM25" s="277"/>
-      <c r="DN25" s="277"/>
-      <c r="DO25" s="277"/>
-      <c r="DP25" s="277"/>
-      <c r="DQ25" s="277"/>
-      <c r="DR25" s="277"/>
-      <c r="DS25" s="277"/>
-      <c r="DT25" s="277"/>
-      <c r="DU25" s="277"/>
-      <c r="DV25" s="277"/>
-      <c r="DW25" s="277"/>
-      <c r="DX25" s="277"/>
-      <c r="DY25" s="277"/>
-      <c r="DZ25" s="277"/>
-      <c r="EA25" s="277"/>
-      <c r="EB25" s="277"/>
-      <c r="EC25" s="277"/>
-      <c r="ED25" s="277"/>
-      <c r="EE25" s="277"/>
-      <c r="EF25" s="277"/>
-      <c r="EG25" s="277"/>
-      <c r="EH25" s="277"/>
-      <c r="EI25" s="277"/>
-      <c r="EJ25" s="277"/>
-      <c r="EK25" s="277"/>
-      <c r="EL25" s="277"/>
-      <c r="EM25" s="277"/>
-      <c r="EN25" s="277"/>
-      <c r="EO25" s="277"/>
-      <c r="EP25" s="277"/>
-      <c r="EQ25" s="277"/>
-      <c r="ER25" s="277"/>
-      <c r="ES25" s="277"/>
-      <c r="ET25" s="277"/>
-      <c r="EU25" s="277"/>
-      <c r="EV25" s="277"/>
-      <c r="EW25" s="277"/>
-      <c r="EX25" s="277"/>
-      <c r="EY25" s="277"/>
-      <c r="EZ25" s="277"/>
-      <c r="FA25" s="277"/>
-      <c r="FB25" s="277"/>
-      <c r="FC25" s="277"/>
-      <c r="FD25" s="277"/>
-      <c r="FE25" s="277"/>
-      <c r="FF25" s="277"/>
-      <c r="FG25" s="277"/>
-      <c r="FH25" s="277"/>
-      <c r="FI25" s="277"/>
-      <c r="FJ25" s="277"/>
-      <c r="FK25" s="277"/>
-      <c r="FL25" s="277"/>
-      <c r="FM25" s="277"/>
-      <c r="FN25" s="277"/>
-      <c r="FO25" s="277"/>
-      <c r="FP25" s="278"/>
+      <c r="CU25" s="280"/>
+      <c r="CV25" s="280"/>
+      <c r="CW25" s="280"/>
+      <c r="CX25" s="280"/>
+      <c r="CY25" s="280"/>
+      <c r="CZ25" s="280"/>
+      <c r="DA25" s="280"/>
+      <c r="DB25" s="280"/>
+      <c r="DC25" s="280"/>
+      <c r="DD25" s="280"/>
+      <c r="DE25" s="280"/>
+      <c r="DF25" s="280"/>
+      <c r="DG25" s="280"/>
+      <c r="DH25" s="280"/>
+      <c r="DI25" s="280"/>
+      <c r="DJ25" s="280"/>
+      <c r="DK25" s="280"/>
+      <c r="DL25" s="280"/>
+      <c r="DM25" s="280"/>
+      <c r="DN25" s="280"/>
+      <c r="DO25" s="280"/>
+      <c r="DP25" s="280"/>
+      <c r="DQ25" s="280"/>
+      <c r="DR25" s="280"/>
+      <c r="DS25" s="280"/>
+      <c r="DT25" s="280"/>
+      <c r="DU25" s="280"/>
+      <c r="DV25" s="280"/>
+      <c r="DW25" s="280"/>
+      <c r="DX25" s="280"/>
+      <c r="DY25" s="280"/>
+      <c r="DZ25" s="280"/>
+      <c r="EA25" s="280"/>
+      <c r="EB25" s="280"/>
+      <c r="EC25" s="280"/>
+      <c r="ED25" s="280"/>
+      <c r="EE25" s="280"/>
+      <c r="EF25" s="280"/>
+      <c r="EG25" s="280"/>
+      <c r="EH25" s="280"/>
+      <c r="EI25" s="280"/>
+      <c r="EJ25" s="280"/>
+      <c r="EK25" s="280"/>
+      <c r="EL25" s="280"/>
+      <c r="EM25" s="280"/>
+      <c r="EN25" s="280"/>
+      <c r="EO25" s="280"/>
+      <c r="EP25" s="280"/>
+      <c r="EQ25" s="280"/>
+      <c r="ER25" s="280"/>
+      <c r="ES25" s="280"/>
+      <c r="ET25" s="280"/>
+      <c r="EU25" s="280"/>
+      <c r="EV25" s="280"/>
+      <c r="EW25" s="280"/>
+      <c r="EX25" s="280"/>
+      <c r="EY25" s="280"/>
+      <c r="EZ25" s="280"/>
+      <c r="FA25" s="280"/>
+      <c r="FB25" s="280"/>
+      <c r="FC25" s="280"/>
+      <c r="FD25" s="280"/>
+      <c r="FE25" s="280"/>
+      <c r="FF25" s="280"/>
+      <c r="FG25" s="280"/>
+      <c r="FH25" s="280"/>
+      <c r="FI25" s="280"/>
+      <c r="FJ25" s="280"/>
+      <c r="FK25" s="280"/>
+      <c r="FL25" s="280"/>
+      <c r="FM25" s="280"/>
+      <c r="FN25" s="280"/>
+      <c r="FO25" s="280"/>
+      <c r="FP25" s="281"/>
     </row>
     <row r="26" spans="1:262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="291" t="s">
+      <c r="D26" s="270" t="s">
         <v>274</v>
       </c>
-      <c r="E26" s="261" t="s">
+      <c r="E26" s="267" t="s">
         <v>225</v>
       </c>
-      <c r="F26" s="261" t="s">
+      <c r="F26" s="267" t="s">
         <v>224</v>
       </c>
-      <c r="G26" s="261" t="s">
+      <c r="G26" s="267" t="s">
         <v>273</v>
       </c>
-      <c r="H26" s="261" t="s">
+      <c r="H26" s="267" t="s">
         <v>272</v>
       </c>
-      <c r="I26" s="261" t="s">
+      <c r="I26" s="267" t="s">
         <v>271</v>
       </c>
-      <c r="J26" s="257" t="s">
-        <v>614</v>
-      </c>
-      <c r="K26" s="292" t="s">
+      <c r="J26" s="291" t="s">
+        <v>612</v>
+      </c>
+      <c r="K26" s="271" t="s">
         <v>390</v>
       </c>
-      <c r="L26" s="260" t="s">
+      <c r="L26" s="294" t="s">
         <v>391</v>
       </c>
-      <c r="M26" s="260"/>
-      <c r="N26" s="260"/>
-      <c r="O26" s="261" t="s">
+      <c r="M26" s="294"/>
+      <c r="N26" s="294"/>
+      <c r="O26" s="267" t="s">
         <v>270</v>
       </c>
-      <c r="P26" s="262" t="s">
+      <c r="P26" s="295" t="s">
         <v>269</v>
       </c>
-      <c r="Q26" s="262"/>
-      <c r="R26" s="262"/>
-      <c r="S26" s="262"/>
-      <c r="T26" s="262"/>
-      <c r="U26" s="262"/>
-      <c r="V26" s="262"/>
-      <c r="W26" s="262"/>
-      <c r="X26" s="262"/>
-      <c r="Y26" s="262"/>
-      <c r="Z26" s="262"/>
-      <c r="AA26" s="262"/>
-      <c r="AB26" s="263" t="s">
+      <c r="Q26" s="295"/>
+      <c r="R26" s="295"/>
+      <c r="S26" s="295"/>
+      <c r="T26" s="295"/>
+      <c r="U26" s="295"/>
+      <c r="V26" s="295"/>
+      <c r="W26" s="295"/>
+      <c r="X26" s="295"/>
+      <c r="Y26" s="295"/>
+      <c r="Z26" s="295"/>
+      <c r="AA26" s="295"/>
+      <c r="AB26" s="296" t="s">
         <v>268</v>
       </c>
-      <c r="AC26" s="263"/>
-      <c r="AD26" s="263"/>
-      <c r="AE26" s="263"/>
-      <c r="AF26" s="263"/>
-      <c r="AG26" s="263"/>
-      <c r="AH26" s="263"/>
-      <c r="AI26" s="263"/>
-      <c r="AJ26" s="263"/>
-      <c r="AK26" s="263"/>
-      <c r="AL26" s="263"/>
-      <c r="AM26" s="263"/>
-      <c r="AN26" s="263" t="s">
+      <c r="AC26" s="296"/>
+      <c r="AD26" s="296"/>
+      <c r="AE26" s="296"/>
+      <c r="AF26" s="296"/>
+      <c r="AG26" s="296"/>
+      <c r="AH26" s="296"/>
+      <c r="AI26" s="296"/>
+      <c r="AJ26" s="296"/>
+      <c r="AK26" s="296"/>
+      <c r="AL26" s="296"/>
+      <c r="AM26" s="296"/>
+      <c r="AN26" s="296" t="s">
         <v>267</v>
       </c>
-      <c r="AO26" s="263"/>
-      <c r="AP26" s="263"/>
-      <c r="AQ26" s="263"/>
-      <c r="AR26" s="263"/>
-      <c r="AS26" s="263"/>
-      <c r="AT26" s="263"/>
-      <c r="AU26" s="263"/>
-      <c r="AV26" s="263"/>
-      <c r="AW26" s="263"/>
-      <c r="AX26" s="263"/>
-      <c r="AY26" s="263"/>
-      <c r="AZ26" s="263"/>
-      <c r="BA26" s="263"/>
-      <c r="BB26" s="263"/>
-      <c r="BC26" s="263"/>
+      <c r="AO26" s="296"/>
+      <c r="AP26" s="296"/>
+      <c r="AQ26" s="296"/>
+      <c r="AR26" s="296"/>
+      <c r="AS26" s="296"/>
+      <c r="AT26" s="296"/>
+      <c r="AU26" s="296"/>
+      <c r="AV26" s="296"/>
+      <c r="AW26" s="296"/>
+      <c r="AX26" s="296"/>
+      <c r="AY26" s="296"/>
+      <c r="AZ26" s="296"/>
+      <c r="BA26" s="296"/>
+      <c r="BB26" s="296"/>
+      <c r="BC26" s="296"/>
       <c r="BD26" s="63"/>
       <c r="BE26" s="63"/>
       <c r="BF26" s="63"/>
@@ -15308,26 +15337,26 @@
       <c r="BI26" s="63"/>
       <c r="BJ26" s="63"/>
       <c r="BK26" s="63"/>
-      <c r="BL26" s="265" t="s">
+      <c r="BL26" s="298" t="s">
         <v>503</v>
       </c>
-      <c r="BM26" s="265"/>
-      <c r="BN26" s="265"/>
-      <c r="BO26" s="265"/>
-      <c r="BP26" s="265"/>
-      <c r="BQ26" s="265"/>
-      <c r="BR26" s="265"/>
-      <c r="BS26" s="265"/>
+      <c r="BM26" s="298"/>
+      <c r="BN26" s="298"/>
+      <c r="BO26" s="298"/>
+      <c r="BP26" s="298"/>
+      <c r="BQ26" s="298"/>
+      <c r="BR26" s="298"/>
+      <c r="BS26" s="298"/>
       <c r="BT26" s="63"/>
       <c r="BU26" s="63"/>
       <c r="BV26" s="63"/>
-      <c r="BW26" s="266" t="s">
+      <c r="BW26" s="299" t="s">
         <v>516</v>
       </c>
-      <c r="BX26" s="266"/>
-      <c r="BY26" s="266"/>
-      <c r="BZ26" s="266"/>
-      <c r="CA26" s="266"/>
+      <c r="BX26" s="299"/>
+      <c r="BY26" s="299"/>
+      <c r="BZ26" s="299"/>
+      <c r="CA26" s="299"/>
       <c r="CB26" s="63"/>
       <c r="CC26" s="63"/>
       <c r="CD26" s="63"/>
@@ -15358,84 +15387,84 @@
       <c r="DC26" s="63"/>
       <c r="DD26" s="63"/>
       <c r="DE26" s="63"/>
-      <c r="DF26" s="285" t="s">
-        <v>537</v>
-      </c>
-      <c r="DG26" s="285"/>
-      <c r="DH26" s="285"/>
-      <c r="DI26" s="285"/>
-      <c r="DJ26" s="285"/>
-      <c r="DK26" s="285"/>
-      <c r="DL26" s="285"/>
-      <c r="DM26" s="285"/>
-      <c r="DN26" s="285"/>
-      <c r="DO26" s="285"/>
-      <c r="DP26" s="285"/>
-      <c r="DQ26" s="285"/>
-      <c r="DR26" s="285"/>
-      <c r="DS26" s="285"/>
-      <c r="DT26" s="285"/>
-      <c r="DU26" s="285"/>
-      <c r="DV26" s="285"/>
-      <c r="DW26" s="285"/>
-      <c r="DX26" s="284" t="s">
+      <c r="DF26" s="288" t="s">
+        <v>535</v>
+      </c>
+      <c r="DG26" s="288"/>
+      <c r="DH26" s="288"/>
+      <c r="DI26" s="288"/>
+      <c r="DJ26" s="288"/>
+      <c r="DK26" s="288"/>
+      <c r="DL26" s="288"/>
+      <c r="DM26" s="288"/>
+      <c r="DN26" s="288"/>
+      <c r="DO26" s="288"/>
+      <c r="DP26" s="288"/>
+      <c r="DQ26" s="288"/>
+      <c r="DR26" s="288"/>
+      <c r="DS26" s="288"/>
+      <c r="DT26" s="288"/>
+      <c r="DU26" s="288"/>
+      <c r="DV26" s="288"/>
+      <c r="DW26" s="288"/>
+      <c r="DX26" s="287" t="s">
         <v>206</v>
       </c>
-      <c r="DY26" s="284"/>
-      <c r="DZ26" s="284"/>
-      <c r="EA26" s="270" t="s">
+      <c r="DY26" s="287"/>
+      <c r="DZ26" s="287"/>
+      <c r="EA26" s="273" t="s">
         <v>205</v>
       </c>
-      <c r="EB26" s="271"/>
-      <c r="EC26" s="271"/>
-      <c r="ED26" s="271"/>
-      <c r="EE26" s="271"/>
-      <c r="EF26" s="271"/>
-      <c r="EG26" s="271"/>
-      <c r="EH26" s="271"/>
-      <c r="EI26" s="271"/>
-      <c r="EJ26" s="271"/>
-      <c r="EK26" s="271"/>
-      <c r="EL26" s="271"/>
-      <c r="EM26" s="271"/>
-      <c r="EN26" s="271"/>
-      <c r="EO26" s="271"/>
-      <c r="EP26" s="271"/>
-      <c r="EQ26" s="287" t="s">
+      <c r="EB26" s="274"/>
+      <c r="EC26" s="274"/>
+      <c r="ED26" s="274"/>
+      <c r="EE26" s="274"/>
+      <c r="EF26" s="274"/>
+      <c r="EG26" s="274"/>
+      <c r="EH26" s="274"/>
+      <c r="EI26" s="274"/>
+      <c r="EJ26" s="274"/>
+      <c r="EK26" s="274"/>
+      <c r="EL26" s="274"/>
+      <c r="EM26" s="274"/>
+      <c r="EN26" s="274"/>
+      <c r="EO26" s="274"/>
+      <c r="EP26" s="274"/>
+      <c r="EQ26" s="289" t="s">
         <v>204</v>
       </c>
-      <c r="ER26" s="287"/>
-      <c r="ES26" s="287"/>
-      <c r="ET26" s="287"/>
-      <c r="EU26" s="287"/>
-      <c r="EV26" s="287"/>
-      <c r="EW26" s="267" t="s">
+      <c r="ER26" s="289"/>
+      <c r="ES26" s="289"/>
+      <c r="ET26" s="289"/>
+      <c r="EU26" s="289"/>
+      <c r="EV26" s="289"/>
+      <c r="EW26" s="290" t="s">
         <v>203</v>
       </c>
-      <c r="EX26" s="267"/>
-      <c r="EY26" s="267"/>
-      <c r="EZ26" s="267"/>
-      <c r="FA26" s="267" t="s">
+      <c r="EX26" s="290"/>
+      <c r="EY26" s="290"/>
+      <c r="EZ26" s="290"/>
+      <c r="FA26" s="290" t="s">
         <v>202</v>
       </c>
-      <c r="FB26" s="267"/>
-      <c r="FC26" s="267"/>
-      <c r="FD26" s="267"/>
-      <c r="FE26" s="267" t="s">
+      <c r="FB26" s="290"/>
+      <c r="FC26" s="290"/>
+      <c r="FD26" s="290"/>
+      <c r="FE26" s="290" t="s">
         <v>201</v>
       </c>
-      <c r="FF26" s="267"/>
-      <c r="FG26" s="267"/>
-      <c r="FH26" s="267"/>
-      <c r="FI26" s="267"/>
-      <c r="FJ26" s="267"/>
-      <c r="FK26" s="267" t="s">
+      <c r="FF26" s="290"/>
+      <c r="FG26" s="290"/>
+      <c r="FH26" s="290"/>
+      <c r="FI26" s="290"/>
+      <c r="FJ26" s="290"/>
+      <c r="FK26" s="290" t="s">
         <v>200</v>
       </c>
-      <c r="FL26" s="267"/>
-      <c r="FM26" s="267"/>
-      <c r="FN26" s="267"/>
-      <c r="FO26" s="267"/>
+      <c r="FL26" s="290"/>
+      <c r="FM26" s="290"/>
+      <c r="FN26" s="290"/>
+      <c r="FO26" s="290"/>
       <c r="FP26" s="63"/>
       <c r="FQ26" s="88"/>
       <c r="FR26" s="88"/>
@@ -15518,14 +15547,14 @@
       </c>
     </row>
     <row r="27" spans="1:262" ht="103.5" x14ac:dyDescent="0.25">
-      <c r="D27" s="291"/>
-      <c r="E27" s="261"/>
-      <c r="F27" s="261"/>
-      <c r="G27" s="261"/>
-      <c r="H27" s="261"/>
-      <c r="I27" s="261"/>
-      <c r="J27" s="258"/>
-      <c r="K27" s="292"/>
+      <c r="D27" s="270"/>
+      <c r="E27" s="267"/>
+      <c r="F27" s="267"/>
+      <c r="G27" s="267"/>
+      <c r="H27" s="267"/>
+      <c r="I27" s="267"/>
+      <c r="J27" s="292"/>
+      <c r="K27" s="271"/>
       <c r="L27" s="99" t="s">
         <v>257</v>
       </c>
@@ -15535,251 +15564,251 @@
       <c r="N27" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="O27" s="261"/>
-      <c r="P27" s="175" t="s">
+      <c r="O27" s="267"/>
+      <c r="P27" s="174" t="s">
         <v>329</v>
       </c>
-      <c r="Q27" s="175" t="s">
+      <c r="Q27" s="174" t="s">
         <v>254</v>
       </c>
-      <c r="R27" s="175" t="s">
+      <c r="R27" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="S27" s="176" t="s">
+      <c r="S27" s="175" t="s">
         <v>253</v>
       </c>
-      <c r="T27" s="177" t="s">
+      <c r="T27" s="176" t="s">
         <v>252</v>
       </c>
-      <c r="U27" s="176" t="s">
+      <c r="U27" s="175" t="s">
         <v>251</v>
       </c>
-      <c r="V27" s="176" t="s">
+      <c r="V27" s="175" t="s">
         <v>250</v>
       </c>
-      <c r="W27" s="176" t="s">
+      <c r="W27" s="175" t="s">
         <v>249</v>
       </c>
-      <c r="X27" s="177" t="s">
+      <c r="X27" s="176" t="s">
         <v>248</v>
       </c>
-      <c r="Y27" s="178" t="s">
+      <c r="Y27" s="177" t="s">
         <v>247</v>
       </c>
-      <c r="Z27" s="179" t="s">
+      <c r="Z27" s="178" t="s">
         <v>246</v>
       </c>
-      <c r="AA27" s="175" t="s">
+      <c r="AA27" s="174" t="s">
         <v>245</v>
       </c>
-      <c r="AB27" s="180" t="s">
+      <c r="AB27" s="179" t="s">
         <v>244</v>
       </c>
-      <c r="AC27" s="180" t="s">
+      <c r="AC27" s="179" t="s">
         <v>412</v>
       </c>
-      <c r="AD27" s="180" t="s">
+      <c r="AD27" s="179" t="s">
         <v>242</v>
       </c>
-      <c r="AE27" s="180" t="s">
+      <c r="AE27" s="179" t="s">
         <v>413</v>
       </c>
-      <c r="AF27" s="180" t="s">
+      <c r="AF27" s="179" t="s">
         <v>241</v>
       </c>
-      <c r="AG27" s="180" t="s">
+      <c r="AG27" s="179" t="s">
         <v>240</v>
       </c>
-      <c r="AH27" s="180" t="s">
+      <c r="AH27" s="179" t="s">
         <v>243</v>
       </c>
-      <c r="AI27" s="180" t="s">
+      <c r="AI27" s="179" t="s">
         <v>409</v>
       </c>
-      <c r="AJ27" s="180" t="s">
+      <c r="AJ27" s="179" t="s">
         <v>410</v>
       </c>
-      <c r="AK27" s="180" t="s">
+      <c r="AK27" s="179" t="s">
         <v>411</v>
       </c>
-      <c r="AL27" s="180" t="s">
+      <c r="AL27" s="179" t="s">
         <v>221</v>
       </c>
-      <c r="AM27" s="180" t="s">
+      <c r="AM27" s="179" t="s">
         <v>239</v>
       </c>
-      <c r="AN27" s="180" t="s">
+      <c r="AN27" s="179" t="s">
         <v>238</v>
       </c>
-      <c r="AO27" s="180" t="s">
+      <c r="AO27" s="179" t="s">
         <v>237</v>
       </c>
-      <c r="AP27" s="180" t="s">
+      <c r="AP27" s="179" t="s">
         <v>236</v>
       </c>
-      <c r="AQ27" s="180" t="s">
+      <c r="AQ27" s="179" t="s">
         <v>235</v>
       </c>
-      <c r="AR27" s="180" t="s">
+      <c r="AR27" s="179" t="s">
         <v>234</v>
       </c>
-      <c r="AS27" s="180" t="s">
+      <c r="AS27" s="179" t="s">
         <v>233</v>
       </c>
-      <c r="AT27" s="180" t="s">
+      <c r="AT27" s="179" t="s">
         <v>232</v>
       </c>
-      <c r="AU27" s="180" t="s">
+      <c r="AU27" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="AV27" s="180" t="s">
+      <c r="AV27" s="179" t="s">
         <v>231</v>
       </c>
-      <c r="AW27" s="181" t="s">
+      <c r="AW27" s="180" t="s">
         <v>489</v>
       </c>
-      <c r="AX27" s="180" t="s">
+      <c r="AX27" s="179" t="s">
         <v>230</v>
       </c>
-      <c r="AY27" s="229" t="s">
-        <v>613</v>
-      </c>
-      <c r="AZ27" s="180" t="s">
+      <c r="AY27" s="228" t="s">
+        <v>611</v>
+      </c>
+      <c r="AZ27" s="179" t="s">
         <v>229</v>
       </c>
-      <c r="BA27" s="180" t="s">
+      <c r="BA27" s="179" t="s">
         <v>228</v>
       </c>
-      <c r="BB27" s="180" t="s">
+      <c r="BB27" s="179" t="s">
         <v>227</v>
       </c>
-      <c r="BC27" s="180" t="s">
+      <c r="BC27" s="179" t="s">
         <v>226</v>
       </c>
-      <c r="BD27" s="182" t="s">
+      <c r="BD27" s="181" t="s">
         <v>497</v>
       </c>
-      <c r="BE27" s="182" t="s">
+      <c r="BE27" s="181" t="s">
         <v>498</v>
       </c>
-      <c r="BF27" s="182" t="s">
+      <c r="BF27" s="181" t="s">
         <v>499</v>
       </c>
-      <c r="BG27" s="183" t="s">
+      <c r="BG27" s="182" t="s">
         <v>222</v>
       </c>
-      <c r="BH27" s="184" t="s">
+      <c r="BH27" s="183" t="s">
         <v>515</v>
       </c>
-      <c r="BI27" s="185" t="s">
+      <c r="BI27" s="184" t="s">
         <v>500</v>
       </c>
-      <c r="BJ27" s="186" t="s">
+      <c r="BJ27" s="185" t="s">
         <v>502</v>
       </c>
-      <c r="BK27" s="187" t="s">
+      <c r="BK27" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="BL27" s="180" t="s">
+      <c r="BL27" s="179" t="s">
         <v>223</v>
       </c>
-      <c r="BM27" s="186" t="s">
+      <c r="BM27" s="185" t="s">
         <v>221</v>
       </c>
-      <c r="BN27" s="180" t="s">
+      <c r="BN27" s="179" t="s">
         <v>220</v>
       </c>
-      <c r="BO27" s="180" t="s">
+      <c r="BO27" s="179" t="s">
         <v>219</v>
       </c>
-      <c r="BP27" s="188" t="s">
+      <c r="BP27" s="187" t="s">
         <v>218</v>
       </c>
-      <c r="BQ27" s="188" t="s">
+      <c r="BQ27" s="187" t="s">
         <v>504</v>
       </c>
-      <c r="BR27" s="180" t="s">
+      <c r="BR27" s="179" t="s">
         <v>505</v>
       </c>
-      <c r="BS27" s="180" t="s">
+      <c r="BS27" s="179" t="s">
         <v>506</v>
       </c>
-      <c r="BT27" s="186" t="s">
+      <c r="BT27" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="BU27" s="186" t="s">
+      <c r="BU27" s="185" t="s">
         <v>525</v>
       </c>
-      <c r="BV27" s="185" t="s">
+      <c r="BV27" s="184" t="s">
         <v>526</v>
       </c>
-      <c r="BW27" s="187" t="s">
+      <c r="BW27" s="186" t="s">
         <v>216</v>
       </c>
-      <c r="BX27" s="187" t="s">
+      <c r="BX27" s="186" t="s">
         <v>215</v>
       </c>
-      <c r="BY27" s="187" t="s">
+      <c r="BY27" s="186" t="s">
         <v>214</v>
       </c>
-      <c r="BZ27" s="187" t="s">
+      <c r="BZ27" s="186" t="s">
         <v>213</v>
       </c>
-      <c r="CA27" s="187" t="s">
+      <c r="CA27" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="CB27" s="182" t="s">
+      <c r="CB27" s="181" t="s">
         <v>507</v>
       </c>
-      <c r="CC27" s="183" t="s">
+      <c r="CC27" s="182" t="s">
         <v>222</v>
       </c>
-      <c r="CD27" s="183" t="s">
+      <c r="CD27" s="182" t="s">
         <v>518</v>
       </c>
-      <c r="CE27" s="186" t="s">
+      <c r="CE27" s="185" t="s">
         <v>221</v>
       </c>
-      <c r="CF27" s="180" t="s">
+      <c r="CF27" s="179" t="s">
         <v>220</v>
       </c>
-      <c r="CG27" s="180" t="s">
+      <c r="CG27" s="179" t="s">
         <v>519</v>
       </c>
-      <c r="CH27" s="188" t="s">
+      <c r="CH27" s="187" t="s">
         <v>218</v>
       </c>
-      <c r="CI27" s="188" t="s">
+      <c r="CI27" s="187" t="s">
         <v>504</v>
       </c>
-      <c r="CJ27" s="180" t="s">
+      <c r="CJ27" s="179" t="s">
         <v>505</v>
       </c>
-      <c r="CK27" s="180" t="s">
+      <c r="CK27" s="179" t="s">
         <v>506</v>
       </c>
-      <c r="CL27" s="186" t="s">
+      <c r="CL27" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="CM27" s="186" t="s">
+      <c r="CM27" s="185" t="s">
         <v>525</v>
       </c>
-      <c r="CN27" s="185" t="s">
+      <c r="CN27" s="184" t="s">
         <v>526</v>
       </c>
-      <c r="CO27" s="187" t="s">
+      <c r="CO27" s="186" t="s">
         <v>216</v>
       </c>
-      <c r="CP27" s="187" t="s">
+      <c r="CP27" s="186" t="s">
         <v>215</v>
       </c>
-      <c r="CQ27" s="187" t="s">
+      <c r="CQ27" s="186" t="s">
         <v>214</v>
       </c>
-      <c r="CR27" s="187" t="s">
+      <c r="CR27" s="186" t="s">
         <v>213</v>
       </c>
-      <c r="CS27" s="187" t="s">
+      <c r="CS27" s="186" t="s">
         <v>212</v>
       </c>
       <c r="CT27" s="88" t="s">
@@ -15791,220 +15820,220 @@
       <c r="CV27" s="88" t="s">
         <v>384</v>
       </c>
-      <c r="CW27" s="189" t="s">
+      <c r="CW27" s="188" t="s">
         <v>389</v>
       </c>
-      <c r="CX27" s="190" t="s">
+      <c r="CX27" s="189" t="s">
         <v>414</v>
       </c>
-      <c r="CY27" s="190" t="s">
+      <c r="CY27" s="189" t="s">
         <v>415</v>
       </c>
-      <c r="CZ27" s="190" t="s">
+      <c r="CZ27" s="189" t="s">
         <v>416</v>
       </c>
-      <c r="DA27" s="190" t="s">
+      <c r="DA27" s="189" t="s">
         <v>473</v>
       </c>
-      <c r="DB27" s="190" t="s">
+      <c r="DB27" s="189" t="s">
         <v>417</v>
       </c>
-      <c r="DC27" s="191" t="s">
+      <c r="DC27" s="190" t="s">
         <v>418</v>
       </c>
-      <c r="DD27" s="191" t="s">
+      <c r="DD27" s="190" t="s">
+        <v>539</v>
+      </c>
+      <c r="DE27" s="89"/>
+      <c r="DF27" s="191" t="s">
+        <v>531</v>
+      </c>
+      <c r="DG27" s="191" t="s">
+        <v>532</v>
+      </c>
+      <c r="DH27" s="192" t="s">
+        <v>555</v>
+      </c>
+      <c r="DI27" s="192" t="s">
+        <v>556</v>
+      </c>
+      <c r="DJ27" s="192" t="s">
+        <v>557</v>
+      </c>
+      <c r="DK27" s="193" t="s">
+        <v>543</v>
+      </c>
+      <c r="DL27" s="193" t="s">
+        <v>533</v>
+      </c>
+      <c r="DM27" s="193" t="s">
+        <v>583</v>
+      </c>
+      <c r="DN27" s="193" t="s">
+        <v>584</v>
+      </c>
+      <c r="DO27" s="165" t="s">
+        <v>520</v>
+      </c>
+      <c r="DP27" s="165" t="s">
+        <v>521</v>
+      </c>
+      <c r="DQ27" s="165" t="s">
+        <v>522</v>
+      </c>
+      <c r="DR27" s="191" t="s">
+        <v>534</v>
+      </c>
+      <c r="DS27" s="193" t="s">
+        <v>536</v>
+      </c>
+      <c r="DT27" s="194" t="s">
+        <v>537</v>
+      </c>
+      <c r="DU27" s="194" t="s">
+        <v>521</v>
+      </c>
+      <c r="DV27" s="194" t="s">
+        <v>522</v>
+      </c>
+      <c r="DW27" s="193" t="s">
+        <v>538</v>
+      </c>
+      <c r="DX27" s="168" t="s">
+        <v>540</v>
+      </c>
+      <c r="DY27" s="168" t="s">
         <v>541</v>
       </c>
-      <c r="DE27" s="89"/>
-      <c r="DF27" s="192" t="s">
-        <v>533</v>
-      </c>
-      <c r="DG27" s="192" t="s">
-        <v>534</v>
-      </c>
-      <c r="DH27" s="193" t="s">
-        <v>557</v>
-      </c>
-      <c r="DI27" s="193" t="s">
+      <c r="DZ27" s="169" t="s">
+        <v>516</v>
+      </c>
+      <c r="EA27" s="195" t="s">
+        <v>542</v>
+      </c>
+      <c r="EB27" s="195" t="s">
+        <v>544</v>
+      </c>
+      <c r="EC27" s="195" t="s">
+        <v>545</v>
+      </c>
+      <c r="ED27" s="196" t="s">
+        <v>547</v>
+      </c>
+      <c r="EE27" s="197" t="s">
+        <v>548</v>
+      </c>
+      <c r="EF27" s="197" t="s">
+        <v>549</v>
+      </c>
+      <c r="EG27" s="197" t="s">
+        <v>522</v>
+      </c>
+      <c r="EH27" s="197" t="s">
+        <v>550</v>
+      </c>
+      <c r="EI27" s="197" t="s">
+        <v>551</v>
+      </c>
+      <c r="EJ27" s="197" t="s">
+        <v>590</v>
+      </c>
+      <c r="EK27" s="197" t="s">
+        <v>591</v>
+      </c>
+      <c r="EL27" s="198" t="s">
+        <v>588</v>
+      </c>
+      <c r="EM27" s="199" t="s">
+        <v>552</v>
+      </c>
+      <c r="EN27" s="200" t="s">
+        <v>546</v>
+      </c>
+      <c r="EO27" s="201" t="s">
         <v>558</v>
       </c>
-      <c r="DJ27" s="193" t="s">
+      <c r="EP27" s="202" t="s">
+        <v>516</v>
+      </c>
+      <c r="EQ27" s="199" t="s">
+        <v>553</v>
+      </c>
+      <c r="ER27" s="199" t="s">
+        <v>554</v>
+      </c>
+      <c r="ES27" s="203" t="s">
+        <v>560</v>
+      </c>
+      <c r="ET27" s="203" t="s">
+        <v>561</v>
+      </c>
+      <c r="EU27" s="203" t="s">
         <v>559</v>
       </c>
-      <c r="DK27" s="194" t="s">
-        <v>545</v>
-      </c>
-      <c r="DL27" s="194" t="s">
-        <v>535</v>
-      </c>
-      <c r="DM27" s="194" t="s">
+      <c r="EV27" s="204" t="s">
+        <v>516</v>
+      </c>
+      <c r="EW27" s="203" t="s">
+        <v>562</v>
+      </c>
+      <c r="EX27" s="203" t="s">
+        <v>563</v>
+      </c>
+      <c r="EY27" s="203" t="s">
+        <v>564</v>
+      </c>
+      <c r="EZ27" s="204" t="s">
+        <v>516</v>
+      </c>
+      <c r="FA27" s="204" t="s">
+        <v>577</v>
+      </c>
+      <c r="FB27" s="204"/>
+      <c r="FC27" s="204"/>
+      <c r="FD27" s="204" t="s">
+        <v>516</v>
+      </c>
+      <c r="FE27" s="204" t="s">
+        <v>582</v>
+      </c>
+      <c r="FF27" s="205" t="s">
         <v>585</v>
       </c>
-      <c r="DN27" s="194" t="s">
+      <c r="FG27" s="205" t="s">
         <v>586</v>
       </c>
-      <c r="DO27" s="166" t="s">
-        <v>520</v>
-      </c>
-      <c r="DP27" s="166" t="s">
-        <v>521</v>
-      </c>
-      <c r="DQ27" s="166" t="s">
-        <v>522</v>
-      </c>
-      <c r="DR27" s="192" t="s">
-        <v>536</v>
-      </c>
-      <c r="DS27" s="194" t="s">
-        <v>538</v>
-      </c>
-      <c r="DT27" s="195" t="s">
-        <v>539</v>
-      </c>
-      <c r="DU27" s="195" t="s">
-        <v>521</v>
-      </c>
-      <c r="DV27" s="195" t="s">
-        <v>522</v>
-      </c>
-      <c r="DW27" s="194" t="s">
-        <v>540</v>
-      </c>
-      <c r="DX27" s="169" t="s">
-        <v>542</v>
-      </c>
-      <c r="DY27" s="169" t="s">
-        <v>543</v>
-      </c>
-      <c r="DZ27" s="170" t="s">
+      <c r="FH27" s="205" t="s">
+        <v>587</v>
+      </c>
+      <c r="FI27" s="205" t="s">
+        <v>589</v>
+      </c>
+      <c r="FJ27" s="205" t="s">
         <v>516</v>
       </c>
-      <c r="EA27" s="196" t="s">
-        <v>544</v>
-      </c>
-      <c r="EB27" s="196" t="s">
-        <v>546</v>
-      </c>
-      <c r="EC27" s="196" t="s">
-        <v>547</v>
-      </c>
-      <c r="ED27" s="197" t="s">
-        <v>549</v>
-      </c>
-      <c r="EE27" s="198" t="s">
-        <v>550</v>
-      </c>
-      <c r="EF27" s="198" t="s">
-        <v>551</v>
-      </c>
-      <c r="EG27" s="198" t="s">
-        <v>522</v>
-      </c>
-      <c r="EH27" s="198" t="s">
-        <v>552</v>
-      </c>
-      <c r="EI27" s="198" t="s">
-        <v>553</v>
-      </c>
-      <c r="EJ27" s="198" t="s">
-        <v>592</v>
-      </c>
-      <c r="EK27" s="198" t="s">
+      <c r="FK27" s="204" t="s">
+        <v>578</v>
+      </c>
+      <c r="FL27" s="204" t="s">
+        <v>579</v>
+      </c>
+      <c r="FM27" s="204" t="s">
+        <v>580</v>
+      </c>
+      <c r="FN27" s="204" t="s">
+        <v>581</v>
+      </c>
+      <c r="FO27" s="204" t="s">
+        <v>516</v>
+      </c>
+      <c r="FP27" s="206" t="s">
+        <v>432</v>
+      </c>
+      <c r="FQ27" s="300" t="s">
         <v>593</v>
       </c>
-      <c r="EL27" s="199" t="s">
-        <v>590</v>
-      </c>
-      <c r="EM27" s="200" t="s">
-        <v>554</v>
-      </c>
-      <c r="EN27" s="201" t="s">
-        <v>548</v>
-      </c>
-      <c r="EO27" s="202" t="s">
-        <v>560</v>
-      </c>
-      <c r="EP27" s="203" t="s">
-        <v>516</v>
-      </c>
-      <c r="EQ27" s="200" t="s">
-        <v>555</v>
-      </c>
-      <c r="ER27" s="200" t="s">
-        <v>556</v>
-      </c>
-      <c r="ES27" s="204" t="s">
-        <v>562</v>
-      </c>
-      <c r="ET27" s="204" t="s">
-        <v>563</v>
-      </c>
-      <c r="EU27" s="204" t="s">
-        <v>561</v>
-      </c>
-      <c r="EV27" s="205" t="s">
-        <v>516</v>
-      </c>
-      <c r="EW27" s="204" t="s">
-        <v>564</v>
-      </c>
-      <c r="EX27" s="204" t="s">
-        <v>565</v>
-      </c>
-      <c r="EY27" s="204" t="s">
-        <v>566</v>
-      </c>
-      <c r="EZ27" s="205" t="s">
-        <v>516</v>
-      </c>
-      <c r="FA27" s="205" t="s">
-        <v>579</v>
-      </c>
-      <c r="FB27" s="205"/>
-      <c r="FC27" s="205"/>
-      <c r="FD27" s="205" t="s">
-        <v>516</v>
-      </c>
-      <c r="FE27" s="205" t="s">
-        <v>584</v>
-      </c>
-      <c r="FF27" s="206" t="s">
-        <v>587</v>
-      </c>
-      <c r="FG27" s="206" t="s">
-        <v>588</v>
-      </c>
-      <c r="FH27" s="206" t="s">
-        <v>589</v>
-      </c>
-      <c r="FI27" s="206" t="s">
-        <v>591</v>
-      </c>
-      <c r="FJ27" s="206" t="s">
-        <v>516</v>
-      </c>
-      <c r="FK27" s="205" t="s">
-        <v>580</v>
-      </c>
-      <c r="FL27" s="205" t="s">
-        <v>581</v>
-      </c>
-      <c r="FM27" s="205" t="s">
-        <v>582</v>
-      </c>
-      <c r="FN27" s="205" t="s">
-        <v>583</v>
-      </c>
-      <c r="FO27" s="205" t="s">
-        <v>516</v>
-      </c>
-      <c r="FP27" s="207" t="s">
-        <v>432</v>
-      </c>
-      <c r="FQ27" s="268" t="s">
-        <v>595</v>
-      </c>
-      <c r="FR27" s="268"/>
+      <c r="FR27" s="300"/>
       <c r="FU27" s="121">
         <f>35*$AA$5</f>
         <v>35</v>
@@ -16020,7 +16049,7 @@
       <c r="GG27" s="108"/>
       <c r="GH27" s="110"/>
       <c r="GI27" s="111"/>
-      <c r="GJ27" s="173"/>
+      <c r="GJ27" s="172"/>
       <c r="GK27" s="139"/>
       <c r="GL27" s="110"/>
       <c r="GM27" s="111"/>
@@ -16030,44 +16059,44 @@
       <c r="GQ27" s="112"/>
       <c r="GR27" s="112"/>
       <c r="GS27" s="112"/>
-      <c r="HM27" s="264" t="s">
+      <c r="HM27" s="297" t="s">
         <v>421</v>
       </c>
-      <c r="HN27" s="264"/>
-      <c r="HO27" s="264"/>
-      <c r="HP27" s="264"/>
-      <c r="HQ27" s="264"/>
-      <c r="HR27" s="264"/>
-      <c r="HS27" s="264"/>
-      <c r="HT27" s="264"/>
-      <c r="HU27" s="272" t="s">
+      <c r="HN27" s="297"/>
+      <c r="HO27" s="297"/>
+      <c r="HP27" s="297"/>
+      <c r="HQ27" s="297"/>
+      <c r="HR27" s="297"/>
+      <c r="HS27" s="297"/>
+      <c r="HT27" s="297"/>
+      <c r="HU27" s="275" t="s">
         <v>211</v>
       </c>
-      <c r="HV27" s="272"/>
-      <c r="HW27" s="272"/>
-      <c r="HX27" s="272"/>
-      <c r="HY27" s="272"/>
-      <c r="HZ27" s="272"/>
-      <c r="IA27" s="272"/>
-      <c r="IB27" s="272"/>
-      <c r="IC27" s="272"/>
-      <c r="ID27" s="272"/>
-      <c r="IE27" s="259" t="s">
+      <c r="HV27" s="275"/>
+      <c r="HW27" s="275"/>
+      <c r="HX27" s="275"/>
+      <c r="HY27" s="275"/>
+      <c r="HZ27" s="275"/>
+      <c r="IA27" s="275"/>
+      <c r="IB27" s="275"/>
+      <c r="IC27" s="275"/>
+      <c r="ID27" s="275"/>
+      <c r="IE27" s="293" t="s">
         <v>210</v>
       </c>
-      <c r="IF27" s="259"/>
-      <c r="IG27" s="259"/>
-      <c r="IH27" s="259"/>
-      <c r="II27" s="259"/>
-      <c r="IJ27" s="259"/>
-      <c r="IK27" s="259"/>
-      <c r="IL27" s="259"/>
-      <c r="IM27" s="259"/>
-      <c r="IN27" s="259"/>
+      <c r="IF27" s="293"/>
+      <c r="IG27" s="293"/>
+      <c r="IH27" s="293"/>
+      <c r="II27" s="293"/>
+      <c r="IJ27" s="293"/>
+      <c r="IK27" s="293"/>
+      <c r="IL27" s="293"/>
+      <c r="IM27" s="293"/>
+      <c r="IN27" s="293"/>
     </row>
     <row r="28" spans="1:262" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="222" t="s">
-        <v>604</v>
+      <c r="C28" s="221" t="s">
+        <v>602</v>
       </c>
       <c r="D28" s="61">
         <f>IF(COUNT($CU$28:CU28)=MATCH(CT28,$CT$28:CT28,0),CT28,"")</f>
@@ -16101,15 +16130,15 @@
         <f ca="1">IF(D28="","",AC28&amp;"кВт; "&amp;Q28&amp;"В; "&amp;AD28&amp;"A; "&amp;AE28&amp;"; dU="&amp;AH28)</f>
         <v>#N/A</v>
       </c>
-      <c r="L28" s="208" t="e">
+      <c r="L28" s="207" t="e">
         <f>IF(CX28=0,IF($L$23=1,AN28,P28),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="M28" s="208" t="e">
+      <c r="M28" s="207" t="e">
         <f>IF(CX28=1,IF($L$23=1,AN28,P28),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N28" s="208" t="e">
+      <c r="N28" s="207" t="e">
         <f>IF(CX28=2,IF($L$23=1,AN28,P28),"")</f>
         <v>#N/A</v>
       </c>
@@ -16156,7 +16185,7 @@
       <c r="Y28" s="53">
         <v>1</v>
       </c>
-      <c r="Z28" s="174" t="s">
+      <c r="Z28" s="173" t="s">
         <v>315</v>
       </c>
       <c r="AA28" s="53">
@@ -16260,11 +16289,11 @@
       </c>
       <c r="AZ28" s="57"/>
       <c r="BA28" s="57"/>
-      <c r="BB28" s="174" t="e">
+      <c r="BB28" s="173" t="e">
         <f ca="1">IF(AN28="","",INDEX(BDКаб!$B$5:$B$12,MATCH(AX28,INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$B$4:$AH$4,MATCH(AQ28&amp;AR28&amp;AS28&amp;"Z",BDКаб!$B$3:$AH$3,0))),-1)+1))</f>
         <v>#N/A</v>
       </c>
-      <c r="BC28" s="174" t="e">
+      <c r="BC28" s="173" t="e">
         <f ca="1">IF(AN28="","",INDEX(BDКаб!$B$5:$B$20,MATCH(IF(AN28="","",IF(E28="",U28,AD28)),INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$B$4:$AH$4,MATCH(AQ28&amp;AR28&amp;AS28&amp;"I",BDКаб!$B$3:$AH$3,0))),1)+1))</f>
         <v>#N/A</v>
       </c>
@@ -16355,7 +16384,7 @@
         <f ca="1">IF(BH28="","",BW28&amp;","&amp;BR28&amp;"А,"&amp;BT28&amp;IF(BX28="","",","&amp;BX28))</f>
         <v>#N/A</v>
       </c>
-      <c r="CB28" s="209" t="str">
+      <c r="CB28" s="208" t="str">
         <f>IF(G28=0,"",G28)</f>
         <v>АВ</v>
       </c>
@@ -16421,297 +16450,297 @@
         <f ca="1">IF(CB28="","",CO28&amp;","&amp;CJ28&amp;"А,"&amp;CL28&amp;IF(CP28="","",","&amp;CP28))</f>
         <v>#N/A</v>
       </c>
-      <c r="CT28" s="210">
+      <c r="CT28" s="209">
         <f>'&lt;zalldev&gt;EXPORT'!AX11</f>
         <v>-1</v>
       </c>
-      <c r="CU28" s="210">
+      <c r="CU28" s="209">
         <f>COUNT($CT$28:CT28)</f>
         <v>1</v>
       </c>
-      <c r="CV28" s="210" t="e">
+      <c r="CV28" s="209" t="e">
         <f ca="1">INDIRECT("'"&amp;P28&amp;"'!"&amp;"X14")</f>
         <v>#REF!</v>
       </c>
-      <c r="CW28" s="210" t="str">
+      <c r="CW28" s="209" t="str">
         <f>'&lt;zalldev&gt;EXPORT'!AY11</f>
         <v>-1</v>
       </c>
-      <c r="CX28" s="211" t="e">
+      <c r="CX28" s="210" t="e">
         <f>'&lt;zalldev&gt;EXPORT'!BG11-$U$16-1</f>
         <v>#N/A</v>
       </c>
-      <c r="CY28" s="211">
+      <c r="CY28" s="210">
         <f>'&lt;zalldev&gt;EXPORT'!J11</f>
         <v>0</v>
       </c>
-      <c r="CZ28" s="211">
+      <c r="CZ28" s="210">
         <f>'&lt;zalldev&gt;EXPORT'!M11*1</f>
         <v>0</v>
       </c>
-      <c r="DA28" s="211" t="str">
+      <c r="DA28" s="210" t="str">
         <f>CY28&amp;"."&amp;CZ28</f>
         <v>0.0</v>
       </c>
-      <c r="DB28" s="211">
+      <c r="DB28" s="210">
         <f>'&lt;zalldev&gt;EXPORT'!BF11*1</f>
         <v>0</v>
       </c>
-      <c r="DC28" s="212">
+      <c r="DC28" s="211">
         <f>IF(COUNT($CT$28:CT28)=1,1,IF(INDEX($CT$28:CT28,COUNT($CT$28:CT28)-1)=INDEX($CT$28:CT28,COUNT($CT$28:CT28)),0,COUNT($CT$28:CT28)))*1</f>
         <v>1</v>
       </c>
-      <c r="DD28" s="212">
+      <c r="DD28" s="211">
         <f>IF(DB28&gt;0,IF(CX28=0,SUMIFS(CW28:$CW$700000,CT28:$CT$700000,CT28,CX28:$CX$700000,1),0),0)*1</f>
         <v>0</v>
       </c>
-      <c r="DE28" s="213">
+      <c r="DE28" s="212">
         <f>IF('&lt;zalldev&gt;EXPORT'!W11=0,'&lt;zalldev&gt;EXPORT'!W11,1)</f>
         <v>0</v>
       </c>
-      <c r="DF28" s="214">
+      <c r="DF28" s="213">
         <f>IF(SUMIF($CT$28:$CT$700000,CT28,$DB$28:$DB$700000)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="DG28" s="214">
+      <c r="DG28" s="213">
         <f>IF($H$5=CY28,1,0)</f>
         <v>1</v>
       </c>
-      <c r="DH28" s="215" t="e">
+      <c r="DH28" s="214" t="e">
         <f>IF(CX28=0,IF(DF28=0,0,DA28),IF(CX28=1,INDEX($DH$28:DH28,CU28-1),IF(CX28=2,INDEX($DH$28:DH28,CU28-1),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="DI28" s="215">
+      <c r="DI28" s="214">
         <f>IF(DF28=1,MATCH(DH28,$DH$28:DH28,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DJ28" s="215">
+      <c r="DJ28" s="214">
         <f>IF(COUNTIF(DA28:$DA$699946,DH28)&gt;0,IF(DI28=CU28,0,1),0)</f>
         <v>0</v>
       </c>
-      <c r="DK28" s="214" t="e">
+      <c r="DK28" s="213" t="e">
         <f>IF(CX28=0,IF(DB28&gt;0,1,0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="DL28" s="214">
+      <c r="DL28" s="213">
         <f>IF(SUMIF($DO$28:$DO$700000,P28,$DS$28:$DS$700000)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="DM28" s="216" t="e">
+      <c r="DM28" s="215" t="e">
         <f>IF(DH28=0,0,IF(SUMIF($DH$28:$DH$700000,DH28,$DL$28:$DL$700000)&gt;0,1,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="DN28" s="216" t="e">
+      <c r="DN28" s="215" t="e">
         <f>IF(DH28=0,0,IF(SUMIF($EE$28:$EE$700000,EE28,$DS$28:$DS$700000)&gt;0,1,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="DO28" s="167" t="e">
+      <c r="DO28" s="166" t="e">
         <f>IF(CX28=1,CY28,IF(CX28=2,INDEX($DO$28:DO28,CU28-1),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="DP28" s="167" t="e">
+      <c r="DP28" s="166" t="e">
         <f>IF(CX28=1,MATCH(DO28,$DO$28:DO28,0),IF(CX28=2,INDEX($DP$28:DP28,CU28-1),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="DQ28" s="167">
+      <c r="DQ28" s="166">
         <f>COUNTIF($DO$28:$DO$700000,DO28)</f>
         <v>1</v>
       </c>
-      <c r="DR28" s="214" t="e">
+      <c r="DR28" s="213" t="e">
         <f>IF(DO28=0,0,IF(CU28&gt;=DP28,IF(CU28&lt;=DP28+DQ28,1,0),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="DS28" s="214">
+      <c r="DS28" s="213">
         <f>IF(DB28&gt;0,IF(CX28=1,1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="DT28" s="167" t="e">
+      <c r="DT28" s="166" t="e">
         <f>IF(CX28=2,CY28,IF(CX28=2,INDEX($DT$28:DT28,CU28-1),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="DU28" s="167" t="e">
+      <c r="DU28" s="166" t="e">
         <f>IF(CX28=2,MATCH(DT28,$DT$28:DT28,0),IF(CX28=2,INDEX($DU$28:DU28,CU28-1),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="DV28" s="167">
+      <c r="DV28" s="166">
         <f>COUNTIF($DT$28:$DT$700000,DT28)</f>
         <v>1</v>
       </c>
-      <c r="DW28" s="214" t="e">
+      <c r="DW28" s="213" t="e">
         <f>IF(DT28=0,0,IF(CU28&gt;=DU28,IF(CU28&lt;=DU28+DV28,1,0),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="DX28" s="171">
+      <c r="DX28" s="170">
         <f>IF(MATCH(CT28,$CT$28:CT28,0)=COUNT($CT$28:CT28),COUNTIFS(F28:$F$120004,F28),0)*1</f>
         <v>1</v>
       </c>
-      <c r="DY28" s="171">
+      <c r="DY28" s="170">
         <f>IF(INDEX($DX$28:DX28,MATCH(CT28,$CT$28:CT28,0))&gt;1,IF(DX28=0,2,1),IF(DX28=1,1,0))*1</f>
         <v>1</v>
       </c>
-      <c r="DZ28" s="172" t="e">
+      <c r="DZ28" s="171" t="e">
         <f ca="1">IF(H28&lt;&gt;"",0,IF(DX28=0,IF(DY28=0,3,DY28),DY28))</f>
         <v>#N/A</v>
       </c>
-      <c r="EA28" s="217" t="e">
+      <c r="EA28" s="216" t="e">
         <f t="shared" ref="EA28" ca="1" si="5">IF(DZ28=0,1,IF(DZ28=1,1,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="EB28" s="217" t="e">
+      <c r="EB28" s="216" t="e">
         <f>IF(SUM(EC28,EN28)&gt;0,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="EC28" s="217" t="e">
+      <c r="EC28" s="216" t="e">
         <f>INDEX($DK$28:DK28,CU28-1)</f>
         <v>#N/A</v>
       </c>
-      <c r="ED28" s="217">
+      <c r="ED28" s="216">
         <f>IF(INDEX($DL$28:DL28,CU28-1)&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="EE28" s="218" t="e">
+      <c r="EE28" s="217" t="e">
         <f>IF(DO28=0,0,IF(INDEX($DO$28:DO28,CU28-1)=0,DA28,IF(DO28=INDEX($DO$28:DO28,CU28-1),IF(DO28=CY28,DA28,INDEX($EE$28:EE28,CU28-1)),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="EF28" s="218" t="e">
+      <c r="EF28" s="217" t="e">
         <f>IF(EE28=0,0,MATCH(EE28,$DA$28:DA28,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="EG28" s="218">
+      <c r="EG28" s="217">
         <f>COUNTIF(DA28:$DA$700000,EE28)</f>
         <v>0</v>
       </c>
-      <c r="EH28" s="218" t="e">
+      <c r="EH28" s="217" t="e">
         <f>IF(EE28=0,0,IF(INDEX($EE$28:EE28,CU28-1)=EE28,0,1))</f>
         <v>#N/A</v>
       </c>
-      <c r="EI28" s="218" t="e">
+      <c r="EI28" s="217" t="e">
         <f>IF(EH28=1,0,IF(EG28&gt;0,1,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="EJ28" s="218" t="e">
+      <c r="EJ28" s="217" t="e">
         <f>IF(EI28=1,IF(INDEX($EE$28:EE28,CU28-2)=EE28,1,0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="EK28" s="218" t="e">
+      <c r="EK28" s="217" t="e">
         <f>IF(INDEX($EJ$28:EJ28,CU28-1)=1,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="EL28" s="216" t="e">
+      <c r="EL28" s="215" t="e">
         <f>IF(EE28=0,0,SUMIF(EE28:$EE$700000,EE28,DS28:$DS$700000))</f>
         <v>#N/A</v>
       </c>
-      <c r="EM28" s="218" t="e">
+      <c r="EM28" s="217" t="e">
         <f>IF(EJ28&gt;0,IF(INDEX($DO$28:DO28,CU28-1)=DO28,IF(DT28=0,IF(INDEX($DT$28:DT28,CU28-1)=DT28,0,1),0),0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="EN28" s="217">
+      <c r="EN28" s="216">
         <f>INDEX($DS$28:DS28,CU28-1)</f>
         <v>0</v>
       </c>
-      <c r="EO28" s="219">
+      <c r="EO28" s="218">
         <f>IF(DJ28=0,0,IF(CU28-1=DI28,1,0))</f>
         <v>0</v>
       </c>
-      <c r="EP28" s="220" t="e">
+      <c r="EP28" s="219" t="e">
         <f>_xlfn.IFS(IF(DM28,IF(EJ28,1,0),0),IF(EM28=1,0,IF(EK28=0,3,5)),ED28=1,IF(EO28=1,4,2),1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="EQ28" s="174" t="e">
+      <c r="EQ28" s="173" t="e">
         <f>IF(DO28=0,0,IF(CU28&gt;=DP28,IF(CU28&lt;=DP28+DQ28,IF(SUMIF($DO$28:$DO$700000,DO28,$DW$28:$DW$700000)&gt;0,1,0),0),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="ER28" s="217" t="e">
+      <c r="ER28" s="216" t="e">
         <f>IF(EQ28=0,0,IF(CU28&gt;=DP28,IF(CU28&lt;=DP28+DQ28,IF(SUMIF(DO28:$DO$700000,DO28,EH28:$EH$700000)&gt;0,1,0),0),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="ES28" s="220" t="e">
+      <c r="ES28" s="219" t="e">
         <f>IF(EM28&gt;0,IF(ER28&gt;0,1,0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="ET28" s="220" t="e">
+      <c r="ET28" s="219" t="e">
         <f>IF(DR28&gt;0,IF(EP28=2,0,IF(ER28&gt;0,IF(EB28=0,1,0),0)),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="EU28" s="220">
+      <c r="EU28" s="219">
         <f>IF(DJ28=0,0,IF(CU28-1=DI28,0,DJ28))</f>
         <v>0</v>
       </c>
-      <c r="EV28" s="217" t="e">
+      <c r="EV28" s="216" t="e">
         <f>_xlfn.IFS(ES28,4,EM28&gt;0,3,ET28,2,EU28,IF(EN28&gt;0,0,1),1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="EW28" s="221">
+      <c r="EW28" s="220">
         <f>IF(DC28&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="EX28" s="221">
+      <c r="EX28" s="220">
         <f>IF(DF28=1,IF(DG28=1,1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="EY28" s="221" t="e">
+      <c r="EY28" s="220" t="e">
         <f>IF(DW28=0,IF(DR28=1,1,0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="EZ28" s="221">
+      <c r="EZ28" s="220">
         <f>_xlfn.IFS(EW28,4,IF(EH28,IF(DM28,1,0),0),2,EX28,1,DN28=0,0,IF(EY28=1,IF(EG28&gt;0,1,0),0),3,1,0)</f>
         <v>4</v>
       </c>
-      <c r="FA28" s="221">
+      <c r="FA28" s="220">
         <f>IF(INDEX($DA$28:DA28,CU28-1)=DA28,1,0)</f>
         <v>1</v>
       </c>
-      <c r="FB28" s="221"/>
-      <c r="FC28" s="221"/>
-      <c r="FD28" s="221" t="e">
+      <c r="FB28" s="220"/>
+      <c r="FC28" s="220"/>
+      <c r="FD28" s="220" t="e">
         <f>_xlfn.IFS(DK28,0,EB28,0,EW28,0,EP28=5,0,FA28,3,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="FE28" s="221" t="e">
+      <c r="FE28" s="220" t="e">
         <f>_xlfn.IFS(DB28&gt;0,0,DW28,1,DR28,1,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="FF28" s="217" t="e">
+      <c r="FF28" s="216" t="e">
         <f>IF(FE28=1,DA28,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="FG28" s="217" t="e">
+      <c r="FG28" s="216" t="e">
         <f>IF(FF28=0,0,IF(INDEX($FF$28:FF28,CU28-1)=FF28,0,1))</f>
         <v>#N/A</v>
       </c>
-      <c r="FH28" s="217" t="e">
+      <c r="FH28" s="216" t="e">
         <f>IF(FF28=0,0,SUMIF(CY28:$CY$700000,CY28,FG28:$FG$700000))</f>
         <v>#N/A</v>
       </c>
-      <c r="FI28" s="217" t="e">
+      <c r="FI28" s="216" t="e">
         <f>IF(DR28=1,IF(DM28=1,IF(DW28=0,IF(DB28&gt;0,0,1),0),0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="FJ28" s="217" t="e">
+      <c r="FJ28" s="216" t="e">
         <f>_xlfn.IFS(DK28,0,EB28,0,IF(FH28&gt;0,IF(FI28=0,1,0),0),4,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="FK28" s="221" t="e">
+      <c r="FK28" s="220" t="e">
         <f>IF(FD28=3,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="FL28" s="221">
+      <c r="FL28" s="220">
         <f>IF(EZ28=4,1,0)</f>
         <v>1</v>
       </c>
-      <c r="FM28" s="221">
+      <c r="FM28" s="220">
         <f>IF(DG28=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="FN28" s="221" t="e">
+      <c r="FN28" s="220" t="e">
         <f>IF(EB28=1,IF(DB28=0,1,0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="FO28" s="221" t="e">
+      <c r="FO28" s="220" t="e">
         <f>_xlfn.IFS(DK28,0,FK28,3,FN28,5,FL28,5,IF(FH28=1,IF(FJ28=4,1,0),0),4,FI28,5,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="FP28" s="212">
+      <c r="FP28" s="211">
         <f>IF(CU28=1,0,IF(DB28=0,IF(INDEX($DB$28:$DB$700000,CU28-1)&gt;0,1,0),0))</f>
         <v>0</v>
       </c>
@@ -16754,24 +16783,24 @@
         <f ca="1">IF(R28="ABC","BOOLEAN_1","BOOLEAN_0")</f>
         <v>#N/A</v>
       </c>
-      <c r="GB28" s="168" t="s">
+      <c r="GB28" s="167" t="s">
         <v>206</v>
       </c>
-      <c r="GC28" s="168" t="e">
+      <c r="GC28" s="167" t="e">
         <f ca="1">"INTEGER_"&amp;DZ28</f>
         <v>#N/A</v>
       </c>
       <c r="GD28" s="109" t="s">
         <v>523</v>
       </c>
-      <c r="GE28" s="163" t="e">
+      <c r="GE28" s="162" t="e">
         <f ca="1">IF(H28="",IF(GC28&lt;&gt;"INTEGER_0","INTEGER_2","INTEGER_0"),IF(BU28&lt;&gt;"N","INTEGER_1","INTEGER_2"))</f>
         <v>#N/A</v>
       </c>
       <c r="GF28" s="109" t="s">
         <v>524</v>
       </c>
-      <c r="GG28" s="162" t="e">
+      <c r="GG28" s="161" t="e">
         <f ca="1">IF(GC28="INTEGER_2","INTEGER_2",IF(GC28="INTEGER_3","INTEGER_2",IF(CM28="N","INTEGER_2",IF(CM28=0,"INTEGER_1","INTEGER_0"))))</f>
         <v>#N/A</v>
       </c>
@@ -16782,10 +16811,10 @@
         <f>"INTEGER_"&amp;EP28</f>
         <v>#N/A</v>
       </c>
-      <c r="GJ28" s="173" t="s">
+      <c r="GJ28" s="172" t="s">
         <v>204</v>
       </c>
-      <c r="GK28" s="173" t="e">
+      <c r="GK28" s="172" t="e">
         <f>"INTEGER_"&amp;EV28</f>
         <v>#N/A</v>
       </c>
@@ -16996,11 +17025,51 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="Q9:T10"/>
-    <mergeCell ref="U9:V10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="IE27:IN27"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:AA26"/>
+    <mergeCell ref="AB26:AM26"/>
+    <mergeCell ref="AN26:BC26"/>
+    <mergeCell ref="HM27:HT27"/>
+    <mergeCell ref="BL26:BS26"/>
+    <mergeCell ref="BW26:CA26"/>
+    <mergeCell ref="EW26:EZ26"/>
+    <mergeCell ref="FK26:FO26"/>
+    <mergeCell ref="FQ27:FR27"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="EA26:EP26"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="HU27:ID27"/>
+    <mergeCell ref="BD25:CA25"/>
+    <mergeCell ref="CT25:FP25"/>
+    <mergeCell ref="CB25:CS25"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="DX26:DZ26"/>
+    <mergeCell ref="DF26:DW26"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="EQ26:EV26"/>
+    <mergeCell ref="FA26:FD26"/>
+    <mergeCell ref="FE26:FJ26"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="K26:K27"/>
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="U12:V12"/>
@@ -17017,261 +17086,221 @@
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="EA26:EP26"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="HU27:ID27"/>
-    <mergeCell ref="BD25:CA25"/>
-    <mergeCell ref="CT25:FP25"/>
-    <mergeCell ref="CB25:CS25"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="DX26:DZ26"/>
-    <mergeCell ref="DF26:DW26"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="EQ26:EV26"/>
-    <mergeCell ref="FA26:FD26"/>
-    <mergeCell ref="FE26:FJ26"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="IE27:IN27"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:AA26"/>
-    <mergeCell ref="AB26:AM26"/>
-    <mergeCell ref="AN26:BC26"/>
-    <mergeCell ref="HM27:HT27"/>
-    <mergeCell ref="BL26:BS26"/>
-    <mergeCell ref="BW26:CA26"/>
-    <mergeCell ref="EW26:EZ26"/>
-    <mergeCell ref="FK26:FO26"/>
-    <mergeCell ref="FQ27:FR27"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="Q9:T10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="Q28">
-    <cfRule type="expression" dxfId="54" priority="103">
+    <cfRule type="expression" dxfId="56" priority="103">
       <formula>NOT(_xlfn.ISFORMULA(Q28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28">
-    <cfRule type="expression" dxfId="53" priority="102">
+    <cfRule type="expression" dxfId="55" priority="102">
       <formula>NOT(_xlfn.ISFORMULA(R28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28">
-    <cfRule type="expression" dxfId="52" priority="101">
+    <cfRule type="expression" dxfId="54" priority="101">
       <formula>NOT(_xlfn.ISFORMULA(S28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28">
-    <cfRule type="expression" dxfId="51" priority="100">
+    <cfRule type="expression" dxfId="53" priority="100">
       <formula>NOT(_xlfn.ISFORMULA(T28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT28">
-    <cfRule type="expression" dxfId="50" priority="98">
+    <cfRule type="expression" dxfId="52" priority="98">
       <formula>NOT(_xlfn.ISFORMULA(AT28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX28:AY28">
-    <cfRule type="expression" dxfId="49" priority="97">
+    <cfRule type="expression" dxfId="51" priority="97">
       <formula>NOT(_xlfn.ISFORMULA(AX28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU28">
-    <cfRule type="expression" dxfId="48" priority="95">
+    <cfRule type="expression" dxfId="50" priority="95">
       <formula>NOT(_xlfn.ISFORMULA(AU28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GF28:GG28 GC28">
-    <cfRule type="cellIs" dxfId="47" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="90" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GF28:GG28 GC28">
-    <cfRule type="cellIs" dxfId="46" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="85" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="86" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="87" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="88" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="89" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GK28">
-    <cfRule type="cellIs" dxfId="41" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="66" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GK28">
-    <cfRule type="cellIs" dxfId="40" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="61" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="62" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="63" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="64" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="65" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN28">
-    <cfRule type="cellIs" dxfId="35" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GN28">
-    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="43" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="44" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="45" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="46" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="47" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP28">
-    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="42" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GP28">
-    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="37" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="38" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="41" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ28">
-    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GQ28">
-    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="35" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GR28">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GR28">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="23" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GT28">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GT28">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GU28:HD28 HF28 HH28:HK28">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GU28:HD28 HF28 HH28:HK28">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17375,32 +17404,32 @@
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="C3" s="65"/>
-      <c r="D3" s="252" t="s">
+      <c r="D3" s="251" t="s">
         <v>331</v>
       </c>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252" t="s">
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251" t="s">
         <v>332</v>
       </c>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
       <c r="J3" s="75" t="s">
         <v>335</v>
       </c>
       <c r="K3" s="75" t="s">
         <v>333</v>
       </c>
-      <c r="L3" s="252" t="s">
+      <c r="L3" s="251" t="s">
         <v>334</v>
       </c>
-      <c r="M3" s="252"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="302" t="s">
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="301" t="s">
         <v>342</v>
       </c>
-      <c r="P3" s="302"/>
-      <c r="Q3" s="302"/>
+      <c r="P3" s="301"/>
+      <c r="Q3" s="301"/>
       <c r="R3" s="81" t="s">
         <v>343</v>
       </c>
@@ -17531,41 +17560,41 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="233" t="s">
+      <c r="B2" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234"/>
-      <c r="I2" s="234"/>
-      <c r="J2" s="234"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="234"/>
-      <c r="M2" s="234"/>
-      <c r="N2" s="234"/>
-      <c r="O2" s="234"/>
-      <c r="P2" s="234"/>
-      <c r="Q2" s="234"/>
-      <c r="R2" s="234"/>
-      <c r="S2" s="234"/>
-      <c r="T2" s="234"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="234"/>
-      <c r="X2" s="234"/>
-      <c r="Y2" s="234"/>
-      <c r="Z2" s="234"/>
-      <c r="AA2" s="234"/>
-      <c r="AB2" s="234"/>
-      <c r="AC2" s="234"/>
-      <c r="AD2" s="234"/>
-      <c r="AE2" s="234"/>
-      <c r="AF2" s="234"/>
-      <c r="AG2" s="234"/>
-      <c r="AH2" s="245"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="233"/>
+      <c r="T2" s="233"/>
+      <c r="U2" s="233"/>
+      <c r="V2" s="233"/>
+      <c r="W2" s="233"/>
+      <c r="X2" s="233"/>
+      <c r="Y2" s="233"/>
+      <c r="Z2" s="233"/>
+      <c r="AA2" s="233"/>
+      <c r="AB2" s="233"/>
+      <c r="AC2" s="233"/>
+      <c r="AD2" s="233"/>
+      <c r="AE2" s="233"/>
+      <c r="AF2" s="233"/>
+      <c r="AG2" s="233"/>
+      <c r="AH2" s="244"/>
     </row>
     <row r="3" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -18482,488 +18511,488 @@
       <c r="AH12" s="2"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B13" s="227">
+      <c r="B13" s="226">
         <v>35</v>
       </c>
-      <c r="C13" s="227">
+      <c r="C13" s="226">
         <v>147</v>
       </c>
-      <c r="D13" s="228">
+      <c r="D13" s="227">
         <v>0.52400000000000002</v>
       </c>
-      <c r="E13" s="227">
+      <c r="E13" s="226">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="F13" s="228">
+      <c r="F13" s="227">
         <f t="shared" ref="F13:F20" si="5">SQRT(SUMSQ(D13,E13))</f>
         <v>0.53308535901860976</v>
       </c>
-      <c r="G13" s="227">
+      <c r="G13" s="226">
         <v>163</v>
       </c>
-      <c r="H13" s="227">
+      <c r="H13" s="226">
         <f>D13</f>
         <v>0.52400000000000002</v>
       </c>
-      <c r="I13" s="227">
+      <c r="I13" s="226">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="J13" s="228">
+      <c r="J13" s="227">
         <f t="shared" ref="J13:J20" si="6">SQRT(SUMSQ(H13,I13))</f>
         <v>0.53308535901860976</v>
       </c>
-      <c r="K13" s="227">
+      <c r="K13" s="226">
         <v>137</v>
       </c>
-      <c r="L13" s="228">
+      <c r="L13" s="227">
         <f>D13</f>
         <v>0.52400000000000002</v>
       </c>
-      <c r="M13" s="227">
+      <c r="M13" s="226">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="N13" s="228">
+      <c r="N13" s="227">
         <f>SQRT(SUMSQ(L13,M13))</f>
         <v>0.52992169232821562</v>
       </c>
-      <c r="O13" s="227">
+      <c r="O13" s="226">
         <v>158</v>
       </c>
-      <c r="P13" s="228">
+      <c r="P13" s="227">
         <f>D13</f>
         <v>0.52400000000000002</v>
       </c>
-      <c r="Q13" s="227">
+      <c r="Q13" s="226">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="R13" s="228">
+      <c r="R13" s="227">
         <f>SQRT(SUMSQ(P13,Q13))</f>
         <v>0.52992169232821562</v>
       </c>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B14" s="227">
+      <c r="B14" s="226">
         <v>50</v>
       </c>
-      <c r="C14" s="227">
+      <c r="C14" s="226">
         <v>179</v>
       </c>
-      <c r="D14" s="228">
+      <c r="D14" s="227">
         <f>D$13*$B$13/$B14</f>
         <v>0.36680000000000001</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="226">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F14" s="228">
+      <c r="F14" s="227">
         <f t="shared" si="5"/>
         <v>0.37890267879760364</v>
       </c>
-      <c r="G14" s="227">
+      <c r="G14" s="226">
         <v>194</v>
       </c>
-      <c r="H14" s="228">
+      <c r="H14" s="227">
         <f>D14</f>
         <v>0.36680000000000001</v>
       </c>
-      <c r="I14" s="227">
+      <c r="I14" s="226">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="J14" s="228">
+      <c r="J14" s="227">
         <f t="shared" si="6"/>
         <v>0.37890267879760364</v>
       </c>
-      <c r="K14" s="227">
+      <c r="K14" s="226">
         <v>167</v>
       </c>
-      <c r="L14" s="228">
+      <c r="L14" s="227">
         <f t="shared" ref="L14:L20" si="7">D14</f>
         <v>0.36680000000000001</v>
       </c>
-      <c r="M14" s="227">
+      <c r="M14" s="226">
         <v>7.8E-2</v>
       </c>
-      <c r="N14" s="228">
+      <c r="N14" s="227">
         <f t="shared" ref="N14:N20" si="8">SQRT(SUMSQ(L14,M14))</f>
         <v>0.37500165332968871</v>
       </c>
-      <c r="O14" s="227">
+      <c r="O14" s="226">
         <v>187</v>
       </c>
-      <c r="P14" s="228">
+      <c r="P14" s="227">
         <f t="shared" ref="P14:P20" si="9">D14</f>
         <v>0.36680000000000001</v>
       </c>
-      <c r="Q14" s="227">
+      <c r="Q14" s="226">
         <v>7.8E-2</v>
       </c>
-      <c r="R14" s="228">
+      <c r="R14" s="227">
         <f t="shared" ref="R14:R20" si="10">SQRT(SUMSQ(P14,Q14))</f>
         <v>0.37500165332968871</v>
       </c>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B15" s="227">
+      <c r="B15" s="226">
         <v>70</v>
       </c>
-      <c r="C15" s="227">
+      <c r="C15" s="226">
         <v>226</v>
       </c>
-      <c r="D15" s="228">
+      <c r="D15" s="227">
         <f t="shared" ref="D15:D20" si="11">D$13*$B$13/$B15</f>
         <v>0.26200000000000001</v>
       </c>
-      <c r="E15" s="227">
+      <c r="E15" s="226">
         <v>0.09</v>
       </c>
-      <c r="F15" s="228">
+      <c r="F15" s="227">
         <f t="shared" si="5"/>
         <v>0.27702707448911923</v>
       </c>
-      <c r="G15" s="227">
+      <c r="G15" s="226">
         <v>237</v>
       </c>
-      <c r="H15" s="228">
+      <c r="H15" s="227">
         <f t="shared" ref="H15:H20" si="12">D15</f>
         <v>0.26200000000000001</v>
       </c>
-      <c r="I15" s="227">
+      <c r="I15" s="226">
         <v>0.09</v>
       </c>
-      <c r="J15" s="228">
+      <c r="J15" s="227">
         <f t="shared" si="6"/>
         <v>0.27702707448911923</v>
       </c>
-      <c r="K15" s="227">
+      <c r="K15" s="226">
         <v>211</v>
       </c>
-      <c r="L15" s="228">
+      <c r="L15" s="227">
         <f t="shared" si="7"/>
         <v>0.26200000000000001</v>
       </c>
-      <c r="M15" s="227">
+      <c r="M15" s="226">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N15" s="228">
+      <c r="N15" s="227">
         <f t="shared" si="8"/>
         <v>0.27252339349127447</v>
       </c>
-      <c r="O15" s="227">
+      <c r="O15" s="226">
         <v>231</v>
       </c>
-      <c r="P15" s="228">
+      <c r="P15" s="227">
         <f t="shared" si="9"/>
         <v>0.26200000000000001</v>
       </c>
-      <c r="Q15" s="227">
+      <c r="Q15" s="226">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="R15" s="228">
+      <c r="R15" s="227">
         <f t="shared" si="10"/>
         <v>0.27252339349127447</v>
       </c>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B16" s="227">
+      <c r="B16" s="226">
         <v>95</v>
       </c>
-      <c r="C16" s="227">
+      <c r="C16" s="226">
         <v>280</v>
       </c>
-      <c r="D16" s="228">
+      <c r="D16" s="227">
         <f t="shared" si="11"/>
         <v>0.19305263157894736</v>
       </c>
-      <c r="E16" s="227">
+      <c r="E16" s="226">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F16" s="228">
+      <c r="F16" s="227">
         <f t="shared" si="5"/>
         <v>0.21216342417946782</v>
       </c>
-      <c r="G16" s="227">
+      <c r="G16" s="226">
         <v>285</v>
       </c>
-      <c r="H16" s="228">
+      <c r="H16" s="227">
         <f t="shared" si="12"/>
         <v>0.19305263157894736</v>
       </c>
-      <c r="I16" s="227">
+      <c r="I16" s="226">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="J16" s="228">
+      <c r="J16" s="227">
         <f t="shared" si="6"/>
         <v>0.21216342417946782</v>
       </c>
-      <c r="K16" s="227">
+      <c r="K16" s="226">
         <v>261</v>
       </c>
-      <c r="L16" s="228">
+      <c r="L16" s="227">
         <f t="shared" si="7"/>
         <v>0.19305263157894736</v>
       </c>
-      <c r="M16" s="227">
+      <c r="M16" s="226">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N16" s="228">
+      <c r="N16" s="227">
         <f t="shared" si="8"/>
         <v>0.2071094361914898</v>
       </c>
-      <c r="O16" s="227">
+      <c r="O16" s="226">
         <v>279</v>
       </c>
-      <c r="P16" s="228">
+      <c r="P16" s="227">
         <f t="shared" si="9"/>
         <v>0.19305263157894736</v>
       </c>
-      <c r="Q16" s="227">
+      <c r="Q16" s="226">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="R16" s="228">
+      <c r="R16" s="227">
         <f t="shared" si="10"/>
         <v>0.2071094361914898</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="227">
+      <c r="B17" s="226">
         <v>120</v>
       </c>
-      <c r="C17" s="227">
+      <c r="C17" s="226">
         <v>326</v>
       </c>
-      <c r="D17" s="228">
+      <c r="D17" s="227">
         <f t="shared" si="11"/>
         <v>0.15283333333333332</v>
       </c>
-      <c r="E17" s="227">
+      <c r="E17" s="226">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F17" s="228">
+      <c r="F17" s="227">
         <f t="shared" si="5"/>
         <v>0.17488003824844553</v>
       </c>
-      <c r="G17" s="227">
+      <c r="G17" s="226">
         <v>324</v>
       </c>
-      <c r="H17" s="228">
+      <c r="H17" s="227">
         <f t="shared" si="12"/>
         <v>0.15283333333333332</v>
       </c>
-      <c r="I17" s="227">
+      <c r="I17" s="226">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J17" s="228">
+      <c r="J17" s="227">
         <f t="shared" si="6"/>
         <v>0.17488003824844553</v>
       </c>
-      <c r="K17" s="227">
+      <c r="K17" s="226">
         <v>302</v>
       </c>
-      <c r="L17" s="228">
+      <c r="L17" s="227">
         <f t="shared" si="7"/>
         <v>0.15283333333333332</v>
       </c>
-      <c r="M17" s="227">
+      <c r="M17" s="226">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="N17" s="228">
+      <c r="N17" s="227">
         <f t="shared" si="8"/>
         <v>0.1693724528303755</v>
       </c>
-      <c r="O17" s="227">
+      <c r="O17" s="226">
         <v>317</v>
       </c>
-      <c r="P17" s="228">
+      <c r="P17" s="227">
         <f t="shared" si="9"/>
         <v>0.15283333333333332</v>
       </c>
-      <c r="Q17" s="227">
+      <c r="Q17" s="226">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="R17" s="228">
+      <c r="R17" s="227">
         <f t="shared" si="10"/>
         <v>0.1693724528303755</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="227">
+      <c r="B18" s="226">
         <v>150</v>
       </c>
-      <c r="C18" s="227">
+      <c r="C18" s="226">
         <v>373</v>
       </c>
-      <c r="D18" s="228">
+      <c r="D18" s="227">
         <f t="shared" si="11"/>
         <v>0.12226666666666666</v>
       </c>
-      <c r="E18" s="227">
+      <c r="E18" s="226">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="F18" s="228">
+      <c r="F18" s="227">
         <f t="shared" si="5"/>
         <v>0.14834128817621134</v>
       </c>
-      <c r="G18" s="227">
+      <c r="G18" s="226">
         <v>364</v>
       </c>
-      <c r="H18" s="228">
+      <c r="H18" s="227">
         <f t="shared" si="12"/>
         <v>0.12226666666666666</v>
       </c>
-      <c r="I18" s="227">
+      <c r="I18" s="226">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J18" s="228">
+      <c r="J18" s="227">
         <f t="shared" si="6"/>
         <v>0.14834128817621134</v>
       </c>
-      <c r="K18" s="227">
+      <c r="K18" s="226">
         <v>346</v>
       </c>
-      <c r="L18" s="228">
+      <c r="L18" s="227">
         <f t="shared" si="7"/>
         <v>0.12226666666666666</v>
       </c>
-      <c r="M18" s="227">
+      <c r="M18" s="226">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="N18" s="228">
+      <c r="N18" s="227">
         <f t="shared" si="8"/>
         <v>0.14240132646073833</v>
       </c>
-      <c r="O18" s="227">
+      <c r="O18" s="226">
         <v>358</v>
       </c>
-      <c r="P18" s="228">
+      <c r="P18" s="227">
         <f t="shared" si="9"/>
         <v>0.12226666666666666</v>
       </c>
-      <c r="Q18" s="227">
+      <c r="Q18" s="226">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="R18" s="228">
+      <c r="R18" s="227">
         <f t="shared" si="10"/>
         <v>0.14240132646073833</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="227">
+      <c r="B19" s="226">
         <v>185</v>
       </c>
-      <c r="C19" s="227">
+      <c r="C19" s="226">
         <v>431</v>
       </c>
-      <c r="D19" s="228">
+      <c r="D19" s="227">
         <f t="shared" si="11"/>
         <v>9.9135135135135138E-2</v>
       </c>
-      <c r="E19" s="227">
+      <c r="E19" s="226">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="F19" s="228">
+      <c r="F19" s="227">
         <f t="shared" si="5"/>
         <v>0.12993758123907612</v>
       </c>
-      <c r="G19" s="227">
+      <c r="G19" s="226">
         <v>412</v>
       </c>
-      <c r="H19" s="228">
+      <c r="H19" s="227">
         <f t="shared" si="12"/>
         <v>9.9135135135135138E-2</v>
       </c>
-      <c r="I19" s="227">
+      <c r="I19" s="226">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J19" s="228">
+      <c r="J19" s="227">
         <f t="shared" si="6"/>
         <v>0.12993758123907612</v>
       </c>
-      <c r="K19" s="227">
+      <c r="K19" s="226">
         <v>397</v>
       </c>
-      <c r="L19" s="228">
+      <c r="L19" s="227">
         <f t="shared" si="7"/>
         <v>9.9135135135135138E-2</v>
       </c>
-      <c r="M19" s="227">
+      <c r="M19" s="226">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="N19" s="228">
+      <c r="N19" s="227">
         <f t="shared" si="8"/>
         <v>0.12311285480509947</v>
       </c>
-      <c r="O19" s="227">
+      <c r="O19" s="226">
         <v>405</v>
       </c>
-      <c r="P19" s="228">
+      <c r="P19" s="227">
         <f t="shared" si="9"/>
         <v>9.9135135135135138E-2</v>
       </c>
-      <c r="Q19" s="227">
+      <c r="Q19" s="226">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="R19" s="228">
+      <c r="R19" s="227">
         <f t="shared" si="10"/>
         <v>0.12311285480509947</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="227">
+      <c r="B20" s="226">
         <v>240</v>
       </c>
-      <c r="C20" s="227">
+      <c r="C20" s="226">
         <v>512</v>
       </c>
-      <c r="D20" s="228">
+      <c r="D20" s="227">
         <f t="shared" si="11"/>
         <v>7.6416666666666661E-2</v>
       </c>
-      <c r="E20" s="227">
+      <c r="E20" s="226">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F20" s="228">
+      <c r="F20" s="227">
         <f t="shared" si="5"/>
         <v>0.11208705074380557</v>
       </c>
-      <c r="G20" s="227">
+      <c r="G20" s="226">
         <v>477</v>
       </c>
-      <c r="H20" s="228">
+      <c r="H20" s="227">
         <f t="shared" si="12"/>
         <v>7.6416666666666661E-2</v>
       </c>
-      <c r="I20" s="227">
+      <c r="I20" s="226">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="J20" s="228">
+      <c r="J20" s="227">
         <f t="shared" si="6"/>
         <v>0.11208705074380557</v>
       </c>
-      <c r="K20" s="227">
+      <c r="K20" s="226">
         <v>472</v>
       </c>
-      <c r="L20" s="228">
+      <c r="L20" s="227">
         <f t="shared" si="7"/>
         <v>7.6416666666666661E-2</v>
       </c>
-      <c r="M20" s="227">
+      <c r="M20" s="226">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N20" s="228">
+      <c r="N20" s="227">
         <f t="shared" si="8"/>
         <v>0.10499288997091394</v>
       </c>
-      <c r="O20" s="227">
+      <c r="O20" s="226">
         <v>471</v>
       </c>
-      <c r="P20" s="228">
+      <c r="P20" s="227">
         <f t="shared" si="9"/>
         <v>7.6416666666666661E-2</v>
       </c>
-      <c r="Q20" s="227">
+      <c r="Q20" s="226">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="R20" s="228">
+      <c r="R20" s="227">
         <f t="shared" si="10"/>
         <v>0.10499288997091394</v>
       </c>
@@ -18993,49 +19022,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="246" t="s">
+      <c r="B1" s="245" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="246"/>
-      <c r="O1" s="246"/>
-      <c r="P1" s="246"/>
-      <c r="Q1" s="246"/>
-      <c r="R1" s="246"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
+      <c r="N1" s="245"/>
+      <c r="O1" s="245"/>
+      <c r="P1" s="245"/>
+      <c r="Q1" s="245"/>
+      <c r="R1" s="245"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="247" t="s">
+      <c r="C2" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="247"/>
-      <c r="M2" s="247"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="247"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="248"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="246"/>
+      <c r="O2" s="246"/>
+      <c r="P2" s="246"/>
+      <c r="Q2" s="246"/>
+      <c r="R2" s="247"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -19499,14 +19528,14 @@
   <sheetData>
     <row r="1" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="249" t="s">
+      <c r="C2" s="248" t="s">
         <v>422</v>
       </c>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="251"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="250"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" s="116" t="s">
@@ -19529,962 +19558,962 @@
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="164" t="s">
+      <c r="C4" s="163" t="s">
         <v>429</v>
       </c>
-      <c r="D4" s="165">
-        <v>0</v>
-      </c>
-      <c r="E4" s="165">
-        <v>0</v>
-      </c>
-      <c r="F4" s="165">
+      <c r="D4" s="164">
+        <v>0</v>
+      </c>
+      <c r="E4" s="164">
+        <v>0</v>
+      </c>
+      <c r="F4" s="164">
         <v>1</v>
       </c>
-      <c r="G4" s="165">
+      <c r="G4" s="164">
         <v>1</v>
       </c>
-      <c r="H4" s="165">
+      <c r="H4" s="164">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="163" t="s">
         <v>433</v>
       </c>
-      <c r="D5" s="165">
-        <v>0</v>
-      </c>
-      <c r="E5" s="165">
+      <c r="D5" s="164">
+        <v>0</v>
+      </c>
+      <c r="E5" s="164">
         <v>35</v>
       </c>
-      <c r="F5" s="165">
+      <c r="F5" s="164">
         <v>1</v>
       </c>
-      <c r="G5" s="165">
+      <c r="G5" s="164">
         <v>1</v>
       </c>
-      <c r="H5" s="165">
+      <c r="H5" s="164">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="163" t="s">
+        <v>603</v>
+      </c>
+      <c r="D6" s="164">
+        <v>0</v>
+      </c>
+      <c r="E6" s="164">
+        <v>0</v>
+      </c>
+      <c r="F6" s="164">
+        <v>1</v>
+      </c>
+      <c r="G6" s="164">
+        <v>1</v>
+      </c>
+      <c r="H6" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="163" t="s">
+        <v>604</v>
+      </c>
+      <c r="D7" s="164">
+        <v>0</v>
+      </c>
+      <c r="E7" s="164">
+        <v>35</v>
+      </c>
+      <c r="F7" s="164">
+        <v>1</v>
+      </c>
+      <c r="G7" s="164">
+        <v>1</v>
+      </c>
+      <c r="H7" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="163" t="s">
+        <v>565</v>
+      </c>
+      <c r="D8" s="164">
+        <v>0</v>
+      </c>
+      <c r="E8" s="164">
+        <v>0</v>
+      </c>
+      <c r="F8" s="164">
+        <v>1</v>
+      </c>
+      <c r="G8" s="164">
+        <v>1</v>
+      </c>
+      <c r="H8" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="163" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" s="164">
+        <v>0</v>
+      </c>
+      <c r="E9" s="164">
+        <v>35</v>
+      </c>
+      <c r="F9" s="164">
+        <v>1</v>
+      </c>
+      <c r="G9" s="164">
+        <v>1</v>
+      </c>
+      <c r="H9" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="163" t="s">
         <v>605</v>
       </c>
-      <c r="D6" s="165">
-        <v>0</v>
-      </c>
-      <c r="E6" s="165">
-        <v>0</v>
-      </c>
-      <c r="F6" s="165">
+      <c r="D10" s="164">
+        <v>0</v>
+      </c>
+      <c r="E10" s="164">
+        <v>0</v>
+      </c>
+      <c r="F10" s="164">
         <v>1</v>
       </c>
-      <c r="G6" s="165">
+      <c r="G10" s="164">
         <v>1</v>
       </c>
-      <c r="H6" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="164" t="s">
+      <c r="H10" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="163" t="s">
         <v>606</v>
       </c>
-      <c r="D7" s="165">
-        <v>0</v>
-      </c>
-      <c r="E7" s="165">
+      <c r="D11" s="164">
+        <v>0</v>
+      </c>
+      <c r="E11" s="164">
         <v>35</v>
       </c>
-      <c r="F7" s="165">
+      <c r="F11" s="164">
         <v>1</v>
       </c>
-      <c r="G7" s="165">
+      <c r="G11" s="164">
         <v>1</v>
       </c>
-      <c r="H7" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="164" t="s">
+      <c r="H11" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="163" t="s">
+        <v>569</v>
+      </c>
+      <c r="D12" s="164">
+        <v>0</v>
+      </c>
+      <c r="E12" s="164">
+        <v>0</v>
+      </c>
+      <c r="F12" s="164">
+        <v>1</v>
+      </c>
+      <c r="G12" s="164">
+        <v>1</v>
+      </c>
+      <c r="H12" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="163" t="s">
+        <v>570</v>
+      </c>
+      <c r="D13" s="164">
+        <v>0</v>
+      </c>
+      <c r="E13" s="164">
+        <v>35</v>
+      </c>
+      <c r="F13" s="164">
+        <v>1</v>
+      </c>
+      <c r="G13" s="164">
+        <v>1</v>
+      </c>
+      <c r="H13" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="163" t="s">
+        <v>607</v>
+      </c>
+      <c r="D14" s="164">
+        <v>0</v>
+      </c>
+      <c r="E14" s="164">
+        <v>0</v>
+      </c>
+      <c r="F14" s="164">
+        <v>1</v>
+      </c>
+      <c r="G14" s="164">
+        <v>1</v>
+      </c>
+      <c r="H14" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="163" t="s">
+        <v>608</v>
+      </c>
+      <c r="D15" s="164">
+        <v>0</v>
+      </c>
+      <c r="E15" s="164">
+        <v>35</v>
+      </c>
+      <c r="F15" s="164">
+        <v>1</v>
+      </c>
+      <c r="G15" s="164">
+        <v>1</v>
+      </c>
+      <c r="H15" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="163" t="s">
+        <v>609</v>
+      </c>
+      <c r="D16" s="164">
+        <v>0</v>
+      </c>
+      <c r="E16" s="164">
+        <v>0</v>
+      </c>
+      <c r="F16" s="164">
+        <v>1</v>
+      </c>
+      <c r="G16" s="164">
+        <v>1</v>
+      </c>
+      <c r="H16" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="163" t="s">
+        <v>610</v>
+      </c>
+      <c r="D17" s="164">
+        <v>0</v>
+      </c>
+      <c r="E17" s="164">
+        <v>35</v>
+      </c>
+      <c r="F17" s="164">
+        <v>1</v>
+      </c>
+      <c r="G17" s="164">
+        <v>1</v>
+      </c>
+      <c r="H17" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="163" t="s">
         <v>567</v>
       </c>
-      <c r="D8" s="165">
-        <v>0</v>
-      </c>
-      <c r="E8" s="165">
-        <v>0</v>
-      </c>
-      <c r="F8" s="165">
+      <c r="D18" s="164">
+        <v>0</v>
+      </c>
+      <c r="E18" s="164">
+        <v>0</v>
+      </c>
+      <c r="F18" s="164">
         <v>1</v>
       </c>
-      <c r="G8" s="165">
+      <c r="G18" s="164">
         <v>1</v>
       </c>
-      <c r="H8" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="164" t="s">
+      <c r="H18" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="163" t="s">
         <v>568</v>
       </c>
-      <c r="D9" s="165">
-        <v>0</v>
-      </c>
-      <c r="E9" s="165">
+      <c r="D19" s="164">
+        <v>0</v>
+      </c>
+      <c r="E19" s="164">
         <v>35</v>
       </c>
-      <c r="F9" s="165">
+      <c r="F19" s="164">
         <v>1</v>
       </c>
-      <c r="G9" s="165">
+      <c r="G19" s="164">
         <v>1</v>
       </c>
-      <c r="H9" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="164" t="s">
-        <v>607</v>
-      </c>
-      <c r="D10" s="165">
-        <v>0</v>
-      </c>
-      <c r="E10" s="165">
-        <v>0</v>
-      </c>
-      <c r="F10" s="165">
+      <c r="H19" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="163" t="s">
+        <v>575</v>
+      </c>
+      <c r="D20" s="164">
+        <v>0</v>
+      </c>
+      <c r="E20" s="164">
+        <v>0</v>
+      </c>
+      <c r="F20" s="164">
         <v>1</v>
       </c>
-      <c r="G10" s="165">
+      <c r="G20" s="164">
         <v>1</v>
       </c>
-      <c r="H10" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="164" t="s">
-        <v>608</v>
-      </c>
-      <c r="D11" s="165">
-        <v>0</v>
-      </c>
-      <c r="E11" s="165">
+      <c r="H20" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="163" t="s">
+        <v>576</v>
+      </c>
+      <c r="D21" s="164">
+        <v>0</v>
+      </c>
+      <c r="E21" s="164">
         <v>35</v>
       </c>
-      <c r="F11" s="165">
+      <c r="F21" s="164">
         <v>1</v>
       </c>
-      <c r="G11" s="165">
+      <c r="G21" s="164">
         <v>1</v>
       </c>
-      <c r="H11" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="164" t="s">
+      <c r="H21" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="163" t="s">
+        <v>597</v>
+      </c>
+      <c r="D22" s="164">
+        <v>0</v>
+      </c>
+      <c r="E22" s="164">
+        <v>0</v>
+      </c>
+      <c r="F22" s="164">
+        <v>1</v>
+      </c>
+      <c r="G22" s="164">
+        <v>1</v>
+      </c>
+      <c r="H22" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="163" t="s">
+        <v>598</v>
+      </c>
+      <c r="D23" s="164">
+        <v>0</v>
+      </c>
+      <c r="E23" s="164">
+        <v>35</v>
+      </c>
+      <c r="F23" s="164">
+        <v>1</v>
+      </c>
+      <c r="G23" s="164">
+        <v>1</v>
+      </c>
+      <c r="H23" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="163" t="s">
+        <v>430</v>
+      </c>
+      <c r="D24" s="164">
+        <v>0</v>
+      </c>
+      <c r="E24" s="164">
+        <v>0</v>
+      </c>
+      <c r="F24" s="164">
+        <v>0.67</v>
+      </c>
+      <c r="G24" s="164">
+        <v>0.67</v>
+      </c>
+      <c r="H24" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="163" t="s">
+        <v>434</v>
+      </c>
+      <c r="D25" s="164">
+        <v>0</v>
+      </c>
+      <c r="E25" s="164">
+        <v>35</v>
+      </c>
+      <c r="F25" s="164">
+        <v>1</v>
+      </c>
+      <c r="G25" s="164">
+        <v>1</v>
+      </c>
+      <c r="H25" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="163" t="s">
+        <v>435</v>
+      </c>
+      <c r="D26" s="164">
+        <v>0</v>
+      </c>
+      <c r="E26" s="164">
+        <v>35</v>
+      </c>
+      <c r="F26" s="164">
+        <v>1</v>
+      </c>
+      <c r="G26" s="164">
+        <v>1</v>
+      </c>
+      <c r="H26" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="163" t="s">
+        <v>573</v>
+      </c>
+      <c r="D27" s="164">
+        <v>0</v>
+      </c>
+      <c r="E27" s="164">
+        <v>0</v>
+      </c>
+      <c r="F27" s="164">
+        <v>1</v>
+      </c>
+      <c r="G27" s="164">
+        <v>1</v>
+      </c>
+      <c r="H27" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="163" t="s">
+        <v>574</v>
+      </c>
+      <c r="D28" s="164">
+        <v>0</v>
+      </c>
+      <c r="E28" s="164">
+        <v>35</v>
+      </c>
+      <c r="F28" s="164">
+        <v>1</v>
+      </c>
+      <c r="G28" s="164">
+        <v>1</v>
+      </c>
+      <c r="H28" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="163" t="s">
+        <v>437</v>
+      </c>
+      <c r="D29" s="164">
+        <v>0</v>
+      </c>
+      <c r="E29" s="164">
+        <v>0</v>
+      </c>
+      <c r="F29" s="164">
+        <v>1</v>
+      </c>
+      <c r="G29" s="164">
+        <v>1</v>
+      </c>
+      <c r="H29" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="163" t="s">
+        <v>438</v>
+      </c>
+      <c r="D30" s="164">
+        <v>0</v>
+      </c>
+      <c r="E30" s="164">
+        <v>35</v>
+      </c>
+      <c r="F30" s="164">
+        <v>1</v>
+      </c>
+      <c r="G30" s="164">
+        <v>1</v>
+      </c>
+      <c r="H30" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="163" t="s">
+        <v>439</v>
+      </c>
+      <c r="D31" s="164">
+        <v>0</v>
+      </c>
+      <c r="E31" s="164">
+        <v>0</v>
+      </c>
+      <c r="F31" s="164">
+        <v>1</v>
+      </c>
+      <c r="G31" s="164">
+        <v>1</v>
+      </c>
+      <c r="H31" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="163" t="s">
+        <v>440</v>
+      </c>
+      <c r="D32" s="164">
+        <v>0</v>
+      </c>
+      <c r="E32" s="164">
+        <v>35</v>
+      </c>
+      <c r="F32" s="164">
+        <v>1</v>
+      </c>
+      <c r="G32" s="164">
+        <v>1</v>
+      </c>
+      <c r="H32" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="163" t="s">
+        <v>441</v>
+      </c>
+      <c r="D33" s="164">
+        <v>0</v>
+      </c>
+      <c r="E33" s="164">
+        <v>0</v>
+      </c>
+      <c r="F33" s="164">
+        <v>1</v>
+      </c>
+      <c r="G33" s="164">
+        <v>1</v>
+      </c>
+      <c r="H33" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="163" t="s">
+        <v>442</v>
+      </c>
+      <c r="D34" s="164">
+        <v>0</v>
+      </c>
+      <c r="E34" s="164">
+        <v>35</v>
+      </c>
+      <c r="F34" s="164">
+        <v>1</v>
+      </c>
+      <c r="G34" s="164">
+        <v>1</v>
+      </c>
+      <c r="H34" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="163" t="s">
+        <v>527</v>
+      </c>
+      <c r="D35" s="164">
+        <v>0</v>
+      </c>
+      <c r="E35" s="164">
+        <v>2</v>
+      </c>
+      <c r="F35" s="164">
+        <v>1</v>
+      </c>
+      <c r="G35" s="164">
+        <v>1</v>
+      </c>
+      <c r="H35" s="164">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="163" t="s">
+        <v>528</v>
+      </c>
+      <c r="D36" s="164">
+        <v>0</v>
+      </c>
+      <c r="E36" s="164">
+        <v>35</v>
+      </c>
+      <c r="F36" s="164">
+        <v>1</v>
+      </c>
+      <c r="G36" s="164">
+        <v>1</v>
+      </c>
+      <c r="H36" s="164">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="163" t="s">
+        <v>529</v>
+      </c>
+      <c r="D37" s="164">
+        <v>0</v>
+      </c>
+      <c r="E37" s="164">
+        <v>2</v>
+      </c>
+      <c r="F37" s="164">
+        <v>1</v>
+      </c>
+      <c r="G37" s="164">
+        <v>1</v>
+      </c>
+      <c r="H37" s="164">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="163" t="s">
+        <v>530</v>
+      </c>
+      <c r="D38" s="164">
+        <v>0</v>
+      </c>
+      <c r="E38" s="164">
+        <v>35</v>
+      </c>
+      <c r="F38" s="164">
+        <v>1</v>
+      </c>
+      <c r="G38" s="164">
+        <v>1</v>
+      </c>
+      <c r="H38" s="164">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="163" t="s">
         <v>571</v>
       </c>
-      <c r="D12" s="165">
-        <v>0</v>
-      </c>
-      <c r="E12" s="165">
-        <v>0</v>
-      </c>
-      <c r="F12" s="165">
+      <c r="D39" s="164">
+        <v>0</v>
+      </c>
+      <c r="E39" s="164">
+        <v>2</v>
+      </c>
+      <c r="F39" s="164">
         <v>1</v>
       </c>
-      <c r="G12" s="165">
+      <c r="G39" s="164">
         <v>1</v>
       </c>
-      <c r="H12" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="164" t="s">
+      <c r="H39" s="164">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="163" t="s">
         <v>572</v>
       </c>
-      <c r="D13" s="165">
-        <v>0</v>
-      </c>
-      <c r="E13" s="165">
+      <c r="D40" s="164">
+        <v>0</v>
+      </c>
+      <c r="E40" s="164">
         <v>35</v>
       </c>
-      <c r="F13" s="165">
+      <c r="F40" s="164">
         <v>1</v>
       </c>
-      <c r="G13" s="165">
+      <c r="G40" s="164">
         <v>1</v>
       </c>
-      <c r="H13" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="164" t="s">
-        <v>609</v>
-      </c>
-      <c r="D14" s="165">
-        <v>0</v>
-      </c>
-      <c r="E14" s="165">
-        <v>0</v>
-      </c>
-      <c r="F14" s="165">
+      <c r="H40" s="164">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="163" t="s">
+        <v>620</v>
+      </c>
+      <c r="D41" s="164">
+        <v>0</v>
+      </c>
+      <c r="E41" s="164">
+        <v>2</v>
+      </c>
+      <c r="F41" s="164">
         <v>1</v>
       </c>
-      <c r="G14" s="165">
+      <c r="G41" s="164">
         <v>1</v>
       </c>
-      <c r="H14" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="164" t="s">
-        <v>610</v>
-      </c>
-      <c r="D15" s="165">
-        <v>0</v>
-      </c>
-      <c r="E15" s="165">
+      <c r="H41" s="164">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="163" t="s">
+        <v>621</v>
+      </c>
+      <c r="D42" s="164">
+        <v>0</v>
+      </c>
+      <c r="E42" s="164">
         <v>35</v>
       </c>
-      <c r="F15" s="165">
+      <c r="F42" s="164">
         <v>1</v>
       </c>
-      <c r="G15" s="165">
+      <c r="G42" s="164">
         <v>1</v>
       </c>
-      <c r="H15" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="164" t="s">
-        <v>611</v>
-      </c>
-      <c r="D16" s="165">
-        <v>0</v>
-      </c>
-      <c r="E16" s="165">
-        <v>0</v>
-      </c>
-      <c r="F16" s="165">
+      <c r="H42" s="164">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="163" t="s">
+        <v>622</v>
+      </c>
+      <c r="D43" s="164">
+        <v>0</v>
+      </c>
+      <c r="E43" s="164">
+        <v>2</v>
+      </c>
+      <c r="F43" s="164">
         <v>1</v>
       </c>
-      <c r="G16" s="165">
+      <c r="G43" s="164">
         <v>1</v>
       </c>
-      <c r="H16" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="164" t="s">
-        <v>612</v>
-      </c>
-      <c r="D17" s="165">
-        <v>0</v>
-      </c>
-      <c r="E17" s="165">
+      <c r="H43" s="164">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="163" t="s">
+        <v>623</v>
+      </c>
+      <c r="D44" s="164">
+        <v>0</v>
+      </c>
+      <c r="E44" s="164">
         <v>35</v>
       </c>
-      <c r="F17" s="165">
+      <c r="F44" s="164">
         <v>1</v>
       </c>
-      <c r="G17" s="165">
+      <c r="G44" s="164">
         <v>1</v>
       </c>
-      <c r="H17" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="164" t="s">
-        <v>569</v>
-      </c>
-      <c r="D18" s="165">
-        <v>0</v>
-      </c>
-      <c r="E18" s="165">
-        <v>0</v>
-      </c>
-      <c r="F18" s="165">
+      <c r="H44" s="164">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="163" t="s">
+        <v>624</v>
+      </c>
+      <c r="D45" s="164">
+        <v>0</v>
+      </c>
+      <c r="E45" s="164">
+        <v>2</v>
+      </c>
+      <c r="F45" s="164">
         <v>1</v>
       </c>
-      <c r="G18" s="165">
+      <c r="G45" s="164">
         <v>1</v>
       </c>
-      <c r="H18" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="164" t="s">
-        <v>570</v>
-      </c>
-      <c r="D19" s="165">
-        <v>0</v>
-      </c>
-      <c r="E19" s="165">
+      <c r="H45" s="164">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="163" t="s">
+        <v>625</v>
+      </c>
+      <c r="D46" s="164">
+        <v>0</v>
+      </c>
+      <c r="E46" s="164">
         <v>35</v>
       </c>
-      <c r="F19" s="165">
+      <c r="F46" s="164">
         <v>1</v>
       </c>
-      <c r="G19" s="165">
+      <c r="G46" s="164">
         <v>1</v>
       </c>
-      <c r="H19" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="164" t="s">
-        <v>577</v>
-      </c>
-      <c r="D20" s="165">
-        <v>0</v>
-      </c>
-      <c r="E20" s="165">
-        <v>0</v>
-      </c>
-      <c r="F20" s="165">
+      <c r="H46" s="164">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="163" t="s">
+        <v>626</v>
+      </c>
+      <c r="D47" s="164">
+        <v>0</v>
+      </c>
+      <c r="E47" s="164">
+        <v>2</v>
+      </c>
+      <c r="F47" s="164">
         <v>1</v>
       </c>
-      <c r="G20" s="165">
+      <c r="G47" s="164">
         <v>1</v>
       </c>
-      <c r="H20" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="164" t="s">
-        <v>578</v>
-      </c>
-      <c r="D21" s="165">
-        <v>0</v>
-      </c>
-      <c r="E21" s="165">
+      <c r="H47" s="164">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="163" t="s">
+        <v>627</v>
+      </c>
+      <c r="D48" s="164">
+        <v>0</v>
+      </c>
+      <c r="E48" s="164">
         <v>35</v>
       </c>
-      <c r="F21" s="165">
+      <c r="F48" s="164">
         <v>1</v>
       </c>
-      <c r="G21" s="165">
+      <c r="G48" s="164">
         <v>1</v>
       </c>
-      <c r="H21" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="164" t="s">
-        <v>599</v>
-      </c>
-      <c r="D22" s="165">
-        <v>0</v>
-      </c>
-      <c r="E22" s="165">
-        <v>0</v>
-      </c>
-      <c r="F22" s="165">
+      <c r="H48" s="164">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="163" t="s">
+        <v>628</v>
+      </c>
+      <c r="D49" s="164">
+        <v>0</v>
+      </c>
+      <c r="E49" s="164">
+        <v>2</v>
+      </c>
+      <c r="F49" s="164">
         <v>1</v>
       </c>
-      <c r="G22" s="165">
+      <c r="G49" s="164">
         <v>1</v>
       </c>
-      <c r="H22" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="164" t="s">
-        <v>600</v>
-      </c>
-      <c r="D23" s="165">
-        <v>0</v>
-      </c>
-      <c r="E23" s="165">
+      <c r="H49" s="164">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="163" t="s">
+        <v>629</v>
+      </c>
+      <c r="D50" s="164">
+        <v>0</v>
+      </c>
+      <c r="E50" s="164">
         <v>35</v>
       </c>
-      <c r="F23" s="165">
+      <c r="F50" s="164">
         <v>1</v>
       </c>
-      <c r="G23" s="165">
+      <c r="G50" s="164">
         <v>1</v>
       </c>
-      <c r="H23" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="164" t="s">
-        <v>430</v>
-      </c>
-      <c r="D24" s="165">
-        <v>0</v>
-      </c>
-      <c r="E24" s="165">
-        <v>0</v>
-      </c>
-      <c r="F24" s="165">
-        <v>0.67</v>
-      </c>
-      <c r="G24" s="165">
-        <v>0.67</v>
-      </c>
-      <c r="H24" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="164" t="s">
-        <v>434</v>
-      </c>
-      <c r="D25" s="165">
-        <v>0</v>
-      </c>
-      <c r="E25" s="165">
-        <v>35</v>
-      </c>
-      <c r="F25" s="165">
+      <c r="H50" s="164">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="163" t="s">
+        <v>431</v>
+      </c>
+      <c r="D51" s="164">
+        <v>0</v>
+      </c>
+      <c r="E51" s="164">
+        <v>0</v>
+      </c>
+      <c r="F51" s="164">
         <v>1</v>
       </c>
-      <c r="G25" s="165">
+      <c r="G51" s="164">
         <v>1</v>
       </c>
-      <c r="H25" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="164" t="s">
-        <v>435</v>
-      </c>
-      <c r="D26" s="165">
-        <v>0</v>
-      </c>
-      <c r="E26" s="165">
-        <v>35</v>
-      </c>
-      <c r="F26" s="165">
-        <v>1</v>
-      </c>
-      <c r="G26" s="165">
-        <v>1</v>
-      </c>
-      <c r="H26" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="164" t="s">
-        <v>575</v>
-      </c>
-      <c r="D27" s="165">
-        <v>0</v>
-      </c>
-      <c r="E27" s="165">
-        <v>0</v>
-      </c>
-      <c r="F27" s="165">
-        <v>1</v>
-      </c>
-      <c r="G27" s="165">
-        <v>1</v>
-      </c>
-      <c r="H27" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="164" t="s">
-        <v>576</v>
-      </c>
-      <c r="D28" s="165">
-        <v>0</v>
-      </c>
-      <c r="E28" s="165">
-        <v>35</v>
-      </c>
-      <c r="F28" s="165">
-        <v>1</v>
-      </c>
-      <c r="G28" s="165">
-        <v>1</v>
-      </c>
-      <c r="H28" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="164" t="s">
-        <v>437</v>
-      </c>
-      <c r="D29" s="165">
-        <v>0</v>
-      </c>
-      <c r="E29" s="165">
-        <v>0</v>
-      </c>
-      <c r="F29" s="165">
-        <v>1</v>
-      </c>
-      <c r="G29" s="165">
-        <v>1</v>
-      </c>
-      <c r="H29" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="164" t="s">
-        <v>438</v>
-      </c>
-      <c r="D30" s="165">
-        <v>0</v>
-      </c>
-      <c r="E30" s="165">
-        <v>35</v>
-      </c>
-      <c r="F30" s="165">
-        <v>1</v>
-      </c>
-      <c r="G30" s="165">
-        <v>1</v>
-      </c>
-      <c r="H30" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="164" t="s">
-        <v>439</v>
-      </c>
-      <c r="D31" s="165">
-        <v>0</v>
-      </c>
-      <c r="E31" s="165">
-        <v>0</v>
-      </c>
-      <c r="F31" s="165">
-        <v>1</v>
-      </c>
-      <c r="G31" s="165">
-        <v>1</v>
-      </c>
-      <c r="H31" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="164" t="s">
-        <v>440</v>
-      </c>
-      <c r="D32" s="165">
-        <v>0</v>
-      </c>
-      <c r="E32" s="165">
-        <v>35</v>
-      </c>
-      <c r="F32" s="165">
-        <v>1</v>
-      </c>
-      <c r="G32" s="165">
-        <v>1</v>
-      </c>
-      <c r="H32" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="164" t="s">
-        <v>441</v>
-      </c>
-      <c r="D33" s="165">
-        <v>0</v>
-      </c>
-      <c r="E33" s="165">
-        <v>0</v>
-      </c>
-      <c r="F33" s="165">
-        <v>1</v>
-      </c>
-      <c r="G33" s="165">
-        <v>1</v>
-      </c>
-      <c r="H33" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="164" t="s">
-        <v>442</v>
-      </c>
-      <c r="D34" s="165">
-        <v>0</v>
-      </c>
-      <c r="E34" s="165">
-        <v>35</v>
-      </c>
-      <c r="F34" s="165">
-        <v>1</v>
-      </c>
-      <c r="G34" s="165">
-        <v>1</v>
-      </c>
-      <c r="H34" s="165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="164" t="s">
-        <v>529</v>
-      </c>
-      <c r="D35" s="165">
-        <v>0</v>
-      </c>
-      <c r="E35" s="165">
-        <v>2</v>
-      </c>
-      <c r="F35" s="165">
-        <v>1</v>
-      </c>
-      <c r="G35" s="165">
-        <v>1</v>
-      </c>
-      <c r="H35" s="165">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="164" t="s">
-        <v>530</v>
-      </c>
-      <c r="D36" s="165">
-        <v>0</v>
-      </c>
-      <c r="E36" s="165">
-        <v>35</v>
-      </c>
-      <c r="F36" s="165">
-        <v>1</v>
-      </c>
-      <c r="G36" s="165">
-        <v>1</v>
-      </c>
-      <c r="H36" s="165">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="164" t="s">
-        <v>531</v>
-      </c>
-      <c r="D37" s="165">
-        <v>0</v>
-      </c>
-      <c r="E37" s="165">
-        <v>2</v>
-      </c>
-      <c r="F37" s="165">
-        <v>1</v>
-      </c>
-      <c r="G37" s="165">
-        <v>1</v>
-      </c>
-      <c r="H37" s="165">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="164" t="s">
-        <v>532</v>
-      </c>
-      <c r="D38" s="165">
-        <v>0</v>
-      </c>
-      <c r="E38" s="165">
-        <v>35</v>
-      </c>
-      <c r="F38" s="165">
-        <v>1</v>
-      </c>
-      <c r="G38" s="165">
-        <v>1</v>
-      </c>
-      <c r="H38" s="165">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="164" t="s">
-        <v>573</v>
-      </c>
-      <c r="D39" s="165">
-        <v>0</v>
-      </c>
-      <c r="E39" s="165">
-        <v>2</v>
-      </c>
-      <c r="F39" s="165">
-        <v>1</v>
-      </c>
-      <c r="G39" s="165">
-        <v>1</v>
-      </c>
-      <c r="H39" s="165">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="164" t="s">
-        <v>574</v>
-      </c>
-      <c r="D40" s="165">
-        <v>0</v>
-      </c>
-      <c r="E40" s="165">
-        <v>35</v>
-      </c>
-      <c r="F40" s="165">
-        <v>1</v>
-      </c>
-      <c r="G40" s="165">
-        <v>1</v>
-      </c>
-      <c r="H40" s="165">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="164" t="s">
-        <v>622</v>
-      </c>
-      <c r="D41" s="165">
-        <v>0</v>
-      </c>
-      <c r="E41" s="165">
-        <v>2</v>
-      </c>
-      <c r="F41" s="165">
-        <v>1</v>
-      </c>
-      <c r="G41" s="165">
-        <v>1</v>
-      </c>
-      <c r="H41" s="165">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="164" t="s">
-        <v>623</v>
-      </c>
-      <c r="D42" s="165">
-        <v>0</v>
-      </c>
-      <c r="E42" s="165">
-        <v>35</v>
-      </c>
-      <c r="F42" s="165">
-        <v>1</v>
-      </c>
-      <c r="G42" s="165">
-        <v>1</v>
-      </c>
-      <c r="H42" s="165">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="164" t="s">
-        <v>624</v>
-      </c>
-      <c r="D43" s="165">
-        <v>0</v>
-      </c>
-      <c r="E43" s="165">
-        <v>2</v>
-      </c>
-      <c r="F43" s="165">
-        <v>1</v>
-      </c>
-      <c r="G43" s="165">
-        <v>1</v>
-      </c>
-      <c r="H43" s="165">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="164" t="s">
-        <v>625</v>
-      </c>
-      <c r="D44" s="165">
-        <v>0</v>
-      </c>
-      <c r="E44" s="165">
-        <v>35</v>
-      </c>
-      <c r="F44" s="165">
-        <v>1</v>
-      </c>
-      <c r="G44" s="165">
-        <v>1</v>
-      </c>
-      <c r="H44" s="165">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="164" t="s">
-        <v>626</v>
-      </c>
-      <c r="D45" s="165">
-        <v>0</v>
-      </c>
-      <c r="E45" s="165">
-        <v>2</v>
-      </c>
-      <c r="F45" s="165">
-        <v>1</v>
-      </c>
-      <c r="G45" s="165">
-        <v>1</v>
-      </c>
-      <c r="H45" s="165">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="164" t="s">
-        <v>627</v>
-      </c>
-      <c r="D46" s="165">
-        <v>0</v>
-      </c>
-      <c r="E46" s="165">
-        <v>35</v>
-      </c>
-      <c r="F46" s="165">
-        <v>1</v>
-      </c>
-      <c r="G46" s="165">
-        <v>1</v>
-      </c>
-      <c r="H46" s="165">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="164" t="s">
-        <v>628</v>
-      </c>
-      <c r="D47" s="165">
-        <v>0</v>
-      </c>
-      <c r="E47" s="165">
-        <v>2</v>
-      </c>
-      <c r="F47" s="165">
-        <v>1</v>
-      </c>
-      <c r="G47" s="165">
-        <v>1</v>
-      </c>
-      <c r="H47" s="165">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="164" t="s">
-        <v>629</v>
-      </c>
-      <c r="D48" s="165">
-        <v>0</v>
-      </c>
-      <c r="E48" s="165">
-        <v>35</v>
-      </c>
-      <c r="F48" s="165">
-        <v>1</v>
-      </c>
-      <c r="G48" s="165">
-        <v>1</v>
-      </c>
-      <c r="H48" s="165">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="164" t="s">
-        <v>630</v>
-      </c>
-      <c r="D49" s="165">
-        <v>0</v>
-      </c>
-      <c r="E49" s="165">
-        <v>2</v>
-      </c>
-      <c r="F49" s="165">
-        <v>1</v>
-      </c>
-      <c r="G49" s="165">
-        <v>1</v>
-      </c>
-      <c r="H49" s="165">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="164" t="s">
-        <v>631</v>
-      </c>
-      <c r="D50" s="165">
-        <v>0</v>
-      </c>
-      <c r="E50" s="165">
-        <v>35</v>
-      </c>
-      <c r="F50" s="165">
-        <v>1</v>
-      </c>
-      <c r="G50" s="165">
-        <v>1</v>
-      </c>
-      <c r="H50" s="165">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="164" t="s">
-        <v>431</v>
-      </c>
-      <c r="D51" s="165">
-        <v>0</v>
-      </c>
-      <c r="E51" s="165">
-        <v>0</v>
-      </c>
-      <c r="F51" s="165">
-        <v>1</v>
-      </c>
-      <c r="G51" s="165">
-        <v>1</v>
-      </c>
-      <c r="H51" s="165">
+      <c r="H51" s="164">
         <v>0</v>
       </c>
     </row>
@@ -20581,7 +20610,7 @@
         <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -20872,11 +20901,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="D3" s="253" t="s">
+      <c r="D3" s="252" t="s">
         <v>316</v>
       </c>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="D4" s="67" t="s">
@@ -21098,72 +21127,72 @@
       </c>
     </row>
     <row r="8" spans="1:68" ht="135" x14ac:dyDescent="0.25">
-      <c r="B8" s="224"/>
-      <c r="C8" s="252" t="s">
+      <c r="B8" s="223"/>
+      <c r="C8" s="251" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="252"/>
-      <c r="E8" s="252"/>
-      <c r="F8" s="254" t="s">
+      <c r="D8" s="251"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="253" t="s">
         <v>323</v>
       </c>
-      <c r="G8" s="254"/>
-      <c r="H8" s="254"/>
-      <c r="I8" s="252" t="s">
+      <c r="G8" s="253"/>
+      <c r="H8" s="253"/>
+      <c r="I8" s="251" t="s">
         <v>165</v>
       </c>
-      <c r="J8" s="252"/>
-      <c r="K8" s="252"/>
-      <c r="L8" s="252" t="s">
+      <c r="J8" s="251"/>
+      <c r="K8" s="251"/>
+      <c r="L8" s="251" t="s">
         <v>178</v>
       </c>
-      <c r="M8" s="252"/>
-      <c r="N8" s="252"/>
-      <c r="O8" s="252" t="s">
+      <c r="M8" s="251"/>
+      <c r="N8" s="251"/>
+      <c r="O8" s="251" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="252"/>
-      <c r="Q8" s="252"/>
-      <c r="R8" s="252" t="s">
+      <c r="P8" s="251"/>
+      <c r="Q8" s="251"/>
+      <c r="R8" s="251" t="s">
         <v>179</v>
       </c>
-      <c r="S8" s="252"/>
-      <c r="T8" s="252"/>
-      <c r="U8" s="252" t="s">
+      <c r="S8" s="251"/>
+      <c r="T8" s="251"/>
+      <c r="U8" s="251" t="s">
         <v>166</v>
       </c>
-      <c r="V8" s="252"/>
-      <c r="W8" s="252"/>
-      <c r="X8" s="252" t="s">
+      <c r="V8" s="251"/>
+      <c r="W8" s="251"/>
+      <c r="X8" s="251" t="s">
         <v>181</v>
       </c>
-      <c r="Y8" s="252"/>
-      <c r="Z8" s="252"/>
-      <c r="AA8" s="252" t="s">
+      <c r="Y8" s="251"/>
+      <c r="Z8" s="251"/>
+      <c r="AA8" s="251" t="s">
         <v>182</v>
       </c>
-      <c r="AB8" s="252"/>
-      <c r="AC8" s="252"/>
-      <c r="AD8" s="252" t="s">
+      <c r="AB8" s="251"/>
+      <c r="AC8" s="251"/>
+      <c r="AD8" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="AE8" s="252"/>
-      <c r="AF8" s="252"/>
-      <c r="AG8" s="252" t="s">
+      <c r="AE8" s="251"/>
+      <c r="AF8" s="251"/>
+      <c r="AG8" s="251" t="s">
         <v>380</v>
       </c>
-      <c r="AH8" s="252"/>
-      <c r="AI8" s="252"/>
-      <c r="AJ8" s="252" t="s">
-        <v>601</v>
-      </c>
-      <c r="AK8" s="252"/>
-      <c r="AL8" s="252"/>
-      <c r="AM8" s="252" t="s">
-        <v>597</v>
-      </c>
-      <c r="AN8" s="252"/>
-      <c r="AO8" s="252"/>
+      <c r="AH8" s="251"/>
+      <c r="AI8" s="251"/>
+      <c r="AJ8" s="251" t="s">
+        <v>599</v>
+      </c>
+      <c r="AK8" s="251"/>
+      <c r="AL8" s="251"/>
+      <c r="AM8" s="251" t="s">
+        <v>595</v>
+      </c>
+      <c r="AN8" s="251"/>
+      <c r="AO8" s="251"/>
       <c r="AP8" s="107" t="s">
         <v>419</v>
       </c>
@@ -21180,7 +21209,7 @@
         <v>472</v>
       </c>
       <c r="AU8" s="87" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AV8" s="90" t="s">
         <v>385</v>
@@ -21351,7 +21380,7 @@
       <c r="AN9" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="AO9" s="223" t="s">
+      <c r="AO9" s="222" t="s">
         <v>163</v>
       </c>
       <c r="AP9" s="52" t="s">
@@ -21425,7 +21454,7 @@
       <c r="AL10" s="53"/>
       <c r="AM10" s="51"/>
       <c r="AN10" s="52"/>
-      <c r="AO10" s="223"/>
+      <c r="AO10" s="222"/>
       <c r="AP10" s="52"/>
       <c r="AQ10" s="73"/>
       <c r="AR10" s="73"/>
@@ -21513,15 +21542,15 @@
       <c r="AH11" s="52"/>
       <c r="AI11" s="53"/>
       <c r="AJ11" s="54" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AK11" s="52"/>
       <c r="AL11" s="53"/>
       <c r="AM11" s="54" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AN11" s="52"/>
-      <c r="AO11" s="223"/>
+      <c r="AO11" s="222"/>
       <c r="AP11" s="52" t="s">
         <v>420</v>
       </c>
